--- a/Data/Prospecting bibliography.xlsx
+++ b/Data/Prospecting bibliography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s03ap7\Documents\Projects\Prospecting review\Prospecting review analysis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Prospecting review\Prospecting review analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77236A6-0B9F-4E53-B7A2-F3C3595ECE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A809DE7-CBE8-4B4C-80FA-AEECEF8B3F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$180</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4546" uniqueCount="1415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4754" uniqueCount="1488">
   <si>
     <t>Species</t>
   </si>
@@ -4302,6 +4302,225 @@
   <si>
     <t>while territory searching males showed prospecting activity only at dawn when all territorial males</t>
   </si>
+  <si>
+    <t>ecological traps</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Scient Reports</t>
+  </si>
+  <si>
+    <t>European badger</t>
+  </si>
+  <si>
+    <t>Mayer</t>
+  </si>
+  <si>
+    <t>prospecting with sex and age</t>
+  </si>
+  <si>
+    <t>more during summer</t>
+  </si>
+  <si>
+    <t>Females prospect less during winter</t>
+  </si>
+  <si>
+    <t>0.18-0.3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-020-66809-w</t>
+  </si>
+  <si>
+    <t>Eurasian beaver</t>
+  </si>
+  <si>
+    <t>Castor fiber</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>outside breeding</t>
+  </si>
+  <si>
+    <t>individuals in smaller territories conducting more forays</t>
+  </si>
+  <si>
+    <t>26/56</t>
+  </si>
+  <si>
+    <t>0.3-11.3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-017-15540-0</t>
+  </si>
+  <si>
+    <t>Debeffe</t>
+  </si>
+  <si>
+    <t>Roe deer</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Capreolus capreolus</t>
+  </si>
+  <si>
+    <t>summer/rutting period</t>
+  </si>
+  <si>
+    <t>more frequent in males than females</t>
+  </si>
+  <si>
+    <t>rutting period</t>
+  </si>
+  <si>
+    <t>prospecting/EPC</t>
+  </si>
+  <si>
+    <t>10.1007/s00442-014-3021-</t>
+  </si>
+  <si>
+    <t>Mancinelli</t>
+  </si>
+  <si>
+    <t>Mammal Biol</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Canis lupus</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.mambio.2018.08.003</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.anbehav.2013.05.005</t>
+  </si>
+  <si>
+    <t>first year juveniles</t>
+  </si>
+  <si>
+    <t>pre dispersal</t>
+  </si>
+  <si>
+    <t>more frequent in dispersers than philoptaric</t>
+  </si>
+  <si>
+    <t>fall and winter</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1469-7998.2011.00857.x</t>
+  </si>
+  <si>
+    <t>Samelius</t>
+  </si>
+  <si>
+    <t>Journ of Zool</t>
+  </si>
+  <si>
+    <t>Eurasian lynx</t>
+  </si>
+  <si>
+    <t>Lynx lynx</t>
+  </si>
+  <si>
+    <t>Scandinavia</t>
+  </si>
+  <si>
+    <t>10 months</t>
+  </si>
+  <si>
+    <t>only mentionned, not discussed</t>
+  </si>
+  <si>
+    <t>Gaughran</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/ece3.5753</t>
+  </si>
+  <si>
+    <t>&gt; 100</t>
+  </si>
+  <si>
+    <t>7 years</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Blakey</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.foreco.2018.10.017</t>
+  </si>
+  <si>
+    <t>Forest Ecol Manag</t>
+  </si>
+  <si>
+    <t>California spotted owl</t>
+  </si>
+  <si>
+    <t>habitat use</t>
+  </si>
+  <si>
+    <t>&gt;10</t>
+  </si>
+  <si>
+    <t>non-breeding females</t>
+  </si>
+  <si>
+    <t>females go further</t>
+  </si>
+  <si>
+    <t>Van Moorter</t>
+  </si>
+  <si>
+    <t>Ethol Ecol Evol</t>
+  </si>
+  <si>
+    <t>search behaviour during natal dispersal</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/08927014.2008.9522539</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/cz/zoac002</t>
+  </si>
+  <si>
+    <t>Patchett</t>
+  </si>
+  <si>
+    <t>Curr Zool</t>
+  </si>
+  <si>
+    <t>Cyprus wheatear</t>
+  </si>
+  <si>
+    <t>Oenanthe cypriaca</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>post-breeding behaviour</t>
+  </si>
+  <si>
+    <t>trend in males</t>
+  </si>
+  <si>
+    <t>Ducros</t>
+  </si>
+  <si>
+    <t>10.1111/oik.06793</t>
+  </si>
+  <si>
+    <t>natal dispersal strategy</t>
+  </si>
 </sst>
 </file>
 
@@ -4310,7 +4529,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4366,6 +4585,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -4491,7 +4716,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4527,9 +4751,10 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4808,18 +5033,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD44"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" style="58" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
@@ -4851,7 +5076,7 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>1018</v>
       </c>
       <c r="C1" t="s">
@@ -4936,7 +5161,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>62</v>
       </c>
@@ -5025,11 +5250,11 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>144</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>1237</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5095,7 +5320,7 @@
       </c>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>146</v>
       </c>
@@ -5255,7 +5480,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>55</v>
       </c>
@@ -5344,7 +5569,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>114</v>
       </c>
@@ -5431,7 +5656,7 @@
       </c>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -5918,7 +6143,7 @@
       <c r="A14" s="20">
         <v>164</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="71" t="s">
         <v>1378</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -5969,97 +6194,97 @@
       </c>
       <c r="T14" s="22"/>
     </row>
-    <row r="15" spans="1:30" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+    <row r="15" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
         <v>14</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="60" t="s">
         <v>1077</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>1292</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="48">
         <v>2000</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="48" t="s">
         <v>493</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="49" t="s">
+      <c r="L15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="49" t="s">
+      <c r="M15" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="49" t="s">
+      <c r="N15" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="O15" s="49" t="s">
+      <c r="O15" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="P15" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="49" t="s">
+      <c r="P15" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="52" t="s">
+      <c r="T15" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="U15" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="V15" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="W15" s="49" t="s">
+      <c r="U15" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="X15" s="49" t="s">
+      <c r="X15" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="Y15" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z15" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA15" s="49" t="s">
+      <c r="Y15" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z15" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AB15" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" s="20" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>147</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="59" t="s">
         <v>1259</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -6222,7 +6447,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -6482,7 +6707,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>132</v>
       </c>
@@ -6565,7 +6790,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>47</v>
       </c>
@@ -6802,93 +7027,93 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
+    <row r="25" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="48">
         <v>54</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="60" t="s">
         <v>1087</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="48" t="s">
         <v>1292</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="48">
         <v>2008</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H25" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="I25" s="49" t="s">
+      <c r="I25" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="J25" s="49" t="s">
+      <c r="J25" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="K25" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="49" t="s">
+      <c r="K25" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" s="49" t="s">
+      <c r="M25" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="O25" s="49" t="s">
+      <c r="O25" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="P25" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="R25" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="S25" s="49" t="s">
+      <c r="P25" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="T25" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="U25" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="V25" s="49" t="s">
+      <c r="T25" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="W25" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="X25" s="49" t="s">
+      <c r="W25" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" s="48" t="s">
         <v>446</v>
       </c>
-      <c r="Y25" s="49" t="s">
+      <c r="Y25" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="Z25" s="49" t="s">
+      <c r="Z25" s="48" t="s">
         <v>447</v>
       </c>
-      <c r="AA25" s="49" t="s">
+      <c r="AA25" s="48" t="s">
         <v>445</v>
       </c>
-      <c r="AB25" s="49" t="s">
+      <c r="AB25" s="48" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>60</v>
       </c>
@@ -7063,7 +7288,7 @@
       <c r="AC27" s="20"/>
       <c r="AD27" s="20"/>
     </row>
-    <row r="28" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>59</v>
       </c>
@@ -7236,92 +7461,92 @@
       </c>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46">
+    <row r="30" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45">
         <v>136</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="61" t="s">
         <v>1194</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="52" t="s">
         <v>739</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="45" t="s">
         <v>740</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="45">
         <v>2020</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="45" t="s">
         <v>741</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="K30" s="46" t="s">
+      <c r="K30" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="L30" s="46" t="s">
+      <c r="L30" s="45" t="s">
         <v>563</v>
       </c>
-      <c r="M30" s="46" t="s">
+      <c r="M30" s="45" t="s">
         <v>781</v>
       </c>
-      <c r="N30" s="46" t="s">
+      <c r="N30" s="45" t="s">
         <v>1190</v>
       </c>
-      <c r="O30" s="46" t="s">
+      <c r="O30" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="P30" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q30" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="S30" s="46" t="s">
+      <c r="P30" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="S30" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="T30" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="U30" s="46" t="s">
+      <c r="T30" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" s="45" t="s">
         <v>781</v>
       </c>
-      <c r="V30" s="46" t="s">
+      <c r="V30" s="45" t="s">
         <v>703</v>
       </c>
-      <c r="W30" s="46" t="s">
+      <c r="W30" s="45" t="s">
         <v>875</v>
       </c>
-      <c r="X30" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y30" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z30" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA30" s="46" t="s">
+      <c r="X30" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y30" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z30" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA30" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="AB30" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC30" s="46" t="s">
+      <c r="AB30" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC30" s="45" t="s">
         <v>575</v>
       </c>
     </row>
@@ -7412,181 +7637,181 @@
       </c>
       <c r="AC31" s="20"/>
     </row>
-    <row r="32" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46">
+    <row r="32" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45">
         <v>139</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="61" t="s">
         <v>1201</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="45" t="s">
         <v>1191</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="45">
         <v>2017</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="45" t="s">
         <v>1192</v>
       </c>
-      <c r="H32" s="47" t="s">
+      <c r="H32" s="46" t="s">
         <v>1193</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="I32" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="46" t="s">
+      <c r="J32" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="K32" s="46" t="s">
+      <c r="K32" s="45" t="s">
         <v>1207</v>
       </c>
-      <c r="L32" s="46" t="s">
+      <c r="L32" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="46" t="s">
+      <c r="M32" s="45" t="s">
         <v>868</v>
       </c>
-      <c r="N32" s="46" t="s">
+      <c r="N32" s="45" t="s">
         <v>1208</v>
       </c>
-      <c r="O32" s="46" t="s">
+      <c r="O32" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="P32" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R32" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="S32" s="46" t="s">
+      <c r="P32" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" s="45" t="s">
         <v>1202</v>
       </c>
-      <c r="T32" s="48" t="s">
+      <c r="T32" s="47" t="s">
         <v>1209</v>
       </c>
-      <c r="U32" s="46" t="s">
+      <c r="U32" s="45" t="s">
         <v>868</v>
       </c>
-      <c r="V32" s="46" t="s">
+      <c r="V32" s="45" t="s">
         <v>1204</v>
       </c>
-      <c r="W32" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="X32" s="46" t="s">
+      <c r="W32" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="X32" s="45" t="s">
         <v>1203</v>
       </c>
-      <c r="Y32" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z32" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA32" s="46" t="s">
+      <c r="Y32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA32" s="45" t="s">
         <v>1210</v>
       </c>
-      <c r="AB32" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC32" s="46" t="s">
+      <c r="AB32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC32" s="45" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="33" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46">
+    <row r="33" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45">
         <v>95</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="61" t="s">
         <v>1091</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="45" t="s">
         <v>777</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="45">
         <v>2008</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="45" t="s">
         <v>778</v>
       </c>
-      <c r="H33" s="47" t="s">
+      <c r="H33" s="46" t="s">
         <v>779</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="I33" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="46" t="s">
+      <c r="J33" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="L33" s="46" t="s">
+      <c r="L33" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="46" t="s">
+      <c r="M33" s="45" t="s">
         <v>781</v>
       </c>
-      <c r="N33" s="46" t="s">
+      <c r="N33" s="45" t="s">
         <v>780</v>
       </c>
-      <c r="O33" s="46" t="s">
+      <c r="O33" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="P33" s="48" t="s">
+      <c r="P33" s="47" t="s">
         <v>783</v>
       </c>
-      <c r="Q33" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="S33" s="46" t="s">
+      <c r="Q33" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="T33" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="U33" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="V33" s="46" t="s">
+      <c r="T33" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="V33" s="45" t="s">
         <v>703</v>
       </c>
-      <c r="W33" s="46" t="s">
+      <c r="W33" s="45" t="s">
         <v>782</v>
       </c>
-      <c r="X33" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y33" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z33" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA33" s="46" t="s">
+      <c r="X33" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y33" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z33" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA33" s="45" t="s">
         <v>784</v>
       </c>
-      <c r="AB33" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC33" s="46" t="s">
+      <c r="AB33" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC33" s="45" t="s">
         <v>785</v>
       </c>
     </row>
@@ -7676,7 +7901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>117</v>
       </c>
@@ -8365,86 +8590,86 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:30" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49">
+    <row r="43" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="48">
         <v>37</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="60" t="s">
         <v>1095</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="48" t="s">
         <v>1292</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="49">
+      <c r="F43" s="48">
         <v>2000</v>
       </c>
-      <c r="G43" s="49" t="s">
+      <c r="G43" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="H43" s="51" t="s">
+      <c r="H43" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="I43" s="49" t="s">
+      <c r="I43" s="48" t="s">
         <v>536</v>
       </c>
-      <c r="J43" s="49" t="s">
+      <c r="J43" s="48" t="s">
         <v>726</v>
       </c>
-      <c r="K43" s="49" t="s">
+      <c r="K43" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="L43" s="49" t="s">
+      <c r="L43" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="M43" s="49" t="s">
+      <c r="M43" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="N43" s="49" t="s">
+      <c r="N43" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="O43" s="49" t="s">
+      <c r="O43" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="P43" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="R43" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="S43" s="49" t="s">
+      <c r="P43" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="R43" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="S43" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="T43" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="U43" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="V43" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="W43" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="X43" s="49" t="s">
+      <c r="T43" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="U43" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="V43" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="W43" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="X43" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="Y43" s="49" t="s">
+      <c r="Y43" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="Z43" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA43" s="49" t="s">
+      <c r="Z43" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA43" s="48" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8536,89 +8761,89 @@
       <c r="AC44" s="20"/>
       <c r="AD44" s="20"/>
     </row>
-    <row r="45" spans="1:30" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46">
+    <row r="45" spans="1:30" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="45">
         <v>92</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="61" t="s">
         <v>1097</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="45" t="s">
         <v>722</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="45" t="s">
         <v>723</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="45">
         <v>2017</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="45" t="s">
         <v>724</v>
       </c>
-      <c r="H45" s="47" t="s">
+      <c r="H45" s="46" t="s">
         <v>725</v>
       </c>
-      <c r="I45" s="46" t="s">
+      <c r="I45" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="J45" s="46" t="s">
+      <c r="J45" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="K45" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="L45" s="46" t="s">
+      <c r="K45" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="N45" s="46" t="s">
+      <c r="N45" s="45" t="s">
         <v>1303</v>
       </c>
-      <c r="O45" s="46" t="s">
+      <c r="O45" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="P45" s="48" t="s">
+      <c r="P45" s="47" t="s">
         <v>727</v>
       </c>
-      <c r="Q45" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="R45" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="S45" s="46" t="s">
+      <c r="Q45" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R45" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="S45" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="T45" s="48" t="s">
+      <c r="T45" s="47" t="s">
         <v>729</v>
       </c>
-      <c r="U45" s="46" t="s">
+      <c r="U45" s="45" t="s">
         <v>731</v>
       </c>
-      <c r="V45" s="46" t="s">
+      <c r="V45" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="W45" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="X45" s="46" t="s">
+      <c r="W45" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="X45" s="45" t="s">
         <v>730</v>
       </c>
-      <c r="Y45" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z45" s="46" t="s">
+      <c r="Y45" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z45" s="45" t="s">
         <v>1304</v>
       </c>
-      <c r="AA45" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB45" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC45" s="46" t="s">
+      <c r="AA45" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB45" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC45" s="45" t="s">
         <v>728</v>
       </c>
     </row>
@@ -8966,96 +9191,96 @@
       </c>
       <c r="AC49" s="20"/>
     </row>
-    <row r="50" spans="1:30" s="54" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54">
+    <row r="50" spans="1:30" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="53">
         <v>13</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="62" t="s">
         <v>1099</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="54">
+      <c r="F50" s="53">
         <v>2005</v>
       </c>
-      <c r="G50" s="58" t="s">
+      <c r="G50" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="H50" s="56" t="s">
+      <c r="H50" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="I50" s="54" t="s">
+      <c r="I50" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="54" t="s">
+      <c r="J50" s="53" t="s">
         <v>459</v>
       </c>
-      <c r="K50" s="54" t="s">
+      <c r="K50" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="L50" s="54" t="s">
+      <c r="L50" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="54" t="s">
+      <c r="M50" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="N50" s="54" t="s">
+      <c r="N50" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="O50" s="54" t="s">
+      <c r="O50" s="53" t="s">
         <v>391</v>
       </c>
-      <c r="P50" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q50" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="R50" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="S50" s="54" t="s">
+      <c r="P50" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="S50" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="T50" s="55" t="s">
+      <c r="T50" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="U50" s="54" t="s">
+      <c r="U50" s="53" t="s">
         <v>977</v>
       </c>
-      <c r="V50" s="54" t="s">
+      <c r="V50" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="W50" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="X50" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y50" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z50" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA50" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB50" s="54" t="s">
+      <c r="W50" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="X50" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y50" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z50" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA50" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB50" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="AC50" s="54" t="s">
+      <c r="AC50" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -9145,7 +9370,7 @@
       <c r="A52" s="20">
         <v>49</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="63" t="s">
         <v>1101</v>
       </c>
       <c r="C52" s="20" t="s">
@@ -9385,92 +9610,92 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="55" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46">
+    <row r="55" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="45">
         <v>112</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="64" t="s">
         <v>1103</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="45" t="s">
         <v>869</v>
       </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="45" t="s">
         <v>870</v>
       </c>
-      <c r="F55" s="46">
+      <c r="F55" s="45">
         <v>2000</v>
       </c>
-      <c r="G55" s="46" t="s">
+      <c r="G55" s="45" t="s">
         <v>871</v>
       </c>
-      <c r="H55" s="47" t="s">
+      <c r="H55" s="46" t="s">
         <v>899</v>
       </c>
-      <c r="I55" s="46" t="s">
+      <c r="I55" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J55" s="46" t="s">
+      <c r="J55" s="45" t="s">
         <v>459</v>
       </c>
-      <c r="K55" s="46" t="s">
+      <c r="K55" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="L55" s="46" t="s">
+      <c r="L55" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M55" s="46" t="s">
+      <c r="M55" s="45" t="s">
         <v>781</v>
       </c>
-      <c r="N55" s="46" t="s">
+      <c r="N55" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="O55" s="46" t="s">
+      <c r="O55" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="P55" s="48" t="s">
+      <c r="P55" s="47" t="s">
         <v>901</v>
       </c>
-      <c r="Q55" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R55" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="S55" s="46" t="s">
+      <c r="Q55" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="S55" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="T55" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="U55" s="46" t="s">
+      <c r="T55" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="U55" s="45" t="s">
         <v>781</v>
       </c>
-      <c r="V55" s="46" t="s">
+      <c r="V55" s="45" t="s">
         <v>703</v>
       </c>
-      <c r="W55" s="46" t="s">
+      <c r="W55" s="45" t="s">
         <v>875</v>
       </c>
-      <c r="X55" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y55" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z55" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA55" s="46" t="s">
+      <c r="X55" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y55" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z55" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA55" s="45" t="s">
         <v>906</v>
       </c>
-      <c r="AB55" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC55" s="46" t="s">
+      <c r="AB55" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC55" s="45" t="s">
         <v>575</v>
       </c>
     </row>
@@ -9634,7 +9859,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="58" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>65</v>
       </c>
@@ -9720,11 +9945,11 @@
         <v>518</v>
       </c>
     </row>
-    <row r="59" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>148</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="59" t="s">
         <v>1263</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -9878,7 +10103,7 @@
       <c r="A61" s="20">
         <v>151</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="63" t="s">
         <v>1278</v>
       </c>
       <c r="C61" s="20" t="s">
@@ -9938,7 +10163,7 @@
       <c r="U61" s="20" t="s">
         <v>1277</v>
       </c>
-      <c r="X61" s="42"/>
+      <c r="X61" s="41"/>
     </row>
     <row r="62" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
@@ -10028,7 +10253,7 @@
       <c r="AC62" s="20"/>
       <c r="AD62" s="20"/>
     </row>
-    <row r="63" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>39</v>
       </c>
@@ -10115,11 +10340,11 @@
       </c>
       <c r="AD63" s="20"/>
     </row>
-    <row r="64" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40</v>
       </c>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="59" t="s">
         <v>1108</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -10201,11 +10426,11 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="59" t="s">
         <v>1110</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -10287,7 +10512,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="66" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>53</v>
       </c>
@@ -10370,11 +10595,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41</v>
       </c>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="59" t="s">
         <v>1111</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -10453,7 +10678,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>58</v>
       </c>
@@ -10632,7 +10857,7 @@
       <c r="A70" s="20">
         <v>142</v>
       </c>
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="63" t="s">
         <v>1221</v>
       </c>
       <c r="C70" s="20" t="s">
@@ -10810,7 +11035,7 @@
       <c r="A72" s="7">
         <v>106</v>
       </c>
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="65" t="s">
         <v>1115</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -10892,7 +11117,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="73" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>46</v>
       </c>
@@ -11408,77 +11633,77 @@
       </c>
       <c r="AD78" s="1"/>
     </row>
-    <row r="79" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="46">
+    <row r="79" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="45">
         <v>140</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="61" t="s">
         <v>1213</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="C79" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="46" t="s">
+      <c r="D79" s="45" t="s">
         <v>1206</v>
       </c>
-      <c r="E79" s="46" t="s">
+      <c r="E79" s="45" t="s">
         <v>840</v>
       </c>
-      <c r="F79" s="46">
+      <c r="F79" s="45">
         <v>2006</v>
       </c>
-      <c r="G79" s="46" t="s">
+      <c r="G79" s="45" t="s">
         <v>1211</v>
       </c>
-      <c r="H79" s="47" t="s">
+      <c r="H79" s="46" t="s">
         <v>1212</v>
       </c>
-      <c r="I79" s="46" t="s">
+      <c r="I79" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J79" s="46" t="s">
+      <c r="J79" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="46" t="s">
+      <c r="K79" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="L79" s="46" t="s">
+      <c r="L79" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M79" s="46" t="s">
+      <c r="M79" s="45" t="s">
         <v>1214</v>
       </c>
-      <c r="N79" s="46" t="s">
+      <c r="N79" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="O79" s="46" t="s">
+      <c r="O79" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="P79" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q79" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R79" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="S79" s="46" t="s">
+      <c r="P79" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q79" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R79" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="S79" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="T79" s="48" t="s">
+      <c r="T79" s="47" t="s">
         <v>1215</v>
       </c>
-      <c r="U79" s="46" t="s">
+      <c r="U79" s="45" t="s">
         <v>886</v>
       </c>
-      <c r="V79" s="46" t="s">
+      <c r="V79" s="45" t="s">
         <v>1219</v>
       </c>
-      <c r="W79" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="X79" s="46" t="s">
+      <c r="W79" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="X79" s="45" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -11486,7 +11711,7 @@
       <c r="A80" s="20">
         <v>153</v>
       </c>
-      <c r="B80" s="64" t="s">
+      <c r="B80" s="63" t="s">
         <v>1283</v>
       </c>
       <c r="C80" s="20" t="s">
@@ -11549,9 +11774,12 @@
       <c r="W80" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="X80" s="42"/>
-    </row>
-    <row r="81" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X80" s="41"/>
+      <c r="Y80" s="20" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>149</v>
       </c>
@@ -11629,7 +11857,7 @@
       <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
     </row>
-    <row r="82" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>64</v>
       </c>
@@ -11717,7 +11945,7 @@
       <c r="AC82" s="1"/>
       <c r="AD82" s="1"/>
     </row>
-    <row r="83" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>67</v>
       </c>
@@ -11800,7 +12028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>72</v>
       </c>
@@ -11975,7 +12203,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="86" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>101</v>
       </c>
@@ -12064,11 +12292,11 @@
         <v>480</v>
       </c>
     </row>
-    <row r="87" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>155</v>
       </c>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="59" t="s">
         <v>1286</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -12128,7 +12356,7 @@
       </c>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
-      <c r="X87" s="44"/>
+      <c r="X87" s="43"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1" t="s">
         <v>480</v>
@@ -12312,90 +12540,90 @@
       <c r="AC89" s="20"/>
       <c r="AD89" s="20"/>
     </row>
-    <row r="90" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="46">
+    <row r="90" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="45">
         <v>111</v>
       </c>
-      <c r="B90" s="62" t="s">
+      <c r="B90" s="61" t="s">
         <v>1123</v>
       </c>
-      <c r="C90" s="46" t="s">
+      <c r="C90" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D90" s="46" t="s">
+      <c r="D90" s="45" t="s">
         <v>810</v>
       </c>
-      <c r="E90" s="46" t="s">
+      <c r="E90" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="F90" s="46">
+      <c r="F90" s="45">
         <v>2004</v>
       </c>
-      <c r="G90" s="46" t="s">
+      <c r="G90" s="45" t="s">
         <v>811</v>
       </c>
-      <c r="H90" s="47" t="s">
+      <c r="H90" s="46" t="s">
         <v>812</v>
       </c>
-      <c r="I90" s="46" t="s">
+      <c r="I90" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J90" s="46" t="s">
+      <c r="J90" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="K90" s="46" t="s">
+      <c r="K90" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="L90" s="46" t="s">
+      <c r="L90" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M90" s="46" t="s">
+      <c r="M90" s="45" t="s">
         <v>896</v>
       </c>
-      <c r="N90" s="46" t="s">
+      <c r="N90" s="45" t="s">
         <v>895</v>
       </c>
-      <c r="O90" s="46" t="s">
+      <c r="O90" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="P90" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q90" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R90" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="S90" s="46" t="s">
+      <c r="P90" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q90" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R90" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="S90" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="T90" s="48"/>
-      <c r="U90" s="46" t="s">
+      <c r="T90" s="47"/>
+      <c r="U90" s="45" t="s">
         <v>897</v>
       </c>
-      <c r="V90" s="46" t="s">
+      <c r="V90" s="45" t="s">
         <v>703</v>
       </c>
-      <c r="W90" s="46" t="s">
+      <c r="W90" s="45" t="s">
         <v>875</v>
       </c>
-      <c r="X90" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y90" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z90" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA90" s="46" t="s">
+      <c r="X90" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y90" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z90" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA90" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="AB90" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC90" s="46" t="s">
+      <c r="AB90" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC90" s="45" t="s">
         <v>575</v>
       </c>
     </row>
@@ -12549,83 +12777,83 @@
       </c>
       <c r="T92" s="22"/>
     </row>
-    <row r="93" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="46">
+    <row r="93" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="45">
         <v>152</v>
       </c>
-      <c r="B93" s="62" t="s">
+      <c r="B93" s="61" t="s">
         <v>1282</v>
       </c>
-      <c r="C93" s="46" t="s">
+      <c r="C93" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D93" s="53" t="s">
+      <c r="D93" s="52" t="s">
         <v>753</v>
       </c>
-      <c r="E93" s="46" t="s">
+      <c r="E93" s="45" t="s">
         <v>840</v>
       </c>
-      <c r="F93" s="46">
+      <c r="F93" s="45">
         <v>2001</v>
       </c>
-      <c r="G93" s="46" t="s">
+      <c r="G93" s="45" t="s">
         <v>684</v>
       </c>
-      <c r="H93" s="47" t="s">
+      <c r="H93" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="I93" s="46" t="s">
+      <c r="I93" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J93" s="46" t="s">
+      <c r="J93" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="K93" s="46" t="s">
+      <c r="K93" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="L93" s="46" t="s">
+      <c r="L93" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M93" s="46" t="s">
+      <c r="M93" s="45" t="s">
         <v>868</v>
       </c>
-      <c r="N93" s="46" t="s">
+      <c r="N93" s="45" t="s">
         <v>573</v>
       </c>
-      <c r="O93" s="46" t="s">
+      <c r="O93" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="P93" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q93" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R93" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="S93" s="46" t="s">
+      <c r="P93" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q93" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R93" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="S93" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="T93" s="48"/>
-      <c r="U93" s="46" t="s">
+      <c r="T93" s="47"/>
+      <c r="U93" s="45" t="s">
         <v>1280</v>
       </c>
-      <c r="W93" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="X93" s="70" t="s">
+      <c r="W93" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="X93" s="69" t="s">
         <v>1279</v>
       </c>
-      <c r="Z93" s="46" t="s">
+      <c r="Z93" s="45" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="94" spans="1:30" s="1" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>145</v>
       </c>
-      <c r="B94" s="60" t="s">
+      <c r="B94" s="59" t="s">
         <v>1242</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -12699,7 +12927,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="95" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44</v>
       </c>
@@ -12952,11 +13180,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>135</v>
       </c>
-      <c r="B98" s="60" t="s">
+      <c r="B98" s="59" t="s">
         <v>1174</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -13044,7 +13272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>134</v>
       </c>
@@ -13130,11 +13358,11 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="100" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>23</v>
       </c>
-      <c r="B100" s="60" t="s">
+      <c r="B100" s="59" t="s">
         <v>1128</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -13219,11 +13447,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>119</v>
       </c>
-      <c r="B101" s="60" t="s">
+      <c r="B101" s="59" t="s">
         <v>1130</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -13389,7 +13617,7 @@
       </c>
       <c r="AD102" s="1"/>
     </row>
-    <row r="103" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>34</v>
       </c>
@@ -13479,7 +13707,7 @@
       </c>
       <c r="AD103" s="1"/>
     </row>
-    <row r="104" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>18</v>
       </c>
@@ -13565,74 +13793,74 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="46">
+    <row r="105" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="45">
         <v>141</v>
       </c>
-      <c r="B105" s="71" t="s">
+      <c r="B105" s="70" t="s">
         <v>1217</v>
       </c>
-      <c r="C105" s="46" t="s">
+      <c r="C105" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D105" s="53" t="s">
+      <c r="D105" s="52" t="s">
         <v>817</v>
       </c>
-      <c r="E105" s="46" t="s">
+      <c r="E105" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="F105" s="46">
+      <c r="F105" s="45">
         <v>2006</v>
       </c>
-      <c r="G105" s="46" t="s">
+      <c r="G105" s="45" t="s">
         <v>818</v>
       </c>
-      <c r="H105" s="47" t="s">
+      <c r="H105" s="46" t="s">
         <v>819</v>
       </c>
-      <c r="I105" s="46" t="s">
+      <c r="I105" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J105" s="46" t="s">
+      <c r="J105" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="K105" s="46" t="s">
+      <c r="K105" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="L105" s="46" t="s">
+      <c r="L105" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M105" s="46" t="s">
+      <c r="M105" s="45" t="s">
         <v>1220</v>
       </c>
-      <c r="N105" s="46" t="s">
+      <c r="N105" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="O105" s="46" t="s">
+      <c r="O105" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="P105" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q105" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R105" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="S105" s="46" t="s">
+      <c r="P105" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q105" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R105" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="S105" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="T105" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="V105" s="46" t="s">
+      <c r="T105" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="V105" s="45" t="s">
         <v>1219</v>
       </c>
-      <c r="W105" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="X105" s="46" t="s">
+      <c r="W105" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="X105" s="45" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -14227,7 +14455,7 @@
       </c>
       <c r="AD112" s="1"/>
     </row>
-    <row r="113" spans="1:30" s="20" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>66</v>
       </c>
@@ -14395,7 +14623,7 @@
       <c r="A115" s="7">
         <v>107</v>
       </c>
-      <c r="B115" s="66" t="s">
+      <c r="B115" s="65" t="s">
         <v>1056</v>
       </c>
       <c r="C115" s="7" t="s">
@@ -14474,7 +14702,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="116" spans="1:30" s="20" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>24</v>
       </c>
@@ -14804,7 +15032,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="120" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>85</v>
       </c>
@@ -15145,7 +15373,7 @@
       <c r="A124" s="7">
         <v>90</v>
       </c>
-      <c r="B124" s="66" t="s">
+      <c r="B124" s="65" t="s">
         <v>1137</v>
       </c>
       <c r="C124" s="7" t="s">
@@ -15230,7 +15458,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="125" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>80</v>
       </c>
@@ -15491,7 +15719,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="128" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>133</v>
       </c>
@@ -15577,7 +15805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>38</v>
       </c>
@@ -15928,7 +16156,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>86</v>
       </c>
@@ -16015,11 +16243,11 @@
       </c>
       <c r="AC133" s="1"/>
     </row>
-    <row r="134" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43</v>
       </c>
-      <c r="B134" s="60" t="s">
+      <c r="B134" s="59" t="s">
         <v>1144</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -16101,7 +16329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45</v>
       </c>
@@ -16188,7 +16416,7 @@
       </c>
       <c r="AC135" s="1"/>
     </row>
-    <row r="136" spans="1:30" s="20" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>42</v>
       </c>
@@ -16441,7 +16669,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="139" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>125</v>
       </c>
@@ -16530,7 +16758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>82</v>
       </c>
@@ -16613,180 +16841,180 @@
         <v>646</v>
       </c>
     </row>
-    <row r="141" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="46">
+    <row r="141" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="45">
         <v>105</v>
       </c>
-      <c r="B141" s="62" t="s">
+      <c r="B141" s="61" t="s">
         <v>1149</v>
       </c>
-      <c r="C141" s="46" t="s">
+      <c r="C141" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D141" s="46" t="s">
+      <c r="D141" s="45" t="s">
         <v>808</v>
       </c>
-      <c r="E141" s="46" t="s">
+      <c r="E141" s="45" t="s">
         <v>809</v>
       </c>
-      <c r="F141" s="46">
+      <c r="F141" s="45">
         <v>2005</v>
       </c>
-      <c r="G141" s="46" t="s">
+      <c r="G141" s="45" t="s">
         <v>778</v>
       </c>
-      <c r="H141" s="47" t="s">
+      <c r="H141" s="46" t="s">
         <v>779</v>
       </c>
-      <c r="I141" s="46" t="s">
+      <c r="I141" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J141" s="46" t="s">
+      <c r="J141" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="K141" s="46" t="s">
+      <c r="K141" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="L141" s="46" t="s">
+      <c r="L141" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M141" s="46" t="s">
+      <c r="M141" s="45" t="s">
         <v>868</v>
       </c>
-      <c r="N141" s="46" t="s">
+      <c r="N141" s="45" t="s">
         <v>864</v>
       </c>
-      <c r="O141" s="46" t="s">
+      <c r="O141" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="P141" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q141" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R141" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="S141" s="46" t="s">
+      <c r="P141" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q141" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R141" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="S141" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="T141" s="48"/>
-      <c r="U141" s="46" t="s">
+      <c r="T141" s="47"/>
+      <c r="U141" s="45" t="s">
         <v>867</v>
       </c>
-      <c r="V141" s="46" t="s">
+      <c r="V141" s="45" t="s">
         <v>865</v>
       </c>
-      <c r="W141" s="46" t="s">
+      <c r="W141" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="X141" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y141" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z141" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA141" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB141" s="46" t="s">
+      <c r="X141" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y141" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z141" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA141" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB141" s="45" t="s">
         <v>866</v>
       </c>
-      <c r="AC141" s="46" t="s">
+      <c r="AC141" s="45" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="142" spans="1:30" s="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="49">
+    <row r="142" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="48">
         <v>84</v>
       </c>
-      <c r="B142" s="61" t="s">
+      <c r="B142" s="60" t="s">
         <v>1150</v>
       </c>
-      <c r="C142" s="49" t="s">
+      <c r="C142" s="48" t="s">
         <v>1292</v>
       </c>
-      <c r="D142" s="49" t="s">
+      <c r="D142" s="48" t="s">
         <v>652</v>
       </c>
-      <c r="E142" s="49" t="s">
+      <c r="E142" s="48" t="s">
         <v>1166</v>
       </c>
-      <c r="F142" s="49">
+      <c r="F142" s="48">
         <v>2021</v>
       </c>
-      <c r="G142" s="49" t="s">
+      <c r="G142" s="48" t="s">
         <v>586</v>
       </c>
-      <c r="H142" s="51" t="s">
+      <c r="H142" s="50" t="s">
         <v>587</v>
       </c>
-      <c r="I142" s="49" t="s">
+      <c r="I142" s="48" t="s">
         <v>549</v>
       </c>
-      <c r="J142" s="49" t="s">
+      <c r="J142" s="48" t="s">
         <v>726</v>
       </c>
-      <c r="K142" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="L142" s="49" t="s">
+      <c r="K142" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L142" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="M142" s="49" t="s">
+      <c r="M142" s="48" t="s">
         <v>654</v>
       </c>
-      <c r="N142" s="49" t="s">
+      <c r="N142" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="O142" s="49" t="s">
+      <c r="O142" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="P142" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q142" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="R142" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="S142" s="49" t="s">
+      <c r="P142" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q142" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="R142" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="S142" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="T142" s="52" t="s">
+      <c r="T142" s="51" t="s">
         <v>659</v>
       </c>
-      <c r="U142" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="V142" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="W142" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="X142" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y142" s="49" t="s">
+      <c r="U142" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="V142" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="W142" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="X142" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y142" s="48" t="s">
         <v>657</v>
       </c>
-      <c r="Z142" s="49" t="s">
+      <c r="Z142" s="48" t="s">
         <v>656</v>
       </c>
-      <c r="AA142" s="49" t="s">
+      <c r="AA142" s="48" t="s">
         <v>655</v>
       </c>
-      <c r="AB142" s="49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AB142" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>79</v>
       </c>
@@ -17371,7 +17599,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="150" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>22</v>
       </c>
@@ -17884,7 +18112,7 @@
       <c r="AC155" s="20"/>
       <c r="AD155" s="20"/>
     </row>
-    <row r="156" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>28</v>
       </c>
@@ -18059,87 +18287,87 @@
       <c r="AC157" s="20"/>
       <c r="AD157" s="36"/>
     </row>
-    <row r="158" spans="1:30" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="46">
+    <row r="158" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="45">
         <v>129</v>
       </c>
-      <c r="B158" s="62" t="s">
+      <c r="B158" s="61" t="s">
         <v>1067</v>
       </c>
-      <c r="C158" s="46" t="s">
+      <c r="C158" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D158" s="46" t="s">
+      <c r="D158" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E158" s="46" t="s">
+      <c r="E158" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="F158" s="46">
+      <c r="F158" s="45">
         <v>2014</v>
       </c>
-      <c r="G158" s="46" t="s">
+      <c r="G158" s="45" t="s">
         <v>811</v>
       </c>
-      <c r="H158" s="47" t="s">
+      <c r="H158" s="46" t="s">
         <v>995</v>
       </c>
-      <c r="I158" s="46" t="s">
+      <c r="I158" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J158" s="46" t="s">
+      <c r="J158" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="K158" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="L158" s="46" t="s">
+      <c r="K158" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L158" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M158" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="N158" s="46" t="s">
+      <c r="M158" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N158" s="45" t="s">
         <v>573</v>
       </c>
-      <c r="O158" s="46" t="s">
+      <c r="O158" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="P158" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q158" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="R158" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="S158" s="46" t="s">
+      <c r="P158" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q158" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R158" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="S158" s="45" t="s">
         <v>1202</v>
       </c>
-      <c r="T158" s="48"/>
-      <c r="U158" s="46" t="s">
+      <c r="T158" s="47"/>
+      <c r="U158" s="45" t="s">
         <v>781</v>
       </c>
-      <c r="V158" s="46" t="s">
+      <c r="V158" s="45" t="s">
         <v>999</v>
       </c>
-      <c r="W158" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="X158" s="46" t="s">
+      <c r="W158" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="X158" s="45" t="s">
         <v>997</v>
       </c>
-      <c r="Y158" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z158" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA158" s="46" t="s">
+      <c r="Y158" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z158" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA158" s="45" t="s">
         <v>998</v>
       </c>
-      <c r="AC158" s="46" t="s">
+      <c r="AC158" s="45" t="s">
         <v>575</v>
       </c>
     </row>
@@ -18266,7 +18494,7 @@
       <c r="A161" s="7">
         <v>109</v>
       </c>
-      <c r="B161" s="66" t="s">
+      <c r="B161" s="65" t="s">
         <v>1045</v>
       </c>
       <c r="C161" s="7" t="s">
@@ -18352,7 +18580,7 @@
       <c r="A162" s="7">
         <v>108</v>
       </c>
-      <c r="B162" s="66" t="s">
+      <c r="B162" s="65" t="s">
         <v>1065</v>
       </c>
       <c r="C162" s="7" t="s">
@@ -18499,11 +18727,11 @@
       <c r="W163" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="X163" s="43" t="s">
+      <c r="X163" s="42" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="164" spans="1:29" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>120</v>
       </c>
@@ -18939,7 +19167,7 @@
       <c r="A169" s="20">
         <v>61</v>
       </c>
-      <c r="B169" s="64" t="s">
+      <c r="B169" s="63" t="s">
         <v>1161</v>
       </c>
       <c r="C169" s="20" t="s">
@@ -19024,21 +19252,737 @@
         <v>496</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X170" s="39"/>
-    </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="20">
+        <v>171</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D170" s="20" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F170" s="20">
+        <v>2020</v>
+      </c>
+      <c r="G170" s="20" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H170" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="I170" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J170" s="20" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K170" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L170" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M170" s="20" t="s">
+        <v>913</v>
+      </c>
+      <c r="N170" s="20" t="s">
+        <v>1420</v>
+      </c>
+      <c r="O170" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P170" s="22"/>
+      <c r="Q170" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R170" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S170" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T170" s="22" t="s">
+        <v>1423</v>
+      </c>
+      <c r="U170" s="20" t="s">
+        <v>1421</v>
+      </c>
+      <c r="V170" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="W170" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="X170" s="41" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="20">
+        <v>172</v>
+      </c>
+      <c r="B171" s="20" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D171" s="20" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E171" s="20" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F171" s="20">
+        <v>2017</v>
+      </c>
+      <c r="G171" s="20" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H171" s="21" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I171" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J171" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L171" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M171" s="20" t="s">
+        <v>1428</v>
+      </c>
+      <c r="N171" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O171" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P171" s="22" t="s">
+        <v>1430</v>
+      </c>
+      <c r="Q171" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R171" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S171" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T171" s="22" t="s">
+        <v>1431</v>
+      </c>
+      <c r="U171" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="X171" s="20" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="45">
+        <v>172</v>
+      </c>
+      <c r="B172" s="72" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C172" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D172" s="45" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E172" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F172" s="45">
+        <v>2014</v>
+      </c>
+      <c r="G172" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H172" s="46" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I172" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="J172" s="45" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K172" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L172" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M172" s="45" t="s">
+        <v>1437</v>
+      </c>
+      <c r="N172" s="45" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O172" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="P172" s="47"/>
+      <c r="Q172" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R172" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="S172" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="T172" s="47"/>
+      <c r="U172" s="45" t="s">
+        <v>1439</v>
+      </c>
+      <c r="W172" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="X172" s="45" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="20">
+        <v>173</v>
+      </c>
+      <c r="B173" s="29" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D173" s="20" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E173" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F173" s="20">
+        <v>2013</v>
+      </c>
+      <c r="G173" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H173" s="21" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I173" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J173" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K173" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L173" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M173" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="N173" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O173" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P173" s="22"/>
+      <c r="Q173" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R173" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S173" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T173" s="22"/>
+      <c r="U173" s="20" t="s">
+        <v>1449</v>
+      </c>
+      <c r="V173" s="20" t="s">
+        <v>1448</v>
+      </c>
+      <c r="X173" s="20" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="20">
+        <v>174</v>
+      </c>
+      <c r="B174" s="29" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D174" s="20" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E174" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F174" s="20">
+        <v>2018</v>
+      </c>
+      <c r="G174" s="20" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H174" s="21" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I174" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J174" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="K174" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L174" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M174" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="N174" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O174" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P174" s="22"/>
+      <c r="Q174" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R174" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S174" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T174" s="22" t="s">
+        <v>1464</v>
+      </c>
+      <c r="U174" s="20" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="20">
+        <v>175</v>
+      </c>
+      <c r="B175" s="29" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D175" s="20" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E175" s="20" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F175" s="20">
+        <v>2011</v>
+      </c>
+      <c r="G175" s="20" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H175" s="21" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I175" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J175" s="20" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K175" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L175" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M175" s="20" t="s">
+        <v>1458</v>
+      </c>
+      <c r="N175" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="O175" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P175" s="22"/>
+      <c r="Q175" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R175" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S175" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="T175" s="22"/>
+      <c r="V175" s="20" t="s">
+        <v>1449</v>
+      </c>
+      <c r="X175" s="20" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="20">
+        <v>176</v>
+      </c>
+      <c r="B176" s="29" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D176" s="20" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E176" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="F176" s="20">
+        <v>2019</v>
+      </c>
+      <c r="G176" s="20" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H176" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="I176" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J176" s="20" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K176" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L176" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N176" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="O176" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P176" s="22"/>
+      <c r="Q176" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R176" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S176" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T176" s="22" t="s">
+        <v>1462</v>
+      </c>
+      <c r="U176" s="20" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="20">
+        <v>177</v>
+      </c>
+      <c r="B177" s="29" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D177" s="20" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E177" s="20" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F177" s="20">
+        <v>2019</v>
+      </c>
+      <c r="G177" s="20" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H177" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="I177" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="J177" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K177" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L177" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M177" s="20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N177" s="20" t="s">
+        <v>1469</v>
+      </c>
+      <c r="O177" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P177" s="22"/>
+      <c r="Q177" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R177" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S177" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T177" s="22" t="s">
+        <v>1470</v>
+      </c>
+      <c r="U177" s="20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="V177" s="20" t="s">
+        <v>1471</v>
+      </c>
+      <c r="W177" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="X177" s="20" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="20">
+        <v>178</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D178" s="20" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E178" s="20" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F178" s="20">
+        <v>2008</v>
+      </c>
+      <c r="G178" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H178" s="21" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I178" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J178" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K178" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L178" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N178" s="20" t="s">
+        <v>1475</v>
+      </c>
+      <c r="O178" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P178" s="22"/>
+      <c r="Q178" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R178" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S178" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="T178" s="22"/>
+      <c r="V178" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="W178" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="X178" s="20" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="20">
+        <v>179</v>
+      </c>
+      <c r="B179" s="29" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D179" s="20" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E179" s="20" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F179" s="20">
+        <v>2022</v>
+      </c>
+      <c r="G179" s="20" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H179" s="21" t="s">
+        <v>1481</v>
+      </c>
+      <c r="I179" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J179" s="20" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K179" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L179" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M179" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="N179" s="20" t="s">
+        <v>1483</v>
+      </c>
+      <c r="O179" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P179" s="22"/>
+      <c r="Q179" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R179" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S179" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="T179" s="22"/>
+      <c r="U179" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="V179" s="20" t="s">
+        <v>1368</v>
+      </c>
+      <c r="W179" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="X179" s="20" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="20">
+        <v>180</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D180" s="20" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E180" s="20" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F180" s="20">
+        <v>2020</v>
+      </c>
+      <c r="G180" s="20" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H180" s="21" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I180" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J180" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K180" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L180" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N180" s="20" t="s">
+        <v>1487</v>
+      </c>
+      <c r="O180" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P180" s="22"/>
+      <c r="Q180" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R180" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S180" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T180" s="22"/>
+      <c r="V180" s="20" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D187" s="25"/>
       <c r="F187" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD169" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="prospecting"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AD180" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD157">
     <sortCondition ref="D2:D157"/>
     <sortCondition ref="F2:F157"/>
@@ -19070,9 +20014,15 @@
     <hyperlink ref="B57" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="B108" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B174" r:id="rId27" tooltip="Persistent link using digital object identifier" xr:uid="{A124039D-CC35-4206-9D3B-9611DF8CE924}"/>
+    <hyperlink ref="B173" r:id="rId28" tooltip="Persistent link using digital object identifier" xr:uid="{14F88609-E178-4FF8-BCD1-53DDB15BA4B3}"/>
+    <hyperlink ref="B175" r:id="rId29" xr:uid="{65F9A777-2023-41DC-8924-604AAB711CDE}"/>
+    <hyperlink ref="B176" r:id="rId30" xr:uid="{984D34DA-3515-495E-94CF-37F2F9287D4D}"/>
+    <hyperlink ref="B177" r:id="rId31" tooltip="Persistent link using digital object identifier" xr:uid="{C505E12F-9EAF-44E6-AA13-93B892C9BEAC}"/>
+    <hyperlink ref="B179" r:id="rId32" xr:uid="{ECFE13B6-25DE-4DB7-960F-4653F0453475}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -19084,7 +20034,7 @@
       <selection activeCell="I1" sqref="I1:N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
@@ -19349,19 +20299,19 @@
       <c r="N8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="45" t="s">
         <v>722</v>
       </c>
-      <c r="R8" s="46" t="s">
+      <c r="R8" s="45" t="s">
         <v>723</v>
       </c>
-      <c r="S8" s="46">
+      <c r="S8" s="45">
         <v>2017</v>
       </c>
-      <c r="T8" s="46" t="s">
+      <c r="T8" s="45" t="s">
         <v>724</v>
       </c>
-      <c r="U8" s="47" t="s">
+      <c r="U8" s="46" t="s">
         <v>725</v>
       </c>
     </row>
@@ -19481,19 +20431,19 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="45" t="s">
         <v>724</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="46" t="s">
         <v>725</v>
       </c>
-      <c r="K12" s="46" t="s">
+      <c r="K12" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="L12" s="46" t="s">
+      <c r="L12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="M12" s="47" t="s">
         <v>729</v>
       </c>
       <c r="N12" s="20" t="s">
@@ -19734,7 +20684,7 @@
       <selection activeCell="D27" sqref="D9:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -19757,19 +20707,19 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="59"/>
+      <c r="B7" s="58"/>
       <c r="H7" s="9"/>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="39" t="s">
         <v>1262</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="40" t="s">
         <v>55</v>
       </c>
       <c r="P7" s="3"/>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B8" s="59"/>
+      <c r="B8" s="58"/>
       <c r="D8" s="16" t="s">
         <v>339</v>
       </c>
@@ -19778,7 +20728,7 @@
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:29" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="67"/>
+      <c r="B9" s="66"/>
       <c r="D9" s="12" t="s">
         <v>305</v>
       </c>
@@ -19828,7 +20778,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
+      <c r="B10" s="66"/>
       <c r="D10" s="12" t="s">
         <v>301</v>
       </c>
@@ -19903,7 +20853,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
+      <c r="B11" s="66"/>
       <c r="D11" s="12" t="s">
         <v>353</v>
       </c>
@@ -19954,7 +20904,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
+      <c r="B12" s="66"/>
       <c r="D12" s="30" t="s">
         <v>282</v>
       </c>
@@ -19977,7 +20927,7 @@
       <c r="T12" s="14"/>
     </row>
     <row r="13" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
+      <c r="B13" s="66"/>
       <c r="D13" s="12" t="s">
         <v>839</v>
       </c>
@@ -20006,7 +20956,7 @@
       <c r="T13" s="14"/>
     </row>
     <row r="14" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="67"/>
+      <c r="B14" s="66"/>
       <c r="D14" s="12" t="s">
         <v>844</v>
       </c>
@@ -20035,7 +20985,7 @@
       <c r="T14" s="14"/>
     </row>
     <row r="15" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="67"/>
+      <c r="B15" s="66"/>
       <c r="D15" s="12" t="s">
         <v>857</v>
       </c>
@@ -20064,7 +21014,7 @@
       <c r="T15" s="14"/>
     </row>
     <row r="16" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="67"/>
+      <c r="B16" s="66"/>
       <c r="D16" s="31" t="s">
         <v>576</v>
       </c>
@@ -20096,7 +21046,7 @@
       <c r="T16" s="14"/>
     </row>
     <row r="17" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="67"/>
+      <c r="B17" s="66"/>
       <c r="D17" s="12" t="s">
         <v>603</v>
       </c>
@@ -20134,7 +21084,7 @@
       <c r="T17" s="14"/>
     </row>
     <row r="18" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="67"/>
+      <c r="B18" s="66"/>
       <c r="D18" s="31" t="s">
         <v>757</v>
       </c>
@@ -20182,7 +21132,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="67"/>
+      <c r="B19" s="66"/>
       <c r="D19" s="31" t="s">
         <v>964</v>
       </c>
@@ -20208,13 +21158,13 @@
       <c r="T19" s="14"/>
     </row>
     <row r="20" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="67"/>
+      <c r="B20" s="66"/>
       <c r="D20" s="31"/>
       <c r="P20" s="14"/>
       <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="67"/>
+      <c r="B21" s="66"/>
       <c r="D21" s="31" t="s">
         <v>1001</v>
       </c>
@@ -20240,7 +21190,7 @@
       <c r="T21" s="14"/>
     </row>
     <row r="22" spans="1:23" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="68"/>
+      <c r="B22" s="67"/>
       <c r="D22" s="32" t="s">
         <v>1005</v>
       </c>
@@ -20269,7 +21219,7 @@
       <c r="T22" s="35"/>
     </row>
     <row r="23" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="67"/>
+      <c r="B23" s="66"/>
       <c r="D23" s="31" t="s">
         <v>849</v>
       </c>
@@ -20307,7 +21257,7 @@
       <c r="T23" s="14"/>
     </row>
     <row r="24" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="67"/>
+      <c r="B24" s="66"/>
       <c r="D24" s="31" t="s">
         <v>786</v>
       </c>
@@ -20333,7 +21283,7 @@
       <c r="T24" s="14"/>
     </row>
     <row r="25" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="68"/>
+      <c r="B25" s="67"/>
       <c r="D25" s="33" t="s">
         <v>79</v>
       </c>
@@ -20362,7 +21312,7 @@
       <c r="T25" s="35"/>
     </row>
     <row r="26" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="67"/>
+      <c r="B26" s="66"/>
       <c r="D26" s="12" t="s">
         <v>377</v>
       </c>
@@ -20392,8 +21342,8 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="45"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="33" t="s">
         <v>239</v>
       </c>
@@ -20429,25 +21379,25 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="59"/>
+      <c r="B28" s="58"/>
       <c r="H28" s="9"/>
       <c r="P28" s="3"/>
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="59"/>
+      <c r="B29" s="58"/>
       <c r="H29" s="9"/>
       <c r="P29" s="3"/>
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="59"/>
+      <c r="B30" s="58"/>
       <c r="H30" s="9"/>
       <c r="P30" s="3"/>
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="59"/>
+      <c r="B31" s="58"/>
       <c r="H31" s="9"/>
       <c r="P31" s="3"/>
       <c r="T31" s="3"/>

--- a/Data/Prospecting bibliography.xlsx
+++ b/Data/Prospecting bibliography.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Prospecting review\Prospecting review analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A809DE7-CBE8-4B4C-80FA-AEECEF8B3F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC5A6A5-6A6F-440B-9D73-E8D3DD76120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Supp_1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Supp_1!$A$1:$P$123</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4754" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6589" uniqueCount="1496">
   <si>
     <t>Species</t>
   </si>
@@ -4520,6 +4522,30 @@
   </si>
   <si>
     <t>natal dispersal strategy</t>
+  </si>
+  <si>
+    <t>10.1080/00063650802648374</t>
+  </si>
+  <si>
+    <t>Taxa</t>
+  </si>
+  <si>
+    <t>Continuous locations?</t>
+  </si>
+  <si>
+    <t>Function?</t>
+  </si>
+  <si>
+    <t>nest parasite</t>
+  </si>
+  <si>
+    <t>First author</t>
+  </si>
+  <si>
+    <t>breeding adults, non breeders, majority pre-breeders</t>
+  </si>
+  <si>
+    <t>Site selection</t>
   </si>
 </sst>
 </file>
@@ -4668,7 +4694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -4752,6 +4778,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -5033,22 +5063,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:AD187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.42578125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -5161,7 +5191,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>62</v>
       </c>
@@ -5250,7 +5280,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>144</v>
       </c>
@@ -5320,7 +5350,7 @@
       </c>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>146</v>
       </c>
@@ -5480,7 +5510,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>55</v>
       </c>
@@ -5569,7 +5599,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>114</v>
       </c>
@@ -5656,7 +5686,7 @@
       </c>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -6004,7 +6034,7 @@
         <v>160</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>1348</v>
+        <v>1488</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>55</v>
@@ -6194,7 +6224,7 @@
       </c>
       <c r="T14" s="22"/>
     </row>
-    <row r="15" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48">
         <v>14</v>
       </c>
@@ -6280,7 +6310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="20" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>147</v>
       </c>
@@ -6447,7 +6477,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -6707,7 +6737,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>132</v>
       </c>
@@ -6790,7 +6820,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>47</v>
       </c>
@@ -7027,7 +7057,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48">
         <v>54</v>
       </c>
@@ -7113,7 +7143,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>60</v>
       </c>
@@ -7288,7 +7318,7 @@
       <c r="AC27" s="20"/>
       <c r="AD27" s="20"/>
     </row>
-    <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>59</v>
       </c>
@@ -7901,7 +7931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>117</v>
       </c>
@@ -8590,7 +8620,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48">
         <v>37</v>
       </c>
@@ -9280,7 +9310,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -9859,7 +9889,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="58" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>65</v>
       </c>
@@ -9945,7 +9975,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="59" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>148</v>
       </c>
@@ -10253,7 +10283,7 @@
       <c r="AC62" s="20"/>
       <c r="AD62" s="20"/>
     </row>
-    <row r="63" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>39</v>
       </c>
@@ -10340,7 +10370,7 @@
       </c>
       <c r="AD63" s="20"/>
     </row>
-    <row r="64" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40</v>
       </c>
@@ -10426,7 +10456,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10512,7 +10542,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="66" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>53</v>
       </c>
@@ -10595,7 +10625,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41</v>
       </c>
@@ -10678,7 +10708,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="68" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>58</v>
       </c>
@@ -11117,7 +11147,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="73" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>46</v>
       </c>
@@ -11779,7 +11809,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="81" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>149</v>
       </c>
@@ -11857,7 +11887,7 @@
       <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
     </row>
-    <row r="82" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>64</v>
       </c>
@@ -11945,7 +11975,7 @@
       <c r="AC82" s="1"/>
       <c r="AD82" s="1"/>
     </row>
-    <row r="83" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>67</v>
       </c>
@@ -12028,7 +12058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>72</v>
       </c>
@@ -12203,7 +12233,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="86" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>101</v>
       </c>
@@ -12292,7 +12322,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="87" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>155</v>
       </c>
@@ -12849,7 +12879,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="94" spans="1:30" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" s="1" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>145</v>
       </c>
@@ -12927,7 +12957,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="95" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44</v>
       </c>
@@ -13180,7 +13210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>135</v>
       </c>
@@ -13272,7 +13302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>134</v>
       </c>
@@ -13358,7 +13388,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="100" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>23</v>
       </c>
@@ -13447,7 +13477,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="101" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>119</v>
       </c>
@@ -13617,7 +13647,7 @@
       </c>
       <c r="AD102" s="1"/>
     </row>
-    <row r="103" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>34</v>
       </c>
@@ -13707,7 +13737,7 @@
       </c>
       <c r="AD103" s="1"/>
     </row>
-    <row r="104" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>18</v>
       </c>
@@ -14455,7 +14485,7 @@
       </c>
       <c r="AD112" s="1"/>
     </row>
-    <row r="113" spans="1:30" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" s="20" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>66</v>
       </c>
@@ -14702,7 +14732,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="116" spans="1:30" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" s="20" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>24</v>
       </c>
@@ -15032,7 +15062,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="120" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>85</v>
       </c>
@@ -15458,7 +15488,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="125" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>80</v>
       </c>
@@ -15719,7 +15749,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="128" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>133</v>
       </c>
@@ -15805,7 +15835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>38</v>
       </c>
@@ -16156,7 +16186,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>86</v>
       </c>
@@ -16243,7 +16273,7 @@
       </c>
       <c r="AC133" s="1"/>
     </row>
-    <row r="134" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43</v>
       </c>
@@ -16329,7 +16359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45</v>
       </c>
@@ -16416,7 +16446,7 @@
       </c>
       <c r="AC135" s="1"/>
     </row>
-    <row r="136" spans="1:30" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" s="20" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>42</v>
       </c>
@@ -16669,7 +16699,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="139" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>125</v>
       </c>
@@ -16758,7 +16788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>82</v>
       </c>
@@ -16928,7 +16958,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="142" spans="1:30" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" s="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="48">
         <v>84</v>
       </c>
@@ -17014,7 +17044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>79</v>
       </c>
@@ -17599,7 +17629,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="150" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>22</v>
       </c>
@@ -18112,7 +18142,7 @@
       <c r="AC155" s="20"/>
       <c r="AD155" s="20"/>
     </row>
-    <row r="156" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>28</v>
       </c>
@@ -18731,7 +18761,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="164" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>120</v>
       </c>
@@ -19982,7 +20012,13 @@
       <c r="F187" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD180" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AD180" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="prospecting"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD157">
     <sortCondition ref="D2:D157"/>
     <sortCondition ref="F2:F157"/>
@@ -20031,7 +20067,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20040,6 +20076,9 @@
     <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -20680,7 +20719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AC31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D27" sqref="D9:D27"/>
     </sheetView>
   </sheetViews>
@@ -21405,4 +21444,6556 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4A6C70-8507-4B4A-8FF8-89379E8F198D}">
+  <dimension ref="A1:Q123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="49.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="53">
+        <v>1</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>683</v>
+      </c>
+      <c r="C2" s="53">
+        <v>2004</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>478</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="53" t="s">
+        <v>686</v>
+      </c>
+      <c r="P2" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q2" s="62" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>2</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="53">
+        <v>2008</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>944</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>805</v>
+      </c>
+      <c r="P3" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q3" s="62" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
+        <v>3</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>710</v>
+      </c>
+      <c r="C4" s="53">
+        <v>1997</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>711</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>712</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>713</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>861</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
+        <v>4</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>714</v>
+      </c>
+      <c r="C5" s="53">
+        <v>2014</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>715</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>716</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>719</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q5" s="62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
+        <v>5</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C6" s="53">
+        <v>2009</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>1351</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="53">
+        <v>6</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>732</v>
+      </c>
+      <c r="C7" s="53">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>733</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>734</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>989</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q7" s="62" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="53">
+        <v>7</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C8" s="53">
+        <v>2015</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q8" s="74" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
+        <v>8</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C9" s="53">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>511</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q9" s="74" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
+        <v>9</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>769</v>
+      </c>
+      <c r="C10" s="53">
+        <v>2021</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>770</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>771</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>772</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>776</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q10" s="62" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="53">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="53">
+        <v>2016</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q11" s="62" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="53">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="53">
+        <v>1999</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>456</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="53" t="s">
+        <v>1293</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q12" s="62" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="53">
+        <v>12</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" s="53">
+        <v>2004</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>547</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>548</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>549</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="53" t="s">
+        <v>550</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q13" s="62" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="53">
+        <v>13</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C14" s="53">
+        <v>2009</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="53" t="s">
+        <v>1327</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q14" s="53" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="53">
+        <v>14</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="53">
+        <v>2010</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>392</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="53" t="s">
+        <v>464</v>
+      </c>
+      <c r="P15" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q15" s="62" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="53">
+        <v>15</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="53">
+        <v>2017</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>607</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q16" s="62" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>16</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>739</v>
+      </c>
+      <c r="C17" s="45">
+        <v>2020</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>740</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>742</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q17" s="61" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="53">
+        <v>17</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" s="53">
+        <v>2020</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>597</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="53" t="s">
+        <v>598</v>
+      </c>
+      <c r="P18" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q18" s="62" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C19" s="45">
+        <v>2017</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M19" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="45" t="s">
+        <v>1204</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q19" s="61" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>777</v>
+      </c>
+      <c r="C20" s="45">
+        <v>2008</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>778</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>779</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q20" s="61" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
+        <v>20</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>737</v>
+      </c>
+      <c r="C21" s="53">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>582</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>735</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>736</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="53" t="s">
+        <v>815</v>
+      </c>
+      <c r="P21" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q21" s="62" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="53">
+        <v>21</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="53">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>870</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="K22" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q22" s="62" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="53">
+        <v>22</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="53">
+        <v>2006</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L23" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M23" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q23" s="62" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>23</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="53">
+        <v>2020</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L24" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q24" s="62" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="53">
+        <v>24</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>786</v>
+      </c>
+      <c r="C25" s="53">
+        <v>2012</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>788</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>789</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L25" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="53" t="s">
+        <v>719</v>
+      </c>
+      <c r="P25" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q25" s="62" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="53">
+        <v>25</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>593</v>
+      </c>
+      <c r="C26" s="53">
+        <v>2012</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>594</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>595</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L26" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="53" t="s">
+        <v>978</v>
+      </c>
+      <c r="P26" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q26" s="62" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="53">
+        <v>26</v>
+      </c>
+      <c r="B27" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="C27" s="53">
+        <v>2018</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>959</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>561</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="K27" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L27" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="53" t="s">
+        <v>992</v>
+      </c>
+      <c r="P27" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q27" s="62" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="53">
+        <v>27</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="53">
+        <v>2006</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L28" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="P28" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q28" s="62" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="53">
+        <v>28</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>585</v>
+      </c>
+      <c r="C29" s="53">
+        <v>2017</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>586</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>549</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="53" t="s">
+        <v>665</v>
+      </c>
+      <c r="K29" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L29" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="53" t="s">
+        <v>927</v>
+      </c>
+      <c r="P29" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q29" s="62" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="45">
+        <v>29</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C30" s="45">
+        <v>2014</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I30" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q30" s="72" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="53">
+        <v>30</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C31" s="53">
+        <v>2013</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L31" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="53" t="s">
+        <v>1448</v>
+      </c>
+      <c r="P31" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q31" s="74" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="45">
+        <v>31</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>722</v>
+      </c>
+      <c r="C32" s="45">
+        <v>2017</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>723</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>725</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L32" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="P32" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q32" s="61" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="53">
+        <v>32</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>754</v>
+      </c>
+      <c r="C33" s="53">
+        <v>2003</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>756</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>914</v>
+      </c>
+      <c r="G33" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="K33" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L33" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="53" t="s">
+        <v>917</v>
+      </c>
+      <c r="P33" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q33" s="62" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="53">
+        <v>33</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="53">
+        <v>2003</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L34" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q34" s="62" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="53">
+        <v>34</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="53">
+        <v>2005</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L35" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M35" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P35" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q35" s="62" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="53">
+        <v>35</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="53">
+        <v>2007</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L36" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M36" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q36" s="62" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="53">
+        <v>36</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="53">
+        <v>2005</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="I37" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L37" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="P37" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q37" s="62" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="53">
+        <v>37</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="53">
+        <v>2002</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L38" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q38" s="76" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="53">
+        <v>38</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="53">
+        <v>2004</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="F39" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L39" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="P39" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q39" s="62" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="53">
+        <v>39</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C40" s="53">
+        <v>1996</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F40" s="55" t="s">
+        <v>561</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="I40" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="K40" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L40" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="P40" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q40" s="62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="45">
+        <v>40</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>869</v>
+      </c>
+      <c r="C41" s="45">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>870</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>871</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>899</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>459</v>
+      </c>
+      <c r="I41" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L41" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="P41" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q41" s="64" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="53">
+        <v>41</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C42" s="53">
+        <v>2020</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F42" s="55" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L42" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O42" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="P42" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q42" s="62" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="53">
+        <v>42</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C43" s="53">
+        <v>2008</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>809</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F43" s="55" t="s">
+        <v>580</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="K43" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" s="53" t="s">
+        <v>1187</v>
+      </c>
+      <c r="P43" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q43" s="62" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="53">
+        <v>43</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C44" s="53">
+        <v>2022</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G44" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H44" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L44" s="53" t="s">
+        <v>597</v>
+      </c>
+      <c r="M44" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O44" s="53" t="s">
+        <v>1371</v>
+      </c>
+      <c r="P44" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q44" s="74" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="53">
+        <v>44</v>
+      </c>
+      <c r="B45" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" s="53">
+        <v>2016</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="F45" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H45" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I45" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L45" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="P45" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q45" s="62" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="53">
+        <v>45</v>
+      </c>
+      <c r="B46" s="73" t="s">
+        <v>746</v>
+      </c>
+      <c r="C46" s="53">
+        <v>2004</v>
+      </c>
+      <c r="D46" s="53" t="s">
+        <v>747</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>748</v>
+      </c>
+      <c r="F46" s="55" t="s">
+        <v>749</v>
+      </c>
+      <c r="G46" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="53" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I46" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L46" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q46" s="76" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="53">
+        <v>46</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="53">
+        <v>2014</v>
+      </c>
+      <c r="D47" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="I47" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L47" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="P47" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q47" s="62" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="53">
+        <v>47</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C48" s="53">
+        <v>2019</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>582</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" s="53" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I48" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L48" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q48" s="74" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="53">
+        <v>48</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="53">
+        <v>2003</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="G49" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="I49" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="K49" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L49" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="P49" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q49" s="62" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="53">
+        <v>49</v>
+      </c>
+      <c r="B50" s="73" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C50" s="53">
+        <v>1991</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>554</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G50" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I50" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L50" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" s="53" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P50" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q50" s="76" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="53">
+        <v>50</v>
+      </c>
+      <c r="B51" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="53">
+        <v>2004</v>
+      </c>
+      <c r="D51" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51" s="53" t="s">
+        <v>493</v>
+      </c>
+      <c r="I51" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L51" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O51" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="P51" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q51" s="62" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="C52" s="7">
+        <v>2002</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q52" s="65" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>720</v>
+      </c>
+      <c r="C53" s="53">
+        <v>2015</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>956</v>
+      </c>
+      <c r="F53" s="55" t="s">
+        <v>951</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>713</v>
+      </c>
+      <c r="H53" s="53" t="s">
+        <v>952</v>
+      </c>
+      <c r="I53" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="K53" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L53" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M53" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" s="53" t="s">
+        <v>954</v>
+      </c>
+      <c r="P53" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q53" s="62" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="53">
+        <v>53</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C54" s="53">
+        <v>2020</v>
+      </c>
+      <c r="D54" s="53" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F54" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="G54" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" s="53" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I54" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L54" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M54" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O54" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="P54" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q54" s="53" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="53">
+        <v>54</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="53">
+        <v>2007</v>
+      </c>
+      <c r="D55" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G55" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="I55" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J55" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="K55" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L55" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O55" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="P55" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q55" s="62" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="53">
+        <v>55</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="53">
+        <v>2010</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>983</v>
+      </c>
+      <c r="F56" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="G56" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="H56" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I56" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="K56" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L56" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O56" s="53" t="s">
+        <v>796</v>
+      </c>
+      <c r="P56" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q56" s="62" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="53">
+        <v>56</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="C57" s="53">
+        <v>2016</v>
+      </c>
+      <c r="D57" s="53" t="s">
+        <v>578</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>579</v>
+      </c>
+      <c r="F57" s="55" t="s">
+        <v>580</v>
+      </c>
+      <c r="G57" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="53" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J57" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="K57" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L57" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M57" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O57" s="53" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P57" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q57" s="62" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="53">
+        <v>57</v>
+      </c>
+      <c r="B58" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="C58" s="53">
+        <v>2017</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>579</v>
+      </c>
+      <c r="F58" s="55" t="s">
+        <v>580</v>
+      </c>
+      <c r="G58" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="53" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J58" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="K58" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L58" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O58" s="53" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P58" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q58" s="62" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="45">
+        <v>58</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C59" s="45">
+        <v>2006</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>840</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F59" s="46" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J59" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L59" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M59" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O59" s="45" t="s">
+        <v>1219</v>
+      </c>
+      <c r="P59" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q59" s="61" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="53">
+        <v>59</v>
+      </c>
+      <c r="B60" s="73" t="s">
+        <v>824</v>
+      </c>
+      <c r="C60" s="53">
+        <v>2021</v>
+      </c>
+      <c r="D60" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>825</v>
+      </c>
+      <c r="F60" s="55" t="s">
+        <v>826</v>
+      </c>
+      <c r="G60" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="H60" s="53" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I60" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J60" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K60" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L60" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M60" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" s="53" t="s">
+        <v>719</v>
+      </c>
+      <c r="P60" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q60" s="76" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="53">
+        <v>60</v>
+      </c>
+      <c r="B61" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="53">
+        <v>2008</v>
+      </c>
+      <c r="D61" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="F61" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="G61" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H61" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I61" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="K61" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L61" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="P61" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q61" s="62" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="53">
+        <v>61</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C62" s="53">
+        <v>2018</v>
+      </c>
+      <c r="D62" s="53" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F62" s="55" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G62" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" s="53" t="s">
+        <v>909</v>
+      </c>
+      <c r="I62" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K62" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L62" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M62" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O62" s="53"/>
+      <c r="P62" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q62" s="74" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="53">
+        <v>62</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" s="53">
+        <v>2014</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>959</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>561</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H63" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="I63" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="K63" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L63" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M63" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="P63" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q63" s="62" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="53">
+        <v>63</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="53">
+        <v>2019</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="I64" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K64" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L64" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M64" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N64" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O64" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="P64" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q64" s="62" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="53">
+        <v>64</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C65" s="53">
+        <v>2017</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E65" s="53" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F65" s="55" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G65" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H65" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K65" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L65" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M65" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N65" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O65" s="53"/>
+      <c r="P65" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q65" s="53" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="45">
+        <v>65</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>810</v>
+      </c>
+      <c r="C66" s="45">
+        <v>2004</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>811</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>812</v>
+      </c>
+      <c r="G66" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="I66" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J66" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L66" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M66" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O66" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="P66" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q66" s="61" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="53">
+        <v>66</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>750</v>
+      </c>
+      <c r="C67" s="53">
+        <v>1991</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>751</v>
+      </c>
+      <c r="F67" s="55" t="s">
+        <v>752</v>
+      </c>
+      <c r="G67" s="53" t="s">
+        <v>898</v>
+      </c>
+      <c r="H67" s="53" t="s">
+        <v>759</v>
+      </c>
+      <c r="I67" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L67" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M67" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P67" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q67" s="62" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="53">
+        <v>67</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C68" s="53">
+        <v>2016</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="53" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F68" s="55" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G68" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H68" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I68" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L68" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O68" s="53"/>
+      <c r="P68" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q68" s="74" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="45">
+        <v>68</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>753</v>
+      </c>
+      <c r="C69" s="45">
+        <v>2001</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>840</v>
+      </c>
+      <c r="E69" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="F69" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I69" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J69" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K69" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L69" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q69" s="61" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="53">
+        <v>69</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="53">
+        <v>2021</v>
+      </c>
+      <c r="D70" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="F70" s="55" t="s">
+        <v>400</v>
+      </c>
+      <c r="G70" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I70" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K70" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L70" s="53" t="s">
+        <v>1310</v>
+      </c>
+      <c r="M70" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O70" s="53" t="s">
+        <v>943</v>
+      </c>
+      <c r="P70" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q70" s="62" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="53">
+        <v>70</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="C71" s="53">
+        <v>2001</v>
+      </c>
+      <c r="D71" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="F71" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="G71" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="K71" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L71" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M71" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="P71" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q71" s="62" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="53">
+        <v>71</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="C72" s="53">
+        <v>2011</v>
+      </c>
+      <c r="D72" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E72" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="F72" s="55" t="s">
+        <v>944</v>
+      </c>
+      <c r="G72" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K72" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L72" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M72" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O72" s="53" t="s">
+        <v>945</v>
+      </c>
+      <c r="P72" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q72" s="62" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="53">
+        <v>72</v>
+      </c>
+      <c r="B73" s="53" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C73" s="53">
+        <v>2022</v>
+      </c>
+      <c r="D73" s="53" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E73" s="53" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F73" s="55" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G73" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="53" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I73" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K73" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L73" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M73" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" s="53" t="s">
+        <v>1368</v>
+      </c>
+      <c r="P73" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q73" s="74" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="45">
+        <v>73</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>817</v>
+      </c>
+      <c r="C74" s="45">
+        <v>2006</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>818</v>
+      </c>
+      <c r="F74" s="46" t="s">
+        <v>819</v>
+      </c>
+      <c r="G74" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="I74" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J74" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L74" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N74" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" s="45" t="s">
+        <v>1219</v>
+      </c>
+      <c r="P74" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q74" s="70" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="53">
+        <v>74</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="53">
+        <v>2013</v>
+      </c>
+      <c r="D75" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G75" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K75" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L75" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="M75" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O75" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P75" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q75" s="62" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="53">
+        <v>75</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>469</v>
+      </c>
+      <c r="C76" s="53">
+        <v>2006</v>
+      </c>
+      <c r="D76" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" s="53" t="s">
+        <v>470</v>
+      </c>
+      <c r="F76" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="G76" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I76" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K76" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L76" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M76" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" s="53" t="s">
+        <v>1494</v>
+      </c>
+      <c r="P76" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q76" s="62" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="53">
+        <v>76</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C77" s="53">
+        <v>2022</v>
+      </c>
+      <c r="D77" s="53" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E77" s="53" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F77" s="55" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G77" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H77" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I77" s="53" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J77" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K77" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L77" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="M77" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N77" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O77" s="53" t="s">
+        <v>1389</v>
+      </c>
+      <c r="P77" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q77" s="74" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="53">
+        <v>77</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="53">
+        <v>2013</v>
+      </c>
+      <c r="D78" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E78" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="F78" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K78" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L78" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N78" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O78" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q78" s="62" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="53">
+        <v>78</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="53">
+        <v>2015</v>
+      </c>
+      <c r="D79" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K79" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L79" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M79" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O79" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="P79" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q79" s="62" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="53">
+        <v>79</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="53">
+        <v>2017</v>
+      </c>
+      <c r="D80" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K80" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L80" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M80" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N80" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O80" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="P80" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q80" s="62" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="53">
+        <v>80</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="53">
+        <v>2017</v>
+      </c>
+      <c r="D81" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K81" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L81" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O81" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="P81" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q81" s="62" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="20">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1999</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q82" s="7" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="20">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C83" s="7">
+        <v>2006</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q83" s="65" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="53">
+        <v>83</v>
+      </c>
+      <c r="B84" s="53" t="s">
+        <v>533</v>
+      </c>
+      <c r="C84" s="53">
+        <v>2011</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84" s="53" t="s">
+        <v>534</v>
+      </c>
+      <c r="F84" s="55" t="s">
+        <v>535</v>
+      </c>
+      <c r="G84" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H84" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="K84" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L84" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M84" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N84" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="P84" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q84" s="62" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="53">
+        <v>84</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>835</v>
+      </c>
+      <c r="C85" s="53">
+        <v>2001</v>
+      </c>
+      <c r="D85" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="53" t="s">
+        <v>836</v>
+      </c>
+      <c r="F85" s="55" t="s">
+        <v>837</v>
+      </c>
+      <c r="G85" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="H85" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I85" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K85" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L85" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M85" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O85" s="53" t="s">
+        <v>719</v>
+      </c>
+      <c r="P85" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q85" s="62" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="53">
+        <v>85</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C86" s="53">
+        <v>2008</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>740</v>
+      </c>
+      <c r="E86" s="53" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F86" s="55" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G86" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="I86" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J86" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K86" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L86" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M86" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O86" s="53" t="s">
+        <v>1347</v>
+      </c>
+      <c r="P86" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q86" s="74" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="53">
+        <v>86</v>
+      </c>
+      <c r="B87" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" s="53">
+        <v>2003</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="E87" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F87" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="G87" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H87" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="I87" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="K87" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L87" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O87" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P87" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q87" s="62" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="53">
+        <v>87</v>
+      </c>
+      <c r="B88" s="53" t="s">
+        <v>738</v>
+      </c>
+      <c r="C88" s="53">
+        <v>2009</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>870</v>
+      </c>
+      <c r="E88" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="F88" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="G88" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J88" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K88" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L88" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M88" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N88" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O88" s="53"/>
+      <c r="P88" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q88" s="62" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="53">
+        <v>88</v>
+      </c>
+      <c r="B89" s="53" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C89" s="53">
+        <v>2011</v>
+      </c>
+      <c r="D89" s="53" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E89" s="53" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F89" s="55" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G89" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H89" s="53" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I89" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K89" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L89" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M89" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O89" s="53" t="s">
+        <v>1449</v>
+      </c>
+      <c r="P89" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q89" s="74" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="53">
+        <v>89</v>
+      </c>
+      <c r="B90" s="73" t="s">
+        <v>853</v>
+      </c>
+      <c r="C90" s="53">
+        <v>2016</v>
+      </c>
+      <c r="D90" s="53" t="s">
+        <v>809</v>
+      </c>
+      <c r="E90" s="53" t="s">
+        <v>854</v>
+      </c>
+      <c r="F90" s="55" t="s">
+        <v>855</v>
+      </c>
+      <c r="G90" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="I90" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K90" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L90" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M90" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N90" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O90" s="53" t="s">
+        <v>893</v>
+      </c>
+      <c r="P90" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q90" s="62" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="20">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C91" s="7">
+        <v>2017</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="P91" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q91" s="65" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="53">
+        <v>91</v>
+      </c>
+      <c r="B92" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" s="53">
+        <v>1999</v>
+      </c>
+      <c r="D92" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="F92" s="55" t="s">
+        <v>435</v>
+      </c>
+      <c r="G92" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H92" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="I92" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K92" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L92" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M92" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O92" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="P92" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q92" s="62" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="53">
+        <v>92</v>
+      </c>
+      <c r="B93" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="53">
+        <v>2012</v>
+      </c>
+      <c r="D93" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E93" s="53" t="s">
+        <v>671</v>
+      </c>
+      <c r="F93" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="G93" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="I93" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="K93" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L93" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M93" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O93" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="P93" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q93" s="62" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="53">
+        <v>93</v>
+      </c>
+      <c r="B94" s="53" t="s">
+        <v>528</v>
+      </c>
+      <c r="C94" s="53">
+        <v>2001</v>
+      </c>
+      <c r="D94" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E94" s="53" t="s">
+        <v>958</v>
+      </c>
+      <c r="F94" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="G94" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="H94" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I94" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L94" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M94" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N94" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O94" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P94" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q94" s="62" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="53">
+        <v>94</v>
+      </c>
+      <c r="B95" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" s="53">
+        <v>2006</v>
+      </c>
+      <c r="D95" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E95" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="F95" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="G95" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H95" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="I95" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K95" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L95" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M95" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O95" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="P95" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q95" s="62" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="53">
+        <v>95</v>
+      </c>
+      <c r="B96" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C96" s="53">
+        <v>2010</v>
+      </c>
+      <c r="D96" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E96" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="F96" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="G96" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H96" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="I96" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J96" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K96" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L96" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M96" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N96" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O96" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="P96" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q96" s="62" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="53">
+        <v>96</v>
+      </c>
+      <c r="B97" s="53" t="s">
+        <v>647</v>
+      </c>
+      <c r="C97" s="53">
+        <v>2004</v>
+      </c>
+      <c r="D97" s="53" t="s">
+        <v>621</v>
+      </c>
+      <c r="E97" s="53" t="s">
+        <v>648</v>
+      </c>
+      <c r="F97" s="55" t="s">
+        <v>622</v>
+      </c>
+      <c r="G97" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H97" s="53" t="s">
+        <v>624</v>
+      </c>
+      <c r="I97" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="K97" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L97" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M97" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N97" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O97" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="P97" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q97" s="62" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="53">
+        <v>97</v>
+      </c>
+      <c r="B98" s="73" t="s">
+        <v>743</v>
+      </c>
+      <c r="C98" s="53">
+        <v>2011</v>
+      </c>
+      <c r="D98" s="53" t="s">
+        <v>554</v>
+      </c>
+      <c r="E98" s="53" t="s">
+        <v>744</v>
+      </c>
+      <c r="F98" s="55" t="s">
+        <v>745</v>
+      </c>
+      <c r="G98" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H98" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="I98" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="K98" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L98" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M98" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N98" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O98" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="P98" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q98" s="62" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="45">
+        <v>98</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>808</v>
+      </c>
+      <c r="C99" s="45">
+        <v>2005</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>809</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>778</v>
+      </c>
+      <c r="F99" s="46" t="s">
+        <v>779</v>
+      </c>
+      <c r="G99" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="I99" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J99" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K99" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L99" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M99" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O99" s="45" t="s">
+        <v>865</v>
+      </c>
+      <c r="P99" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q99" s="61" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="53">
+        <v>99</v>
+      </c>
+      <c r="B100" s="53" t="s">
+        <v>620</v>
+      </c>
+      <c r="C100" s="53">
+        <v>2011</v>
+      </c>
+      <c r="D100" s="53" t="s">
+        <v>621</v>
+      </c>
+      <c r="E100" s="53" t="s">
+        <v>627</v>
+      </c>
+      <c r="F100" s="55" t="s">
+        <v>622</v>
+      </c>
+      <c r="G100" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H100" s="53" t="s">
+        <v>624</v>
+      </c>
+      <c r="I100" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J100" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="K100" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L100" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M100" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N100" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O100" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="P100" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q100" s="62" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="53">
+        <v>100</v>
+      </c>
+      <c r="B101" s="53" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C101" s="53">
+        <v>2015</v>
+      </c>
+      <c r="D101" s="53" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E101" s="53" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F101" s="55" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G101" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H101" s="53" t="s">
+        <v>493</v>
+      </c>
+      <c r="I101" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J101" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K101" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L101" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="M101" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O101" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="P101" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q101" s="53" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="53">
+        <v>101</v>
+      </c>
+      <c r="B102" s="73" t="s">
+        <v>765</v>
+      </c>
+      <c r="C102" s="53">
+        <v>2013</v>
+      </c>
+      <c r="D102" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E102" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="F102" s="55" t="s">
+        <v>766</v>
+      </c>
+      <c r="G102" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="I102" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K102" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L102" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M102" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O102" s="53" t="s">
+        <v>803</v>
+      </c>
+      <c r="P102" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q102" s="62" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="53">
+        <v>102</v>
+      </c>
+      <c r="B103" s="53" t="s">
+        <v>467</v>
+      </c>
+      <c r="C103" s="53">
+        <v>2004</v>
+      </c>
+      <c r="D103" s="53" t="s">
+        <v>634</v>
+      </c>
+      <c r="E103" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="F103" s="55" t="s">
+        <v>900</v>
+      </c>
+      <c r="G103" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" s="53" t="s">
+        <v>665</v>
+      </c>
+      <c r="K103" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="L103" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M103" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N103" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O103" s="53" t="s">
+        <v>908</v>
+      </c>
+      <c r="P103" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q103" s="62" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="53">
+        <v>103</v>
+      </c>
+      <c r="B104" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="C104" s="53">
+        <v>2013</v>
+      </c>
+      <c r="D104" s="53" t="s">
+        <v>795</v>
+      </c>
+      <c r="E104" s="53" t="s">
+        <v>983</v>
+      </c>
+      <c r="F104" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="G104" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="H104" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I104" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J104" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="K104" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L104" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M104" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O104" s="53" t="s">
+        <v>796</v>
+      </c>
+      <c r="P104" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q104" s="62" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="53">
+        <v>104</v>
+      </c>
+      <c r="B105" s="53" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C105" s="53">
+        <v>2007</v>
+      </c>
+      <c r="D105" s="53" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E105" s="53" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F105" s="55" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G105" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H105" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I105" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K105" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L105" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="M105" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N105" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O105" s="53" t="s">
+        <v>1334</v>
+      </c>
+      <c r="P105" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q105" s="74" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="53">
+        <v>105</v>
+      </c>
+      <c r="B106" s="53" t="s">
+        <v>471</v>
+      </c>
+      <c r="C106" s="53">
+        <v>2001</v>
+      </c>
+      <c r="D106" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E106" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="F106" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="G106" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="H106" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K106" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L106" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M106" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N106" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O106" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="P106" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q106" s="62" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="53">
+        <v>106</v>
+      </c>
+      <c r="B107" s="53" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C107" s="53">
+        <v>2008</v>
+      </c>
+      <c r="D107" s="53" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E107" s="53" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F107" s="55" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G107" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H107" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J107" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L107" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M107" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O107" s="53" t="s">
+        <v>461</v>
+      </c>
+      <c r="P107" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q107" s="62" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="53">
+        <v>107</v>
+      </c>
+      <c r="B108" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="C108" s="53">
+        <v>2001</v>
+      </c>
+      <c r="D108" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E108" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="F108" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="G108" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H108" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J108" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K108" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L108" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M108" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N108" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O108" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="P108" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q108" s="62" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="53">
+        <v>108</v>
+      </c>
+      <c r="B109" s="73" t="s">
+        <v>968</v>
+      </c>
+      <c r="C109" s="53">
+        <v>2012</v>
+      </c>
+      <c r="D109" s="53" t="s">
+        <v>969</v>
+      </c>
+      <c r="E109" s="53" t="s">
+        <v>801</v>
+      </c>
+      <c r="F109" s="55" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G109" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I109" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J109" s="53" t="s">
+        <v>665</v>
+      </c>
+      <c r="K109" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L109" s="53" t="s">
+        <v>1231</v>
+      </c>
+      <c r="M109" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N109" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O109" s="53" t="s">
+        <v>1233</v>
+      </c>
+      <c r="P109" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q109" s="62" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="53">
+        <v>109</v>
+      </c>
+      <c r="B110" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" s="53">
+        <v>2011</v>
+      </c>
+      <c r="D110" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F110" s="55" t="s">
+        <v>542</v>
+      </c>
+      <c r="G110" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H110" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="I110" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K110" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L110" s="53" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M110" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N110" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O110" s="53" t="s">
+        <v>543</v>
+      </c>
+      <c r="P110" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q110" s="62" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="53">
+        <v>110</v>
+      </c>
+      <c r="B111" s="53" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C111" s="53">
+        <v>2017</v>
+      </c>
+      <c r="D111" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E111" s="53" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F111" s="55" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G111" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H111" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I111" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K111" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L111" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M111" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N111" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O111" s="53" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P111" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q111" s="62" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="53">
+        <v>111</v>
+      </c>
+      <c r="B112" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="53">
+        <v>2005</v>
+      </c>
+      <c r="D112" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E112" s="53" t="s">
+        <v>960</v>
+      </c>
+      <c r="F112" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H112" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I112" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K112" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L112" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M112" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N112" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O112" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="P112" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q112" s="62" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="45">
+        <v>112</v>
+      </c>
+      <c r="B113" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="45">
+        <v>2014</v>
+      </c>
+      <c r="D113" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E113" s="45" t="s">
+        <v>811</v>
+      </c>
+      <c r="F113" s="46" t="s">
+        <v>995</v>
+      </c>
+      <c r="G113" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H113" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="I113" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K113" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L113" s="45" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M113" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N113" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O113" s="45" t="s">
+        <v>999</v>
+      </c>
+      <c r="P113" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q113" s="61" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" s="53">
+        <v>113</v>
+      </c>
+      <c r="B114" s="53" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C114" s="53">
+        <v>2013</v>
+      </c>
+      <c r="D114" s="53" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E114" s="53" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F114" s="55" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G114" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H114" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="I114" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J114" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K114" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L114" s="53" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M114" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N114" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O114" s="53"/>
+      <c r="P114" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q114" s="53" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="20">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C115" s="7">
+        <v>2007</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L115" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M115" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N115" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="P115" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q115" s="65" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116" s="20">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C116" s="7">
+        <v>2017</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L116" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M116" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N116" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O116" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="P116" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q116" s="65" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="53">
+        <v>116</v>
+      </c>
+      <c r="B117" s="53" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C117" s="53">
+        <v>2005</v>
+      </c>
+      <c r="D117" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E117" s="53" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F117" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="G117" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="H117" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="I117" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="J117" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="K117" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L117" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M117" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N117" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O117" s="53"/>
+      <c r="P117" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q117" s="62" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" s="53">
+        <v>117</v>
+      </c>
+      <c r="B118" s="53" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C118" s="53">
+        <v>2015</v>
+      </c>
+      <c r="D118" s="53" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E118" s="53" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F118" s="55" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G118" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H118" s="53" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I118" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K118" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L118" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M118" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N118" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O118" s="53"/>
+      <c r="P118" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q118" s="53" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119" s="53">
+        <v>118</v>
+      </c>
+      <c r="B119" s="73" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C119" s="53">
+        <v>2020</v>
+      </c>
+      <c r="D119" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E119" s="53" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F119" s="55" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G119" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="H119" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="I119" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K119" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L119" s="53" t="s">
+        <v>597</v>
+      </c>
+      <c r="M119" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N119" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O119" s="53" t="s">
+        <v>1411</v>
+      </c>
+      <c r="P119" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q119" s="62" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120" s="53">
+        <v>119</v>
+      </c>
+      <c r="B120" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C120" s="53">
+        <v>2005</v>
+      </c>
+      <c r="D120" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E120" s="53" t="s">
+        <v>959</v>
+      </c>
+      <c r="F120" s="55" t="s">
+        <v>561</v>
+      </c>
+      <c r="G120" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H120" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="I120" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J120" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="K120" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L120" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M120" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N120" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O120" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="P120" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q120" s="62" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121" s="53">
+        <v>120</v>
+      </c>
+      <c r="B121" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C121" s="53">
+        <v>2007</v>
+      </c>
+      <c r="D121" s="53" t="s">
+        <v>870</v>
+      </c>
+      <c r="E121" s="53" t="s">
+        <v>959</v>
+      </c>
+      <c r="F121" s="55" t="s">
+        <v>561</v>
+      </c>
+      <c r="G121" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H121" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="I121" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J121" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="K121" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L121" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M121" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N121" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O121" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="P121" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q121" s="62" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122" s="53">
+        <v>121</v>
+      </c>
+      <c r="B122" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C122" s="53">
+        <v>2009</v>
+      </c>
+      <c r="D122" s="53" t="s">
+        <v>478</v>
+      </c>
+      <c r="E122" s="53" t="s">
+        <v>959</v>
+      </c>
+      <c r="F122" s="55" t="s">
+        <v>561</v>
+      </c>
+      <c r="G122" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H122" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="I122" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J122" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="K122" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L122" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M122" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N122" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O122" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="P122" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q122" s="62" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123" s="53">
+        <v>122</v>
+      </c>
+      <c r="B123" s="53" t="s">
+        <v>487</v>
+      </c>
+      <c r="C123" s="53">
+        <v>2009</v>
+      </c>
+      <c r="D123" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="E123" s="53" t="s">
+        <v>489</v>
+      </c>
+      <c r="F123" s="55" t="s">
+        <v>490</v>
+      </c>
+      <c r="G123" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H123" s="53" t="s">
+        <v>493</v>
+      </c>
+      <c r="I123" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K123" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L123" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M123" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N123" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O123" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="P123" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q123" s="76" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:P123" xr:uid="{BD4A6C70-8507-4B4A-8FF8-89379E8F198D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P123">
+    <sortCondition ref="B2:B123"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="Q8" r:id="rId1" xr:uid="{E3AD89F5-0EF7-40D9-ADEB-02A9758BA73D}"/>
+    <hyperlink ref="Q38" r:id="rId2" display="https://doi.org/10.1126/science.1072838" xr:uid="{1E77FF9B-E3E7-453F-A893-55E2D4966C09}"/>
+    <hyperlink ref="Q41" r:id="rId3" display="https://doi.org/10.1098/rspb.2000.1023" xr:uid="{461026BB-74AD-4C85-84A7-F092F612DD1C}"/>
+    <hyperlink ref="Q44" r:id="rId4" xr:uid="{DDE8451B-0AE5-4562-8211-918240D425E2}"/>
+    <hyperlink ref="Q46" r:id="rId5" display="https://doi.org/10.1093/auk/121.2.486" xr:uid="{59DE60EE-9719-4C88-BAF8-14F8E334CDE4}"/>
+    <hyperlink ref="Q50" r:id="rId6" xr:uid="{8D5AC8B0-0565-4B1E-BA75-7EB73EBB97C1}"/>
+    <hyperlink ref="B53" r:id="rId7" display="https://www.webofscience.com/wos/author/record/3831527" xr:uid="{E90A37A7-8FB1-4162-834A-EFEA1866C44D}"/>
+    <hyperlink ref="Q60" r:id="rId8" xr:uid="{934744CB-4F21-41C4-BCBB-037ADC098CD3}"/>
+    <hyperlink ref="Q68" r:id="rId9" tooltip="Persistent link using digital object identifier" xr:uid="{8622A480-F938-4E18-B830-3AB7D86B5473}"/>
+    <hyperlink ref="Q74" r:id="rId10" xr:uid="{CBC9B4C2-4B07-44D2-848F-C3B90E96EEDC}"/>
+    <hyperlink ref="Q77" r:id="rId11" xr:uid="{E5F1DCA2-2632-493F-8F7F-5F1D0EAA62CF}"/>
+    <hyperlink ref="Q86" r:id="rId12" xr:uid="{211D7C16-A8CD-4391-A991-82660B912B8A}"/>
+    <hyperlink ref="Q105" r:id="rId13" xr:uid="{E19C56FC-647D-4143-A84C-25E20B8DCD7E}"/>
+    <hyperlink ref="Q123" r:id="rId14" display="https://doi.org/10.1111/j.1557-9263.2009.00243.x" xr:uid="{0B99DF28-86B7-4438-B05D-F7E17EC4BFD5}"/>
+    <hyperlink ref="Q62" r:id="rId15" tooltip="Persistent link using digital object identifier" xr:uid="{399580B4-FBA2-493E-951D-35877F74A7B7}"/>
+    <hyperlink ref="Q31" r:id="rId16" tooltip="Persistent link using digital object identifier" xr:uid="{8A996ED1-7663-4F11-90D1-60B1D44CC8EB}"/>
+    <hyperlink ref="Q89" r:id="rId17" xr:uid="{6B6ADDA6-2D1E-4BE8-952D-DF6DB984882B}"/>
+    <hyperlink ref="Q48" r:id="rId18" xr:uid="{CCBBBF85-BA86-4B3A-B0AD-B8F7E4AF9D37}"/>
+    <hyperlink ref="Q9" r:id="rId19" tooltip="Persistent link using digital object identifier" xr:uid="{79C0F581-E445-42F5-88B3-46ADBA5CD8BD}"/>
+    <hyperlink ref="Q73" r:id="rId20" xr:uid="{BBD7B8ED-D973-4273-BB33-8990F0D3A881}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Prospecting bibliography.xlsx
+++ b/Data/Prospecting bibliography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Prospecting review\Prospecting review analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC5A6A5-6A6F-440B-9D73-E8D3DD76120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974CA6E1-DA80-4DD4-8F65-E81A928FF3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$180</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Supp_1!$A$1:$P$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Supp_1!$A$1:$P$125</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6589" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6659" uniqueCount="1516">
   <si>
     <t>Species</t>
   </si>
@@ -4547,6 +4547,66 @@
   <si>
     <t>Site selection</t>
   </si>
+  <si>
+    <t>Scientific name</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1674/0003-0031-163.2.366</t>
+  </si>
+  <si>
+    <t>Amer Mid Nat</t>
+  </si>
+  <si>
+    <t>White-tailed deer</t>
+  </si>
+  <si>
+    <t>Odocoileus virginianus</t>
+  </si>
+  <si>
+    <t>9/10</t>
+  </si>
+  <si>
+    <t>&lt;2</t>
+  </si>
+  <si>
+    <t>Kolodzinsky</t>
+  </si>
+  <si>
+    <t>Kolodzinski</t>
+  </si>
+  <si>
+    <t>Am Mid Nat</t>
+  </si>
+  <si>
+    <t>Odocoilus virginianus</t>
+  </si>
+  <si>
+    <t>breeding females</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3398/1527-0904(2007)67[102:DAEMOS]2.0.CO;2</t>
+  </si>
+  <si>
+    <t>Nicholson</t>
+  </si>
+  <si>
+    <t>West North Amer Nat</t>
+  </si>
+  <si>
+    <t>Swift fox</t>
+  </si>
+  <si>
+    <t>Vulpes velox</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>adult males</t>
+  </si>
 </sst>
 </file>
 
@@ -4555,7 +4615,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4618,8 +4678,31 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4680,6 +4763,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4694,7 +4783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -4757,7 +4846,6 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4782,6 +4870,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -5064,17 +5159,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:AD187"/>
+  <dimension ref="A1:AD186"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D180"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" style="57" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -5106,7 +5201,7 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>1018</v>
       </c>
       <c r="C1" t="s">
@@ -5284,7 +5379,7 @@
       <c r="A3" s="1">
         <v>144</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>1237</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6173,7 +6268,7 @@
       <c r="A14" s="20">
         <v>164</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="29" t="s">
         <v>1378</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -6228,7 +6323,7 @@
       <c r="A15" s="48">
         <v>14</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>1077</v>
       </c>
       <c r="C15" s="48" t="s">
@@ -6314,7 +6409,7 @@
       <c r="A16" s="1">
         <v>147</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="58" t="s">
         <v>1259</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -7061,7 +7156,7 @@
       <c r="A25" s="48">
         <v>54</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="59" t="s">
         <v>1087</v>
       </c>
       <c r="C25" s="48" t="s">
@@ -7495,7 +7590,7 @@
       <c r="A30" s="45">
         <v>136</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="60" t="s">
         <v>1194</v>
       </c>
       <c r="C30" s="45" t="s">
@@ -7671,7 +7766,7 @@
       <c r="A32" s="45">
         <v>139</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="60" t="s">
         <v>1201</v>
       </c>
       <c r="C32" s="45" t="s">
@@ -7760,7 +7855,7 @@
       <c r="A33" s="45">
         <v>95</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="60" t="s">
         <v>1091</v>
       </c>
       <c r="C33" s="45" t="s">
@@ -8624,13 +8719,13 @@
       <c r="A43" s="48">
         <v>37</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="59" t="s">
         <v>1095</v>
       </c>
       <c r="C43" s="48" t="s">
         <v>1292</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="55" t="s">
         <v>348</v>
       </c>
       <c r="E43" s="48" t="s">
@@ -8795,7 +8890,7 @@
       <c r="A45" s="45">
         <v>92</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="60" t="s">
         <v>1097</v>
       </c>
       <c r="C45" s="45" t="s">
@@ -9221,92 +9316,92 @@
       </c>
       <c r="AC49" s="20"/>
     </row>
-    <row r="50" spans="1:30" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53">
+    <row r="50" spans="1:30" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
         <v>13</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="23" t="s">
         <v>1099</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="53">
+      <c r="F50" s="20">
         <v>2005</v>
       </c>
-      <c r="G50" s="57" t="s">
+      <c r="G50" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="H50" s="55" t="s">
+      <c r="H50" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I50" s="53" t="s">
+      <c r="I50" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="53" t="s">
+      <c r="J50" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="K50" s="53" t="s">
+      <c r="K50" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L50" s="53" t="s">
+      <c r="L50" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="53" t="s">
+      <c r="M50" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N50" s="53" t="s">
+      <c r="N50" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="O50" s="53" t="s">
+      <c r="O50" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="P50" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q50" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="R50" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="S50" s="53" t="s">
+      <c r="P50" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S50" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T50" s="54" t="s">
+      <c r="T50" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="U50" s="53" t="s">
+      <c r="U50" s="20" t="s">
         <v>977</v>
       </c>
-      <c r="V50" s="53" t="s">
+      <c r="V50" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="W50" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="X50" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y50" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z50" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA50" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB50" s="53" t="s">
+      <c r="W50" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X50" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y50" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z50" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA50" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB50" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AC50" s="53" t="s">
+      <c r="AC50" s="20" t="s">
         <v>156</v>
       </c>
     </row>
@@ -9400,7 +9495,7 @@
       <c r="A52" s="20">
         <v>49</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="62" t="s">
         <v>1101</v>
       </c>
       <c r="C52" s="20" t="s">
@@ -9644,7 +9739,7 @@
       <c r="A55" s="45">
         <v>112</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="63" t="s">
         <v>1103</v>
       </c>
       <c r="C55" s="45" t="s">
@@ -9979,7 +10074,7 @@
       <c r="A59" s="1">
         <v>148</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="58" t="s">
         <v>1263</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -10133,7 +10228,7 @@
       <c r="A61" s="20">
         <v>151</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="62" t="s">
         <v>1278</v>
       </c>
       <c r="C61" s="20" t="s">
@@ -10374,7 +10469,7 @@
       <c r="A64" s="1">
         <v>40</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="58" t="s">
         <v>1108</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -10460,7 +10555,7 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="58" t="s">
         <v>1110</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -10629,7 +10724,7 @@
       <c r="A67" s="1">
         <v>41</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="58" t="s">
         <v>1111</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -10887,7 +10982,7 @@
       <c r="A70" s="20">
         <v>142</v>
       </c>
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="62" t="s">
         <v>1221</v>
       </c>
       <c r="C70" s="20" t="s">
@@ -11065,7 +11160,7 @@
       <c r="A72" s="7">
         <v>106</v>
       </c>
-      <c r="B72" s="65" t="s">
+      <c r="B72" s="64" t="s">
         <v>1115</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -11667,7 +11762,7 @@
       <c r="A79" s="45">
         <v>140</v>
       </c>
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="60" t="s">
         <v>1213</v>
       </c>
       <c r="C79" s="45" t="s">
@@ -11741,7 +11836,7 @@
       <c r="A80" s="20">
         <v>153</v>
       </c>
-      <c r="B80" s="63" t="s">
+      <c r="B80" s="62" t="s">
         <v>1283</v>
       </c>
       <c r="C80" s="20" t="s">
@@ -12326,7 +12421,7 @@
       <c r="A87" s="1">
         <v>155</v>
       </c>
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="58" t="s">
         <v>1286</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -12574,7 +12669,7 @@
       <c r="A90" s="45">
         <v>111</v>
       </c>
-      <c r="B90" s="61" t="s">
+      <c r="B90" s="60" t="s">
         <v>1123</v>
       </c>
       <c r="C90" s="45" t="s">
@@ -12811,7 +12906,7 @@
       <c r="A93" s="45">
         <v>152</v>
       </c>
-      <c r="B93" s="61" t="s">
+      <c r="B93" s="60" t="s">
         <v>1282</v>
       </c>
       <c r="C93" s="45" t="s">
@@ -12872,7 +12967,7 @@
       <c r="W93" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="X93" s="69" t="s">
+      <c r="X93" s="68" t="s">
         <v>1279</v>
       </c>
       <c r="Z93" s="45" t="s">
@@ -12883,7 +12978,7 @@
       <c r="A94" s="1">
         <v>145</v>
       </c>
-      <c r="B94" s="59" t="s">
+      <c r="B94" s="58" t="s">
         <v>1242</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -13214,7 +13309,7 @@
       <c r="A98" s="1">
         <v>135</v>
       </c>
-      <c r="B98" s="59" t="s">
+      <c r="B98" s="58" t="s">
         <v>1174</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -13392,7 +13487,7 @@
       <c r="A100" s="1">
         <v>23</v>
       </c>
-      <c r="B100" s="59" t="s">
+      <c r="B100" s="58" t="s">
         <v>1128</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -13481,7 +13576,7 @@
       <c r="A101" s="1">
         <v>119</v>
       </c>
-      <c r="B101" s="59" t="s">
+      <c r="B101" s="58" t="s">
         <v>1130</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -13827,7 +13922,7 @@
       <c r="A105" s="45">
         <v>141</v>
       </c>
-      <c r="B105" s="70" t="s">
+      <c r="B105" s="69" t="s">
         <v>1217</v>
       </c>
       <c r="C105" s="45" t="s">
@@ -14653,7 +14748,7 @@
       <c r="A115" s="7">
         <v>107</v>
       </c>
-      <c r="B115" s="65" t="s">
+      <c r="B115" s="64" t="s">
         <v>1056</v>
       </c>
       <c r="C115" s="7" t="s">
@@ -15403,7 +15498,7 @@
       <c r="A124" s="7">
         <v>90</v>
       </c>
-      <c r="B124" s="65" t="s">
+      <c r="B124" s="64" t="s">
         <v>1137</v>
       </c>
       <c r="C124" s="7" t="s">
@@ -16277,7 +16372,7 @@
       <c r="A134" s="1">
         <v>43</v>
       </c>
-      <c r="B134" s="59" t="s">
+      <c r="B134" s="58" t="s">
         <v>1144</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -16875,7 +16970,7 @@
       <c r="A141" s="45">
         <v>105</v>
       </c>
-      <c r="B141" s="61" t="s">
+      <c r="B141" s="60" t="s">
         <v>1149</v>
       </c>
       <c r="C141" s="45" t="s">
@@ -16962,7 +17057,7 @@
       <c r="A142" s="48">
         <v>84</v>
       </c>
-      <c r="B142" s="60" t="s">
+      <c r="B142" s="59" t="s">
         <v>1150</v>
       </c>
       <c r="C142" s="48" t="s">
@@ -18321,7 +18416,7 @@
       <c r="A158" s="45">
         <v>129</v>
       </c>
-      <c r="B158" s="61" t="s">
+      <c r="B158" s="60" t="s">
         <v>1067</v>
       </c>
       <c r="C158" s="45" t="s">
@@ -18524,7 +18619,7 @@
       <c r="A161" s="7">
         <v>109</v>
       </c>
-      <c r="B161" s="65" t="s">
+      <c r="B161" s="64" t="s">
         <v>1045</v>
       </c>
       <c r="C161" s="7" t="s">
@@ -18610,7 +18705,7 @@
       <c r="A162" s="7">
         <v>108</v>
       </c>
-      <c r="B162" s="65" t="s">
+      <c r="B162" s="64" t="s">
         <v>1065</v>
       </c>
       <c r="C162" s="7" t="s">
@@ -19197,7 +19292,7 @@
       <c r="A169" s="20">
         <v>61</v>
       </c>
-      <c r="B169" s="63" t="s">
+      <c r="B169" s="62" t="s">
         <v>1161</v>
       </c>
       <c r="C169" s="20" t="s">
@@ -19426,7 +19521,7 @@
       <c r="A172" s="45">
         <v>172</v>
       </c>
-      <c r="B172" s="72" t="s">
+      <c r="B172" s="71" t="s">
         <v>1441</v>
       </c>
       <c r="C172" s="45" t="s">
@@ -20007,9 +20102,145 @@
         <v>461</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D187" s="25"/>
-      <c r="F187" s="4"/>
+    <row r="181" spans="1:24" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="20">
+        <v>181</v>
+      </c>
+      <c r="B181" s="29" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D181" s="20" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E181" s="20" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F181" s="20">
+        <v>2010</v>
+      </c>
+      <c r="G181" s="20" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H181" s="76" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I181" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J181" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K181" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L181" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M181" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="N181" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O181" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P181" s="22" t="s">
+        <v>1501</v>
+      </c>
+      <c r="Q181" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R181" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S181" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T181" s="22" t="s">
+        <v>1502</v>
+      </c>
+      <c r="U181" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="V181" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="W181" s="20" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="20">
+        <v>182</v>
+      </c>
+      <c r="B182" s="29" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D182" s="20" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E182" s="20" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F182" s="20">
+        <v>2007</v>
+      </c>
+      <c r="G182" s="20" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H182" s="21" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I182" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J182" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="K182" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L182" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M182" s="20" t="s">
+        <v>1318</v>
+      </c>
+      <c r="N182" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="O182" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="P182" s="22" t="s">
+        <v>1513</v>
+      </c>
+      <c r="Q182" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R182" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S182" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="T182" s="22" t="s">
+        <v>1514</v>
+      </c>
+      <c r="V182" s="20" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D186" s="25"/>
+      <c r="F186" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AD180" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -20056,9 +20287,11 @@
     <hyperlink ref="B176" r:id="rId30" xr:uid="{984D34DA-3515-495E-94CF-37F2F9287D4D}"/>
     <hyperlink ref="B177" r:id="rId31" tooltip="Persistent link using digital object identifier" xr:uid="{C505E12F-9EAF-44E6-AA13-93B892C9BEAC}"/>
     <hyperlink ref="B179" r:id="rId32" xr:uid="{ECFE13B6-25DE-4DB7-960F-4653F0453475}"/>
+    <hyperlink ref="B181" r:id="rId33" xr:uid="{5D683685-2D3B-457B-921A-F2C522893669}"/>
+    <hyperlink ref="B182" r:id="rId34" display="https://doi.org/10.3398/1527-0904(2007)67%5b102:DAEMOS%5d2.0.CO;2" xr:uid="{27275D25-CE60-460D-B705-995F0B8ACFC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -20746,7 +20979,7 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
+      <c r="B7" s="57"/>
       <c r="H7" s="9"/>
       <c r="L7" s="39" t="s">
         <v>1262</v>
@@ -20758,7 +20991,7 @@
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
+      <c r="B8" s="57"/>
       <c r="D8" s="16" t="s">
         <v>339</v>
       </c>
@@ -20767,7 +21000,7 @@
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:29" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="66"/>
+      <c r="B9" s="65"/>
       <c r="D9" s="12" t="s">
         <v>305</v>
       </c>
@@ -20817,7 +21050,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="66"/>
+      <c r="B10" s="65"/>
       <c r="D10" s="12" t="s">
         <v>301</v>
       </c>
@@ -20892,7 +21125,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="66"/>
+      <c r="B11" s="65"/>
       <c r="D11" s="12" t="s">
         <v>353</v>
       </c>
@@ -20943,7 +21176,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="66"/>
+      <c r="B12" s="65"/>
       <c r="D12" s="30" t="s">
         <v>282</v>
       </c>
@@ -20966,7 +21199,7 @@
       <c r="T12" s="14"/>
     </row>
     <row r="13" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="66"/>
+      <c r="B13" s="65"/>
       <c r="D13" s="12" t="s">
         <v>839</v>
       </c>
@@ -20995,7 +21228,7 @@
       <c r="T13" s="14"/>
     </row>
     <row r="14" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="66"/>
+      <c r="B14" s="65"/>
       <c r="D14" s="12" t="s">
         <v>844</v>
       </c>
@@ -21024,7 +21257,7 @@
       <c r="T14" s="14"/>
     </row>
     <row r="15" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="66"/>
+      <c r="B15" s="65"/>
       <c r="D15" s="12" t="s">
         <v>857</v>
       </c>
@@ -21053,7 +21286,7 @@
       <c r="T15" s="14"/>
     </row>
     <row r="16" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="66"/>
+      <c r="B16" s="65"/>
       <c r="D16" s="31" t="s">
         <v>576</v>
       </c>
@@ -21085,7 +21318,7 @@
       <c r="T16" s="14"/>
     </row>
     <row r="17" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="66"/>
+      <c r="B17" s="65"/>
       <c r="D17" s="12" t="s">
         <v>603</v>
       </c>
@@ -21123,7 +21356,7 @@
       <c r="T17" s="14"/>
     </row>
     <row r="18" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="66"/>
+      <c r="B18" s="65"/>
       <c r="D18" s="31" t="s">
         <v>757</v>
       </c>
@@ -21171,7 +21404,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="66"/>
+      <c r="B19" s="65"/>
       <c r="D19" s="31" t="s">
         <v>964</v>
       </c>
@@ -21197,13 +21430,13 @@
       <c r="T19" s="14"/>
     </row>
     <row r="20" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="66"/>
+      <c r="B20" s="65"/>
       <c r="D20" s="31"/>
       <c r="P20" s="14"/>
       <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="66"/>
+      <c r="B21" s="65"/>
       <c r="D21" s="31" t="s">
         <v>1001</v>
       </c>
@@ -21229,7 +21462,7 @@
       <c r="T21" s="14"/>
     </row>
     <row r="22" spans="1:23" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="67"/>
+      <c r="B22" s="66"/>
       <c r="D22" s="32" t="s">
         <v>1005</v>
       </c>
@@ -21258,7 +21491,7 @@
       <c r="T22" s="35"/>
     </row>
     <row r="23" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="66"/>
+      <c r="B23" s="65"/>
       <c r="D23" s="31" t="s">
         <v>849</v>
       </c>
@@ -21296,7 +21529,7 @@
       <c r="T23" s="14"/>
     </row>
     <row r="24" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="66"/>
+      <c r="B24" s="65"/>
       <c r="D24" s="31" t="s">
         <v>786</v>
       </c>
@@ -21322,7 +21555,7 @@
       <c r="T24" s="14"/>
     </row>
     <row r="25" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="67"/>
+      <c r="B25" s="66"/>
       <c r="D25" s="33" t="s">
         <v>79</v>
       </c>
@@ -21351,7 +21584,7 @@
       <c r="T25" s="35"/>
     </row>
     <row r="26" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="66"/>
+      <c r="B26" s="65"/>
       <c r="D26" s="12" t="s">
         <v>377</v>
       </c>
@@ -21381,7 +21614,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
-      <c r="B27" s="68"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="44"/>
       <c r="D27" s="33" t="s">
         <v>239</v>
@@ -21418,25 +21651,25 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
+      <c r="B28" s="57"/>
       <c r="H28" s="9"/>
       <c r="P28" s="3"/>
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="58"/>
+      <c r="B29" s="57"/>
       <c r="H29" s="9"/>
       <c r="P29" s="3"/>
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
+      <c r="B30" s="57"/>
       <c r="H30" s="9"/>
       <c r="P30" s="3"/>
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
+      <c r="B31" s="57"/>
       <c r="H31" s="9"/>
       <c r="P31" s="3"/>
       <c r="T31" s="3"/>
@@ -21448,10 +21681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4A6C70-8507-4B4A-8FF8-89379E8F198D}">
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21472,56 +21705,56 @@
     <col min="17" max="17" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1493</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="78" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>1489</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="16" t="s">
         <v>1490</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="16" t="s">
         <v>1491</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="79" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -21541,7 +21774,7 @@
       <c r="E2" s="53" t="s">
         <v>684</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="54" t="s">
         <v>685</v>
       </c>
       <c r="G2" s="53" t="s">
@@ -21574,7 +21807,7 @@
       <c r="P2" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="61" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -21582,7 +21815,7 @@
       <c r="A3" s="53">
         <v>2</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>475</v>
       </c>
       <c r="C3" s="53">
@@ -21594,7 +21827,7 @@
       <c r="E3" s="53" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="54" t="s">
         <v>944</v>
       </c>
       <c r="G3" s="53" t="s">
@@ -21627,7 +21860,7 @@
       <c r="P3" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="61" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -21647,7 +21880,7 @@
       <c r="E4" s="53" t="s">
         <v>711</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>712</v>
       </c>
       <c r="G4" s="53" t="s">
@@ -21680,7 +21913,7 @@
       <c r="P4" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="61" t="s">
         <v>1078</v>
       </c>
     </row>
@@ -21700,7 +21933,7 @@
       <c r="E5" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>400</v>
       </c>
       <c r="G5" s="53" t="s">
@@ -21733,7 +21966,7 @@
       <c r="P5" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q5" s="62" t="s">
+      <c r="Q5" s="61" t="s">
         <v>27</v>
       </c>
     </row>
@@ -21753,7 +21986,7 @@
       <c r="E6" s="53" t="s">
         <v>1324</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>1325</v>
       </c>
       <c r="G6" s="53" t="s">
@@ -21786,7 +22019,7 @@
       <c r="P6" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q6" s="62" t="s">
+      <c r="Q6" s="61" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -21794,7 +22027,7 @@
       <c r="A7" s="53">
         <v>6</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>732</v>
       </c>
       <c r="C7" s="53">
@@ -21806,7 +22039,7 @@
       <c r="E7" s="53" t="s">
         <v>733</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="54" t="s">
         <v>734</v>
       </c>
       <c r="G7" s="53" t="s">
@@ -21839,7 +22072,7 @@
       <c r="P7" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q7" s="62" t="s">
+      <c r="Q7" s="61" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -21847,7 +22080,7 @@
       <c r="A8" s="53">
         <v>7</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="72" t="s">
         <v>1379</v>
       </c>
       <c r="C8" s="53">
@@ -21859,7 +22092,7 @@
       <c r="E8" s="53" t="s">
         <v>1380</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="54" t="s">
         <v>1381</v>
       </c>
       <c r="G8" s="53" t="s">
@@ -21890,7 +22123,7 @@
       <c r="P8" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q8" s="74" t="s">
+      <c r="Q8" s="73" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -21910,7 +22143,7 @@
       <c r="E9" s="53" t="s">
         <v>1468</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="54" t="s">
         <v>511</v>
       </c>
       <c r="G9" s="53" t="s">
@@ -21943,7 +22176,7 @@
       <c r="P9" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q9" s="74" t="s">
+      <c r="Q9" s="73" t="s">
         <v>1466</v>
       </c>
     </row>
@@ -21996,7 +22229,7 @@
       <c r="P10" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q10" s="62" t="s">
+      <c r="Q10" s="61" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -22016,7 +22249,7 @@
       <c r="E11" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="53" t="s">
@@ -22049,7 +22282,7 @@
       <c r="P11" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q11" s="62" t="s">
+      <c r="Q11" s="61" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -22069,7 +22302,7 @@
       <c r="E12" s="53" t="s">
         <v>456</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>457</v>
       </c>
       <c r="G12" s="53" t="s">
@@ -22102,7 +22335,7 @@
       <c r="P12" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q12" s="62" t="s">
+      <c r="Q12" s="61" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -22122,7 +22355,7 @@
       <c r="E13" s="53" t="s">
         <v>547</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="54" t="s">
         <v>548</v>
       </c>
       <c r="G13" s="53" t="s">
@@ -22155,7 +22388,7 @@
       <c r="P13" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q13" s="62" t="s">
+      <c r="Q13" s="61" t="s">
         <v>1084</v>
       </c>
     </row>
@@ -22175,7 +22408,7 @@
       <c r="E14" s="53" t="s">
         <v>1324</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="54" t="s">
         <v>1325</v>
       </c>
       <c r="G14" s="53" t="s">
@@ -22228,7 +22461,7 @@
       <c r="E15" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="54" t="s">
         <v>392</v>
       </c>
       <c r="G15" s="53" t="s">
@@ -22261,7 +22494,7 @@
       <c r="P15" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q15" s="62" t="s">
+      <c r="Q15" s="61" t="s">
         <v>1088</v>
       </c>
     </row>
@@ -22281,7 +22514,7 @@
       <c r="E16" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="54" t="s">
         <v>78</v>
       </c>
       <c r="G16" s="53" t="s">
@@ -22314,7 +22547,7 @@
       <c r="P16" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q16" s="62" t="s">
+      <c r="Q16" s="61" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -22367,7 +22600,7 @@
       <c r="P17" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="Q17" s="61" t="s">
+      <c r="Q17" s="60" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -22387,7 +22620,7 @@
       <c r="E18" s="53" t="s">
         <v>589</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="54" t="s">
         <v>590</v>
       </c>
       <c r="G18" s="53" t="s">
@@ -22420,7 +22653,7 @@
       <c r="P18" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q18" s="62" t="s">
+      <c r="Q18" s="61" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -22473,7 +22706,7 @@
       <c r="P19" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="Q19" s="61" t="s">
+      <c r="Q19" s="60" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -22526,7 +22759,7 @@
       <c r="P20" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="Q20" s="61" t="s">
+      <c r="Q20" s="60" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -22534,7 +22767,7 @@
       <c r="A21" s="53">
         <v>20</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="72" t="s">
         <v>737</v>
       </c>
       <c r="C21" s="53">
@@ -22546,7 +22779,7 @@
       <c r="E21" s="53" t="s">
         <v>735</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="54" t="s">
         <v>736</v>
       </c>
       <c r="G21" s="53" t="s">
@@ -22579,7 +22812,7 @@
       <c r="P21" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q21" s="62" t="s">
+      <c r="Q21" s="61" t="s">
         <v>1071</v>
       </c>
     </row>
@@ -22587,7 +22820,7 @@
       <c r="A22" s="53">
         <v>21</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="74" t="s">
         <v>276</v>
       </c>
       <c r="C22" s="53">
@@ -22599,7 +22832,7 @@
       <c r="E22" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="54" t="s">
         <v>356</v>
       </c>
       <c r="G22" s="53" t="s">
@@ -22632,7 +22865,7 @@
       <c r="P22" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q22" s="62" t="s">
+      <c r="Q22" s="61" t="s">
         <v>1072</v>
       </c>
     </row>
@@ -22640,7 +22873,7 @@
       <c r="A23" s="53">
         <v>22</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="74" t="s">
         <v>276</v>
       </c>
       <c r="C23" s="53">
@@ -22652,7 +22885,7 @@
       <c r="E23" s="53" t="s">
         <v>1294</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="54" t="s">
         <v>1295</v>
       </c>
       <c r="G23" s="53" t="s">
@@ -22685,7 +22918,7 @@
       <c r="P23" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q23" s="62" t="s">
+      <c r="Q23" s="61" t="s">
         <v>1163</v>
       </c>
     </row>
@@ -22705,7 +22938,7 @@
       <c r="E24" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="54" t="s">
         <v>134</v>
       </c>
       <c r="G24" s="53" t="s">
@@ -22738,7 +22971,7 @@
       <c r="P24" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q24" s="62" t="s">
+      <c r="Q24" s="61" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -22758,7 +22991,7 @@
       <c r="E25" s="53" t="s">
         <v>788</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="54" t="s">
         <v>789</v>
       </c>
       <c r="G25" s="53" t="s">
@@ -22791,7 +23024,7 @@
       <c r="P25" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q25" s="62" t="s">
+      <c r="Q25" s="61" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -22844,7 +23077,7 @@
       <c r="P26" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q26" s="62" t="s">
+      <c r="Q26" s="61" t="s">
         <v>1070</v>
       </c>
     </row>
@@ -22852,7 +23085,7 @@
       <c r="A27" s="53">
         <v>26</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="72" t="s">
         <v>991</v>
       </c>
       <c r="C27" s="53">
@@ -22864,7 +23097,7 @@
       <c r="E27" s="53" t="s">
         <v>959</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="54" t="s">
         <v>561</v>
       </c>
       <c r="G27" s="53" t="s">
@@ -22897,7 +23130,7 @@
       <c r="P27" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q27" s="62" t="s">
+      <c r="Q27" s="61" t="s">
         <v>1068</v>
       </c>
     </row>
@@ -22905,7 +23138,7 @@
       <c r="A28" s="53">
         <v>27</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="74" t="s">
         <v>289</v>
       </c>
       <c r="C28" s="53">
@@ -22917,7 +23150,7 @@
       <c r="E28" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="54" t="s">
         <v>292</v>
       </c>
       <c r="G28" s="53" t="s">
@@ -22950,7 +23183,7 @@
       <c r="P28" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q28" s="62" t="s">
+      <c r="Q28" s="61" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -22970,7 +23203,7 @@
       <c r="E29" s="53" t="s">
         <v>586</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="54" t="s">
         <v>587</v>
       </c>
       <c r="G29" s="53" t="s">
@@ -23003,7 +23236,7 @@
       <c r="P29" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q29" s="62" t="s">
+      <c r="Q29" s="61" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -23054,7 +23287,7 @@
       <c r="P30" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="Q30" s="72" t="s">
+      <c r="Q30" s="71" t="s">
         <v>1441</v>
       </c>
     </row>
@@ -23074,7 +23307,7 @@
       <c r="E31" s="53" t="s">
         <v>1434</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="54" t="s">
         <v>1436</v>
       </c>
       <c r="G31" s="53" t="s">
@@ -23107,7 +23340,7 @@
       <c r="P31" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q31" s="74" t="s">
+      <c r="Q31" s="73" t="s">
         <v>1447</v>
       </c>
     </row>
@@ -23160,7 +23393,7 @@
       <c r="P32" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="Q32" s="61" t="s">
+      <c r="Q32" s="60" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -23168,7 +23401,7 @@
       <c r="A33" s="53">
         <v>32</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="72" t="s">
         <v>754</v>
       </c>
       <c r="C33" s="53">
@@ -23213,7 +23446,7 @@
       <c r="P33" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q33" s="62" t="s">
+      <c r="Q33" s="61" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -23233,7 +23466,7 @@
       <c r="E34" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="55" t="s">
+      <c r="F34" s="54" t="s">
         <v>89</v>
       </c>
       <c r="G34" s="53" t="s">
@@ -23266,7 +23499,7 @@
       <c r="P34" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q34" s="62" t="s">
+      <c r="Q34" s="61" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -23286,7 +23519,7 @@
       <c r="E35" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="54" t="s">
         <v>89</v>
       </c>
       <c r="G35" s="53" t="s">
@@ -23319,7 +23552,7 @@
       <c r="P35" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q35" s="62" t="s">
+      <c r="Q35" s="61" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -23339,7 +23572,7 @@
       <c r="E36" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="55" t="s">
+      <c r="F36" s="54" t="s">
         <v>89</v>
       </c>
       <c r="G36" s="53" t="s">
@@ -23372,7 +23605,7 @@
       <c r="P36" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q36" s="62" t="s">
+      <c r="Q36" s="61" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -23389,10 +23622,10 @@
       <c r="D37" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="54" t="s">
         <v>114</v>
       </c>
       <c r="G37" s="53" t="s">
@@ -23425,7 +23658,7 @@
       <c r="P37" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q37" s="62" t="s">
+      <c r="Q37" s="61" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -23445,7 +23678,7 @@
       <c r="E38" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="F38" s="55" t="s">
+      <c r="F38" s="54" t="s">
         <v>69</v>
       </c>
       <c r="G38" s="53" t="s">
@@ -23478,7 +23711,7 @@
       <c r="P38" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q38" s="76" t="s">
+      <c r="Q38" s="75" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -23498,7 +23731,7 @@
       <c r="E39" s="53" t="s">
         <v>417</v>
       </c>
-      <c r="F39" s="55" t="s">
+      <c r="F39" s="54" t="s">
         <v>69</v>
       </c>
       <c r="G39" s="53" t="s">
@@ -23531,7 +23764,7 @@
       <c r="P39" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q39" s="62" t="s">
+      <c r="Q39" s="61" t="s">
         <v>1102</v>
       </c>
     </row>
@@ -23551,7 +23784,7 @@
       <c r="E40" s="53" t="s">
         <v>1300</v>
       </c>
-      <c r="F40" s="55" t="s">
+      <c r="F40" s="54" t="s">
         <v>561</v>
       </c>
       <c r="G40" s="53" t="s">
@@ -23584,7 +23817,7 @@
       <c r="P40" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q40" s="62" t="s">
+      <c r="Q40" s="61" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23637,7 +23870,7 @@
       <c r="P41" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="Q41" s="64" t="s">
+      <c r="Q41" s="63" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -23657,7 +23890,7 @@
       <c r="E42" s="53" t="s">
         <v>1434</v>
       </c>
-      <c r="F42" s="55" t="s">
+      <c r="F42" s="54" t="s">
         <v>1436</v>
       </c>
       <c r="G42" s="53" t="s">
@@ -23690,7 +23923,7 @@
       <c r="P42" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q42" s="62" t="s">
+      <c r="Q42" s="61" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -23710,7 +23943,7 @@
       <c r="E43" s="53" t="s">
         <v>1184</v>
       </c>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="54" t="s">
         <v>580</v>
       </c>
       <c r="G43" s="53" t="s">
@@ -23743,7 +23976,7 @@
       <c r="P43" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q43" s="62" t="s">
+      <c r="Q43" s="61" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -23763,7 +23996,7 @@
       <c r="E44" s="53" t="s">
         <v>1366</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="54" t="s">
         <v>1367</v>
       </c>
       <c r="G44" s="53" t="s">
@@ -23796,7 +24029,7 @@
       <c r="P44" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q44" s="74" t="s">
+      <c r="Q44" s="73" t="s">
         <v>1364</v>
       </c>
     </row>
@@ -23804,7 +24037,7 @@
       <c r="A45" s="53">
         <v>44</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="74" t="s">
         <v>278</v>
       </c>
       <c r="C45" s="53">
@@ -23816,7 +24049,7 @@
       <c r="E45" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="54" t="s">
         <v>280</v>
       </c>
       <c r="G45" s="53" t="s">
@@ -23849,7 +24082,7 @@
       <c r="P45" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q45" s="62" t="s">
+      <c r="Q45" s="61" t="s">
         <v>1105</v>
       </c>
     </row>
@@ -23857,7 +24090,7 @@
       <c r="A46" s="53">
         <v>45</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="72" t="s">
         <v>746</v>
       </c>
       <c r="C46" s="53">
@@ -23869,7 +24102,7 @@
       <c r="E46" s="53" t="s">
         <v>748</v>
       </c>
-      <c r="F46" s="55" t="s">
+      <c r="F46" s="54" t="s">
         <v>749</v>
       </c>
       <c r="G46" s="53" t="s">
@@ -23900,7 +24133,7 @@
       <c r="P46" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q46" s="76" t="s">
+      <c r="Q46" s="75" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -23920,7 +24153,7 @@
       <c r="E47" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="54" t="s">
         <v>125</v>
       </c>
       <c r="G47" s="53" t="s">
@@ -23953,7 +24186,7 @@
       <c r="P47" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q47" s="62" t="s">
+      <c r="Q47" s="61" t="s">
         <v>1106</v>
       </c>
     </row>
@@ -23973,7 +24206,7 @@
       <c r="E48" s="53" t="s">
         <v>1418</v>
       </c>
-      <c r="F48" s="55" t="s">
+      <c r="F48" s="54" t="s">
         <v>266</v>
       </c>
       <c r="G48" s="53" t="s">
@@ -24004,7 +24237,7 @@
       <c r="P48" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q48" s="74" t="s">
+      <c r="Q48" s="73" t="s">
         <v>1461</v>
       </c>
     </row>
@@ -24024,7 +24257,7 @@
       <c r="E49" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="F49" s="55" t="s">
+      <c r="F49" s="54" t="s">
         <v>185</v>
       </c>
       <c r="G49" s="53" t="s">
@@ -24057,7 +24290,7 @@
       <c r="P49" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q49" s="62" t="s">
+      <c r="Q49" s="61" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -24065,7 +24298,7 @@
       <c r="A50" s="53">
         <v>49</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="72" t="s">
         <v>1178</v>
       </c>
       <c r="C50" s="53">
@@ -24077,7 +24310,7 @@
       <c r="E50" s="53" t="s">
         <v>1179</v>
       </c>
-      <c r="F50" s="55" t="s">
+      <c r="F50" s="54" t="s">
         <v>1180</v>
       </c>
       <c r="G50" s="53" t="s">
@@ -24110,7 +24343,7 @@
       <c r="P50" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q50" s="76" t="s">
+      <c r="Q50" s="75" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -24118,7 +24351,7 @@
       <c r="A51" s="53">
         <v>50</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="61" t="s">
         <v>262</v>
       </c>
       <c r="C51" s="53">
@@ -24130,7 +24363,7 @@
       <c r="E51" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="55" t="s">
+      <c r="F51" s="54" t="s">
         <v>148</v>
       </c>
       <c r="G51" s="53" t="s">
@@ -24163,12 +24396,12 @@
       <c r="P51" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q51" s="62" t="s">
+      <c r="Q51" s="61" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
+      <c r="A52" s="77">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -24216,7 +24449,7 @@
       <c r="P52" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="Q52" s="65" t="s">
+      <c r="Q52" s="64" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -24224,7 +24457,7 @@
       <c r="A53" s="53">
         <v>52</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="73" t="s">
         <v>720</v>
       </c>
       <c r="C53" s="53">
@@ -24236,7 +24469,7 @@
       <c r="E53" s="53" t="s">
         <v>956</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="54" t="s">
         <v>951</v>
       </c>
       <c r="G53" s="53" t="s">
@@ -24269,7 +24502,7 @@
       <c r="P53" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q53" s="62" t="s">
+      <c r="Q53" s="61" t="s">
         <v>1066</v>
       </c>
     </row>
@@ -24289,7 +24522,7 @@
       <c r="E54" s="53" t="s">
         <v>1418</v>
       </c>
-      <c r="F54" s="55" t="s">
+      <c r="F54" s="54" t="s">
         <v>266</v>
       </c>
       <c r="G54" s="53" t="s">
@@ -24342,7 +24575,7 @@
       <c r="E55" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="54" t="s">
         <v>169</v>
       </c>
       <c r="G55" s="53" t="s">
@@ -24375,7 +24608,7 @@
       <c r="P55" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q55" s="62" t="s">
+      <c r="Q55" s="61" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -24395,7 +24628,7 @@
       <c r="E56" s="53" t="s">
         <v>983</v>
       </c>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="54" t="s">
         <v>349</v>
       </c>
       <c r="G56" s="53" t="s">
@@ -24428,7 +24661,7 @@
       <c r="P56" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q56" s="62" t="s">
+      <c r="Q56" s="61" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -24448,7 +24681,7 @@
       <c r="E57" s="53" t="s">
         <v>579</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="54" t="s">
         <v>580</v>
       </c>
       <c r="G57" s="53" t="s">
@@ -24481,7 +24714,7 @@
       <c r="P57" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q57" s="62" t="s">
+      <c r="Q57" s="61" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -24501,7 +24734,7 @@
       <c r="E58" s="53" t="s">
         <v>579</v>
       </c>
-      <c r="F58" s="55" t="s">
+      <c r="F58" s="54" t="s">
         <v>580</v>
       </c>
       <c r="G58" s="53" t="s">
@@ -24534,7 +24767,7 @@
       <c r="P58" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q58" s="62" t="s">
+      <c r="Q58" s="61" t="s">
         <v>1019</v>
       </c>
     </row>
@@ -24587,7 +24820,7 @@
       <c r="P59" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="Q59" s="61" t="s">
+      <c r="Q59" s="60" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -24595,7 +24828,7 @@
       <c r="A60" s="53">
         <v>59</v>
       </c>
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="72" t="s">
         <v>824</v>
       </c>
       <c r="C60" s="53">
@@ -24607,7 +24840,7 @@
       <c r="E60" s="53" t="s">
         <v>825</v>
       </c>
-      <c r="F60" s="55" t="s">
+      <c r="F60" s="54" t="s">
         <v>826</v>
       </c>
       <c r="G60" s="53" t="s">
@@ -24640,7 +24873,7 @@
       <c r="P60" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q60" s="76" t="s">
+      <c r="Q60" s="75" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -24648,20 +24881,20 @@
       <c r="A61" s="53">
         <v>60</v>
       </c>
-      <c r="B61" s="75" t="s">
-        <v>285</v>
+      <c r="B61" s="72" t="s">
+        <v>1504</v>
       </c>
       <c r="C61" s="53">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="D61" s="53" t="s">
-        <v>286</v>
+        <v>1505</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="F61" s="55" t="s">
-        <v>288</v>
+        <v>1499</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>1506</v>
       </c>
       <c r="G61" s="53" t="s">
         <v>150</v>
@@ -24670,82 +24903,84 @@
         <v>726</v>
       </c>
       <c r="I61" s="53" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="J61" s="53" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="K61" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L61" s="53" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M61" s="53" t="s">
         <v>12</v>
       </c>
       <c r="N61" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="O61" s="53" t="s">
-        <v>330</v>
+        <v>1507</v>
       </c>
       <c r="P61" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q61" s="62" t="s">
-        <v>1121</v>
+      <c r="Q61" s="29" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="53">
         <v>61</v>
       </c>
-      <c r="B62" s="53" t="s">
-        <v>1442</v>
+      <c r="B62" s="74" t="s">
+        <v>285</v>
       </c>
       <c r="C62" s="53">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>1443</v>
+        <v>286</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>1444</v>
-      </c>
-      <c r="F62" s="55" t="s">
-        <v>1445</v>
+        <v>287</v>
+      </c>
+      <c r="F62" s="54" t="s">
+        <v>288</v>
       </c>
       <c r="G62" s="53" t="s">
         <v>150</v>
       </c>
       <c r="H62" s="53" t="s">
-        <v>909</v>
+        <v>726</v>
       </c>
       <c r="I62" s="53" t="s">
         <v>26</v>
       </c>
       <c r="J62" s="53" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="K62" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L62" s="53" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M62" s="53" t="s">
         <v>12</v>
       </c>
       <c r="N62" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="O62" s="53"/>
+        <v>26</v>
+      </c>
+      <c r="O62" s="53" t="s">
+        <v>330</v>
+      </c>
       <c r="P62" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q62" s="74" t="s">
-        <v>1446</v>
+      <c r="Q62" s="61" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -24753,52 +24988,50 @@
         <v>62</v>
       </c>
       <c r="B63" s="53" t="s">
-        <v>294</v>
+        <v>1442</v>
       </c>
       <c r="C63" s="53">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>84</v>
+        <v>1443</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>959</v>
-      </c>
-      <c r="F63" s="55" t="s">
-        <v>561</v>
+        <v>1444</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>1445</v>
       </c>
       <c r="G63" s="53" t="s">
         <v>150</v>
       </c>
       <c r="H63" s="53" t="s">
-        <v>564</v>
+        <v>909</v>
       </c>
       <c r="I63" s="53" t="s">
         <v>26</v>
       </c>
       <c r="J63" s="53" t="s">
-        <v>563</v>
+        <v>38</v>
       </c>
       <c r="K63" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L63" s="53" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M63" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N63" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O63" s="53" t="s">
-        <v>567</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O63" s="53"/>
       <c r="P63" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q63" s="62" t="s">
-        <v>1064</v>
+      <c r="Q63" s="73" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -24806,52 +25039,52 @@
         <v>63</v>
       </c>
       <c r="B64" s="53" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="C64" s="53">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="F64" s="55" t="s">
-        <v>89</v>
+        <v>959</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>561</v>
       </c>
       <c r="G64" s="53" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="H64" s="53" t="s">
-        <v>201</v>
+        <v>564</v>
       </c>
       <c r="I64" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J64" s="53" t="s">
-        <v>37</v>
+        <v>563</v>
       </c>
       <c r="K64" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L64" s="53" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M64" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N64" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="O64" s="53" t="s">
-        <v>205</v>
+        <v>567</v>
       </c>
       <c r="P64" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q64" s="62" t="s">
-        <v>1051</v>
+      <c r="Q64" s="61" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -24859,37 +25092,37 @@
         <v>64</v>
       </c>
       <c r="B65" s="53" t="s">
-        <v>1419</v>
+        <v>199</v>
       </c>
       <c r="C65" s="53">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>1417</v>
+        <v>200</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F65" s="55" t="s">
-        <v>1426</v>
+        <v>90</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>89</v>
       </c>
       <c r="G65" s="53" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="H65" s="53" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="I65" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J65" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K65" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L65" s="53" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M65" s="53" t="s">
         <v>12</v>
@@ -24897,118 +25130,118 @@
       <c r="N65" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="O65" s="53"/>
+      <c r="O65" s="53" t="s">
+        <v>205</v>
+      </c>
       <c r="P65" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q65" s="53" t="s">
+      <c r="Q65" s="61" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="53">
+        <v>65</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C66" s="53">
+        <v>2017</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E66" s="53" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G66" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L66" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M66" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q66" s="53" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="45">
-        <v>65</v>
-      </c>
-      <c r="B66" s="45" t="s">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="45">
+        <v>66</v>
+      </c>
+      <c r="B67" s="45" t="s">
         <v>810</v>
       </c>
-      <c r="C66" s="45">
+      <c r="C67" s="45">
         <v>2004</v>
       </c>
-      <c r="D66" s="45" t="s">
+      <c r="D67" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E67" s="45" t="s">
         <v>811</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F67" s="46" t="s">
         <v>812</v>
       </c>
-      <c r="G66" s="45" t="s">
+      <c r="G67" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="45" t="s">
+      <c r="H67" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I67" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="J66" s="45" t="s">
+      <c r="J67" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="K66" s="45" t="s">
+      <c r="K67" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="L66" s="45" t="s">
+      <c r="L67" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="M66" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N66" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="O66" s="45" t="s">
+      <c r="M67" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" s="45" t="s">
         <v>703</v>
       </c>
-      <c r="P66" s="45" t="s">
+      <c r="P67" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="Q66" s="61" t="s">
+      <c r="Q67" s="60" t="s">
         <v>1123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="53">
-        <v>66</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>750</v>
-      </c>
-      <c r="C67" s="53">
-        <v>1991</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="53" t="s">
-        <v>751</v>
-      </c>
-      <c r="F67" s="55" t="s">
-        <v>752</v>
-      </c>
-      <c r="G67" s="53" t="s">
-        <v>898</v>
-      </c>
-      <c r="H67" s="53" t="s">
-        <v>759</v>
-      </c>
-      <c r="I67" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="K67" s="53" t="s">
-        <v>390</v>
-      </c>
-      <c r="L67" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="M67" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O67" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="P67" s="53" t="s">
-        <v>1495</v>
-      </c>
-      <c r="Q67" s="62" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -25016,25 +25249,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="53" t="s">
-        <v>1354</v>
+        <v>750</v>
       </c>
       <c r="C68" s="53">
-        <v>2016</v>
+        <v>1991</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E68" s="53" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F68" s="55" t="s">
-        <v>1356</v>
+        <v>751</v>
+      </c>
+      <c r="F68" s="54" t="s">
+        <v>752</v>
       </c>
       <c r="G68" s="53" t="s">
-        <v>281</v>
+        <v>898</v>
       </c>
       <c r="H68" s="53" t="s">
-        <v>328</v>
+        <v>759</v>
       </c>
       <c r="I68" s="53" t="s">
         <v>26</v>
@@ -25043,165 +25276,165 @@
         <v>38</v>
       </c>
       <c r="K68" s="53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L68" s="53" t="s">
-        <v>25</v>
+        <v>357</v>
       </c>
       <c r="M68" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N68" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="O68" s="53"/>
+      <c r="O68" s="53" t="s">
+        <v>27</v>
+      </c>
       <c r="P68" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q68" s="74" t="s">
+      <c r="Q68" s="61" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="53">
+        <v>68</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C69" s="53">
+        <v>2016</v>
+      </c>
+      <c r="D69" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="53" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G69" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H69" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I69" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K69" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L69" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q69" s="73" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="45">
-        <v>68</v>
-      </c>
-      <c r="B69" s="52" t="s">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="45">
+        <v>69</v>
+      </c>
+      <c r="B70" s="52" t="s">
         <v>753</v>
       </c>
-      <c r="C69" s="45">
+      <c r="C70" s="45">
         <v>2001</v>
       </c>
-      <c r="D69" s="45" t="s">
+      <c r="D70" s="45" t="s">
         <v>840</v>
       </c>
-      <c r="E69" s="45" t="s">
+      <c r="E70" s="45" t="s">
         <v>684</v>
       </c>
-      <c r="F69" s="46" t="s">
+      <c r="F70" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="G69" s="45" t="s">
+      <c r="G70" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H69" s="45" t="s">
+      <c r="H70" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="I69" s="45" t="s">
+      <c r="I70" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="J69" s="45" t="s">
+      <c r="J70" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="K69" s="45" t="s">
+      <c r="K70" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="L69" s="45" t="s">
+      <c r="L70" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="M69" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N69" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="O69" s="45"/>
-      <c r="P69" s="45" t="s">
+      <c r="M70" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="Q69" s="61" t="s">
+      <c r="Q70" s="60" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="53">
-        <v>69</v>
-      </c>
-      <c r="B70" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="53">
-        <v>2021</v>
-      </c>
-      <c r="D70" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="F70" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="G70" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="H70" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="I70" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K70" s="53" t="s">
-        <v>391</v>
-      </c>
-      <c r="L70" s="53" t="s">
-        <v>1310</v>
-      </c>
-      <c r="M70" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="N70" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="O70" s="53" t="s">
-        <v>943</v>
-      </c>
-      <c r="P70" s="53" t="s">
-        <v>1495</v>
-      </c>
-      <c r="Q70" s="62" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="53">
         <v>70</v>
       </c>
-      <c r="B71" s="53" t="s">
-        <v>422</v>
+      <c r="B71" s="72" t="s">
+        <v>1509</v>
       </c>
       <c r="C71" s="53">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>170</v>
+        <v>1510</v>
       </c>
       <c r="E71" s="53" t="s">
-        <v>427</v>
-      </c>
-      <c r="F71" s="55" t="s">
-        <v>428</v>
+        <v>1511</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>1512</v>
       </c>
       <c r="G71" s="53" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="H71" s="53" t="s">
-        <v>22</v>
+        <v>726</v>
       </c>
       <c r="I71" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J71" s="53" t="s">
-        <v>360</v>
+        <v>38</v>
       </c>
       <c r="K71" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L71" s="53" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="M71" s="53" t="s">
         <v>12</v>
@@ -25210,13 +25443,13 @@
         <v>26</v>
       </c>
       <c r="O71" s="53" t="s">
-        <v>432</v>
+        <v>1515</v>
       </c>
       <c r="P71" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q71" s="62" t="s">
-        <v>1127</v>
+      <c r="Q71" s="70" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -25224,52 +25457,52 @@
         <v>71</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="C72" s="53">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>253</v>
+        <v>88</v>
       </c>
       <c r="E72" s="53" t="s">
-        <v>474</v>
-      </c>
-      <c r="F72" s="55" t="s">
-        <v>944</v>
+        <v>195</v>
+      </c>
+      <c r="F72" s="54" t="s">
+        <v>400</v>
       </c>
       <c r="G72" s="53" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H72" s="53" t="s">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="I72" s="53" t="s">
         <v>12</v>
       </c>
       <c r="J72" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K72" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L72" s="53" t="s">
-        <v>40</v>
+        <v>1310</v>
       </c>
       <c r="M72" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N72" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="O72" s="53" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="P72" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q72" s="62" t="s">
-        <v>1129</v>
+      <c r="Q72" s="61" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -25277,105 +25510,105 @@
         <v>72</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1478</v>
+        <v>422</v>
       </c>
       <c r="C73" s="53">
-        <v>2022</v>
+        <v>2001</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>1479</v>
+        <v>170</v>
       </c>
       <c r="E73" s="53" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F73" s="55" t="s">
-        <v>1481</v>
+        <v>427</v>
+      </c>
+      <c r="F73" s="54" t="s">
+        <v>428</v>
       </c>
       <c r="G73" s="53" t="s">
         <v>21</v>
       </c>
       <c r="H73" s="53" t="s">
-        <v>1482</v>
+        <v>22</v>
       </c>
       <c r="I73" s="53" t="s">
         <v>12</v>
       </c>
       <c r="J73" s="53" t="s">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="K73" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L73" s="53" t="s">
-        <v>357</v>
+        <v>91</v>
       </c>
       <c r="M73" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N73" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O73" s="53" t="s">
-        <v>1368</v>
+        <v>432</v>
       </c>
       <c r="P73" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q73" s="74" t="s">
-        <v>1477</v>
+      <c r="Q73" s="61" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="45">
+      <c r="A74" s="53">
         <v>73</v>
       </c>
-      <c r="B74" s="52" t="s">
-        <v>817</v>
-      </c>
-      <c r="C74" s="45">
-        <v>2006</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>818</v>
-      </c>
-      <c r="F74" s="46" t="s">
-        <v>819</v>
-      </c>
-      <c r="G74" s="45" t="s">
+      <c r="B74" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="C74" s="53">
+        <v>2011</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E74" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="F74" s="54" t="s">
+        <v>944</v>
+      </c>
+      <c r="G74" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="45" t="s">
-        <v>726</v>
-      </c>
-      <c r="I74" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="J74" s="45" t="s">
+      <c r="H74" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="K74" s="45" t="s">
+      <c r="K74" s="53" t="s">
         <v>391</v>
       </c>
-      <c r="L74" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="M74" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N74" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="O74" s="45" t="s">
-        <v>1219</v>
-      </c>
-      <c r="P74" s="45" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q74" s="70" t="s">
-        <v>1217</v>
+      <c r="L74" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M74" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" s="53" t="s">
+        <v>945</v>
+      </c>
+      <c r="P74" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q74" s="61" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -25383,105 +25616,105 @@
         <v>74</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>70</v>
+        <v>1478</v>
       </c>
       <c r="C75" s="53">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>86</v>
+        <v>1479</v>
       </c>
       <c r="E75" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F75" s="55" t="s">
-        <v>140</v>
+        <v>1480</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>1481</v>
       </c>
       <c r="G75" s="53" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H75" s="53" t="s">
-        <v>18</v>
+        <v>1482</v>
       </c>
       <c r="I75" s="53" t="s">
         <v>12</v>
       </c>
       <c r="J75" s="53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K75" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L75" s="53" t="s">
-        <v>143</v>
+        <v>357</v>
       </c>
       <c r="M75" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N75" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="O75" s="53" t="s">
-        <v>93</v>
+        <v>1368</v>
       </c>
       <c r="P75" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q75" s="62" t="s">
-        <v>1050</v>
+      <c r="Q75" s="73" t="s">
+        <v>1477</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="53">
+      <c r="A76" s="45">
         <v>75</v>
       </c>
-      <c r="B76" s="53" t="s">
-        <v>469</v>
-      </c>
-      <c r="C76" s="53">
+      <c r="B76" s="52" t="s">
+        <v>817</v>
+      </c>
+      <c r="C76" s="45">
         <v>2006</v>
       </c>
-      <c r="D76" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="E76" s="53" t="s">
-        <v>470</v>
-      </c>
-      <c r="F76" s="55" t="s">
-        <v>676</v>
-      </c>
-      <c r="G76" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="H76" s="53" t="s">
+      <c r="D76" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>818</v>
+      </c>
+      <c r="F76" s="46" t="s">
+        <v>819</v>
+      </c>
+      <c r="G76" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="I76" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="53" t="s">
+      <c r="I76" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J76" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="K76" s="53" t="s">
+      <c r="K76" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="L76" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="M76" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="N76" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O76" s="53" t="s">
-        <v>1494</v>
-      </c>
-      <c r="P76" s="53" t="s">
-        <v>1495</v>
-      </c>
-      <c r="Q76" s="62" t="s">
-        <v>1133</v>
+      <c r="L76" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" s="45" t="s">
+        <v>1219</v>
+      </c>
+      <c r="P76" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q76" s="69" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -25489,31 +25722,31 @@
         <v>76</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>1383</v>
+        <v>70</v>
       </c>
       <c r="C77" s="53">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="D77" s="53" t="s">
-        <v>1391</v>
+        <v>86</v>
       </c>
       <c r="E77" s="53" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F77" s="55" t="s">
-        <v>1332</v>
+        <v>71</v>
+      </c>
+      <c r="F77" s="54" t="s">
+        <v>140</v>
       </c>
       <c r="G77" s="53" t="s">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c r="H77" s="53" t="s">
-        <v>726</v>
+        <v>18</v>
       </c>
       <c r="I77" s="53" t="s">
-        <v>1207</v>
+        <v>12</v>
       </c>
       <c r="J77" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K77" s="53" t="s">
         <v>391</v>
@@ -25528,13 +25761,13 @@
         <v>12</v>
       </c>
       <c r="O77" s="53" t="s">
-        <v>1389</v>
+        <v>93</v>
       </c>
       <c r="P77" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q77" s="74" t="s">
-        <v>1384</v>
+      <c r="Q77" s="61" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -25542,25 +25775,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>4</v>
+        <v>469</v>
       </c>
       <c r="C78" s="53">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D78" s="53" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="E78" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="F78" s="55" t="s">
-        <v>69</v>
+        <v>470</v>
+      </c>
+      <c r="F78" s="54" t="s">
+        <v>676</v>
       </c>
       <c r="G78" s="53" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H78" s="53" t="s">
-        <v>22</v>
+        <v>726</v>
       </c>
       <c r="I78" s="53" t="s">
         <v>12</v>
@@ -25572,22 +25805,22 @@
         <v>391</v>
       </c>
       <c r="L78" s="53" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M78" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N78" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O78" s="53" t="s">
-        <v>23</v>
+        <v>1494</v>
       </c>
       <c r="P78" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q78" s="62" t="s">
-        <v>1027</v>
+      <c r="Q78" s="61" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -25595,37 +25828,37 @@
         <v>78</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>4</v>
+        <v>1383</v>
       </c>
       <c r="C79" s="53">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="D79" s="53" t="s">
-        <v>81</v>
+        <v>1391</v>
       </c>
       <c r="E79" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="55" t="s">
-        <v>17</v>
+        <v>1331</v>
+      </c>
+      <c r="F79" s="54" t="s">
+        <v>1332</v>
       </c>
       <c r="G79" s="53" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="H79" s="53" t="s">
-        <v>11</v>
+        <v>726</v>
       </c>
       <c r="I79" s="53" t="s">
-        <v>12</v>
+        <v>1207</v>
       </c>
       <c r="J79" s="53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K79" s="53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L79" s="53" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M79" s="53" t="s">
         <v>12</v>
@@ -25634,13 +25867,13 @@
         <v>12</v>
       </c>
       <c r="O79" s="53" t="s">
-        <v>14</v>
+        <v>1389</v>
       </c>
       <c r="P79" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q79" s="62" t="s">
-        <v>1062</v>
+      <c r="Q79" s="73" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -25651,49 +25884,49 @@
         <v>4</v>
       </c>
       <c r="C80" s="53">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D80" s="53" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E80" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="55" t="s">
-        <v>17</v>
+        <v>417</v>
+      </c>
+      <c r="F80" s="54" t="s">
+        <v>69</v>
       </c>
       <c r="G80" s="53" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H80" s="53" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I80" s="53" t="s">
         <v>12</v>
       </c>
       <c r="J80" s="53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K80" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L80" s="53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M80" s="53" t="s">
         <v>12</v>
       </c>
       <c r="N80" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="O80" s="53" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P80" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q80" s="62" t="s">
-        <v>1026</v>
+      <c r="Q80" s="61" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -25704,15 +25937,15 @@
         <v>4</v>
       </c>
       <c r="C81" s="53">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E81" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="55" t="s">
+      <c r="F81" s="54" t="s">
         <v>17</v>
       </c>
       <c r="G81" s="53" t="s">
@@ -25728,10 +25961,10 @@
         <v>37</v>
       </c>
       <c r="K81" s="53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L81" s="53" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M81" s="53" t="s">
         <v>12</v>
@@ -25745,220 +25978,220 @@
       <c r="P81" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q81" s="62" t="s">
+      <c r="Q81" s="61" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="53">
+        <v>81</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="53">
+        <v>2017</v>
+      </c>
+      <c r="D82" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K82" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L82" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M82" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O82" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="P82" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q82" s="61" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="53">
+        <v>82</v>
+      </c>
+      <c r="B83" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="53">
+        <v>2017</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K83" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L83" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M83" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O83" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="P83" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q83" s="61" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="20">
-        <v>81</v>
-      </c>
-      <c r="B82" s="7" t="s">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="77">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C84" s="7">
         <v>1999</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D84" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E84" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F84" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I84" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="J84" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="K82" s="7" t="s">
+      <c r="K84" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="L82" s="7" t="s">
+      <c r="L84" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M82" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N82" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O82" s="7" t="s">
+      <c r="M84" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="P82" s="7" t="s">
+      <c r="P84" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="Q82" s="7" t="s">
+      <c r="Q84" s="7" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="20">
-        <v>82</v>
-      </c>
-      <c r="B83" s="7" t="s">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="77">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C85" s="7">
         <v>2006</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D85" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E85" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F85" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I85" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J85" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="K83" s="7" t="s">
+      <c r="K85" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="L83" s="7" t="s">
+      <c r="L85" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="M83" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N83" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O83" s="7" t="s">
+      <c r="M85" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O85" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="P83" s="7" t="s">
+      <c r="P85" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="Q83" s="65" t="s">
+      <c r="Q85" s="64" t="s">
         <v>1056</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="53">
-        <v>83</v>
-      </c>
-      <c r="B84" s="53" t="s">
-        <v>533</v>
-      </c>
-      <c r="C84" s="53">
-        <v>2011</v>
-      </c>
-      <c r="D84" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="E84" s="53" t="s">
-        <v>534</v>
-      </c>
-      <c r="F84" s="55" t="s">
-        <v>535</v>
-      </c>
-      <c r="G84" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="H84" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J84" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="K84" s="53" t="s">
-        <v>390</v>
-      </c>
-      <c r="L84" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="M84" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="N84" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O84" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="P84" s="53" t="s">
-        <v>1495</v>
-      </c>
-      <c r="Q84" s="62" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="53">
-        <v>84</v>
-      </c>
-      <c r="B85" s="53" t="s">
-        <v>835</v>
-      </c>
-      <c r="C85" s="53">
-        <v>2001</v>
-      </c>
-      <c r="D85" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="E85" s="53" t="s">
-        <v>836</v>
-      </c>
-      <c r="F85" s="55" t="s">
-        <v>837</v>
-      </c>
-      <c r="G85" s="53" t="s">
-        <v>536</v>
-      </c>
-      <c r="H85" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="I85" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J85" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K85" s="53" t="s">
-        <v>391</v>
-      </c>
-      <c r="L85" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="M85" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="N85" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O85" s="53" t="s">
-        <v>719</v>
-      </c>
-      <c r="P85" s="53" t="s">
-        <v>1495</v>
-      </c>
-      <c r="Q85" s="62" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -25966,105 +26199,105 @@
         <v>85</v>
       </c>
       <c r="B86" s="53" t="s">
-        <v>1343</v>
+        <v>533</v>
       </c>
       <c r="C86" s="53">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>740</v>
+        <v>253</v>
       </c>
       <c r="E86" s="53" t="s">
-        <v>1344</v>
-      </c>
-      <c r="F86" s="55" t="s">
-        <v>1345</v>
+        <v>534</v>
+      </c>
+      <c r="F86" s="54" t="s">
+        <v>535</v>
       </c>
       <c r="G86" s="53" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="H86" s="53" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="I86" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="J86" s="53" t="s">
-        <v>38</v>
-      </c>
       <c r="K86" s="53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L86" s="53" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="M86" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N86" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O86" s="53" t="s">
-        <v>1347</v>
+        <v>461</v>
       </c>
       <c r="P86" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q86" s="74" t="s">
-        <v>1342</v>
+      <c r="Q86" s="61" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="53">
         <v>86</v>
       </c>
-      <c r="B87" s="62" t="s">
-        <v>263</v>
+      <c r="B87" s="53" t="s">
+        <v>835</v>
       </c>
       <c r="C87" s="53">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D87" s="53" t="s">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="E87" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="F87" s="55" t="s">
-        <v>266</v>
+        <v>836</v>
+      </c>
+      <c r="F87" s="54" t="s">
+        <v>837</v>
       </c>
       <c r="G87" s="53" t="s">
-        <v>150</v>
+        <v>536</v>
       </c>
       <c r="H87" s="53" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="I87" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J87" s="53" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="K87" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L87" s="53" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M87" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N87" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O87" s="53" t="s">
-        <v>27</v>
+        <v>719</v>
       </c>
       <c r="P87" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q87" s="62" t="s">
-        <v>1135</v>
+      <c r="Q87" s="61" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
@@ -26072,25 +26305,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="53" t="s">
-        <v>738</v>
+        <v>1343</v>
       </c>
       <c r="C88" s="53">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D88" s="53" t="s">
-        <v>870</v>
+        <v>740</v>
       </c>
       <c r="E88" s="53" t="s">
-        <v>684</v>
-      </c>
-      <c r="F88" s="55" t="s">
-        <v>685</v>
+        <v>1344</v>
+      </c>
+      <c r="F88" s="54" t="s">
+        <v>1345</v>
       </c>
       <c r="G88" s="53" t="s">
         <v>21</v>
       </c>
       <c r="H88" s="53" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="I88" s="53" t="s">
         <v>116</v>
@@ -26099,7 +26332,7 @@
         <v>38</v>
       </c>
       <c r="K88" s="53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L88" s="53" t="s">
         <v>40</v>
@@ -26110,44 +26343,46 @@
       <c r="N88" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="O88" s="53"/>
+      <c r="O88" s="53" t="s">
+        <v>1347</v>
+      </c>
       <c r="P88" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q88" s="62" t="s">
-        <v>1404</v>
+      <c r="Q88" s="73" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="53">
         <v>88</v>
       </c>
-      <c r="B89" s="53" t="s">
-        <v>1453</v>
+      <c r="B89" s="61" t="s">
+        <v>263</v>
       </c>
       <c r="C89" s="53">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="D89" s="53" t="s">
-        <v>1454</v>
+        <v>264</v>
       </c>
       <c r="E89" s="53" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F89" s="55" t="s">
-        <v>1456</v>
+        <v>265</v>
+      </c>
+      <c r="F89" s="54" t="s">
+        <v>266</v>
       </c>
       <c r="G89" s="53" t="s">
         <v>150</v>
       </c>
       <c r="H89" s="53" t="s">
-        <v>1457</v>
+        <v>314</v>
       </c>
       <c r="I89" s="53" t="s">
         <v>26</v>
       </c>
       <c r="J89" s="53" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="K89" s="53" t="s">
         <v>391</v>
@@ -26162,225 +26397,223 @@
         <v>26</v>
       </c>
       <c r="O89" s="53" t="s">
-        <v>1449</v>
+        <v>27</v>
       </c>
       <c r="P89" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q89" s="74" t="s">
-        <v>1452</v>
+      <c r="Q89" s="61" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="53">
         <v>89</v>
       </c>
-      <c r="B90" s="73" t="s">
-        <v>853</v>
+      <c r="B90" s="53" t="s">
+        <v>738</v>
       </c>
       <c r="C90" s="53">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="D90" s="53" t="s">
-        <v>809</v>
+        <v>870</v>
       </c>
       <c r="E90" s="53" t="s">
-        <v>854</v>
-      </c>
-      <c r="F90" s="55" t="s">
-        <v>855</v>
+        <v>684</v>
+      </c>
+      <c r="F90" s="54" t="s">
+        <v>685</v>
       </c>
       <c r="G90" s="53" t="s">
         <v>21</v>
       </c>
       <c r="H90" s="53" t="s">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="I90" s="53" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="J90" s="53" t="s">
         <v>38</v>
       </c>
       <c r="K90" s="53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L90" s="53" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="M90" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N90" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="O90" s="53" t="s">
-        <v>893</v>
-      </c>
+      <c r="O90" s="53"/>
       <c r="P90" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q90" s="62" t="s">
-        <v>1136</v>
+      <c r="Q90" s="61" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="20">
+      <c r="A91" s="53">
         <v>90</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="C91" s="7">
-        <v>2017</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="K91" s="7" t="s">
+      <c r="B91" s="53" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C91" s="53">
+        <v>2011</v>
+      </c>
+      <c r="D91" s="53" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E91" s="53" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F91" s="54" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G91" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H91" s="53" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I91" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J91" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K91" s="53" t="s">
         <v>391</v>
       </c>
-      <c r="L91" s="7" t="s">
+      <c r="L91" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="M91" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N91" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O91" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="P91" s="7" t="s">
-        <v>1492</v>
-      </c>
-      <c r="Q91" s="65" t="s">
-        <v>1137</v>
+      <c r="M91" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O91" s="53" t="s">
+        <v>1449</v>
+      </c>
+      <c r="P91" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q91" s="73" t="s">
+        <v>1452</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="53">
         <v>91</v>
       </c>
-      <c r="B92" s="53" t="s">
-        <v>208</v>
+      <c r="B92" s="72" t="s">
+        <v>853</v>
       </c>
       <c r="C92" s="53">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="D92" s="53" t="s">
-        <v>84</v>
+        <v>809</v>
       </c>
       <c r="E92" s="53" t="s">
-        <v>335</v>
-      </c>
-      <c r="F92" s="55" t="s">
-        <v>435</v>
+        <v>854</v>
+      </c>
+      <c r="F92" s="54" t="s">
+        <v>855</v>
       </c>
       <c r="G92" s="53" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H92" s="53" t="s">
-        <v>436</v>
+        <v>314</v>
       </c>
       <c r="I92" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J92" s="53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K92" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L92" s="53" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="M92" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N92" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O92" s="53" t="s">
-        <v>218</v>
+        <v>893</v>
       </c>
       <c r="P92" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q92" s="62" t="s">
-        <v>1139</v>
+      <c r="Q92" s="61" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="53">
+      <c r="A93" s="77">
         <v>92</v>
       </c>
-      <c r="B93" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="53">
-        <v>2012</v>
-      </c>
-      <c r="D93" s="53" t="s">
+      <c r="B93" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C93" s="7">
+        <v>2017</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E93" s="53" t="s">
-        <v>671</v>
-      </c>
-      <c r="F93" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="G93" s="53" t="s">
+      <c r="E93" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H93" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="I93" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="J93" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="K93" s="53" t="s">
+      <c r="H93" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="K93" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="L93" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="M93" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="N93" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O93" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="P93" s="53" t="s">
-        <v>1495</v>
-      </c>
-      <c r="Q93" s="62" t="s">
-        <v>1162</v>
+      <c r="L93" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="P93" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q93" s="64" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -26388,37 +26621,37 @@
         <v>93</v>
       </c>
       <c r="B94" s="53" t="s">
-        <v>528</v>
+        <v>208</v>
       </c>
       <c r="C94" s="53">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D94" s="53" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="E94" s="53" t="s">
-        <v>958</v>
-      </c>
-      <c r="F94" s="55" t="s">
-        <v>529</v>
+        <v>335</v>
+      </c>
+      <c r="F94" s="54" t="s">
+        <v>435</v>
       </c>
       <c r="G94" s="53" t="s">
-        <v>277</v>
+        <v>47</v>
       </c>
       <c r="H94" s="53" t="s">
-        <v>726</v>
+        <v>436</v>
       </c>
       <c r="I94" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J94" s="53" t="s">
         <v>37</v>
       </c>
       <c r="K94" s="53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L94" s="53" t="s">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="M94" s="53" t="s">
         <v>26</v>
@@ -26427,13 +26660,13 @@
         <v>26</v>
       </c>
       <c r="O94" s="53" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="P94" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q94" s="62" t="s">
-        <v>1141</v>
+      <c r="Q94" s="61" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
@@ -26441,22 +26674,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="53" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="C95" s="53">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D95" s="53" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="E95" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="F95" s="55" t="s">
-        <v>252</v>
+        <v>671</v>
+      </c>
+      <c r="F95" s="54" t="s">
+        <v>159</v>
       </c>
       <c r="G95" s="53" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="H95" s="53" t="s">
         <v>163</v>
@@ -26465,13 +26698,13 @@
         <v>26</v>
       </c>
       <c r="J95" s="53" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="K95" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L95" s="53" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="M95" s="53" t="s">
         <v>12</v>
@@ -26480,13 +26713,13 @@
         <v>26</v>
       </c>
       <c r="O95" s="53" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="P95" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q95" s="62" t="s">
-        <v>1055</v>
+      <c r="Q95" s="61" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
@@ -26494,52 +26727,52 @@
         <v>95</v>
       </c>
       <c r="B96" s="53" t="s">
-        <v>249</v>
+        <v>528</v>
       </c>
       <c r="C96" s="53">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="D96" s="53" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="E96" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="F96" s="55" t="s">
-        <v>252</v>
+        <v>958</v>
+      </c>
+      <c r="F96" s="54" t="s">
+        <v>529</v>
       </c>
       <c r="G96" s="53" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="H96" s="53" t="s">
-        <v>163</v>
+        <v>726</v>
       </c>
       <c r="I96" s="53" t="s">
         <v>26</v>
       </c>
       <c r="J96" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K96" s="53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L96" s="53" t="s">
-        <v>25</v>
+        <v>357</v>
       </c>
       <c r="M96" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N96" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O96" s="53" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="P96" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q96" s="62" t="s">
-        <v>1053</v>
+      <c r="Q96" s="61" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -26547,84 +26780,84 @@
         <v>96</v>
       </c>
       <c r="B97" s="53" t="s">
-        <v>647</v>
+        <v>249</v>
       </c>
       <c r="C97" s="53">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="D97" s="53" t="s">
-        <v>621</v>
+        <v>253</v>
       </c>
       <c r="E97" s="53" t="s">
-        <v>648</v>
-      </c>
-      <c r="F97" s="55" t="s">
-        <v>622</v>
+        <v>251</v>
+      </c>
+      <c r="F97" s="54" t="s">
+        <v>252</v>
       </c>
       <c r="G97" s="53" t="s">
         <v>150</v>
       </c>
       <c r="H97" s="53" t="s">
-        <v>624</v>
+        <v>163</v>
       </c>
       <c r="I97" s="53" t="s">
         <v>26</v>
       </c>
       <c r="J97" s="53" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="K97" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L97" s="53" t="s">
-        <v>357</v>
+        <v>25</v>
       </c>
       <c r="M97" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N97" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O97" s="53" t="s">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="P97" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q97" s="62" t="s">
-        <v>1145</v>
+      <c r="Q97" s="61" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="53">
         <v>97</v>
       </c>
-      <c r="B98" s="73" t="s">
-        <v>743</v>
+      <c r="B98" s="53" t="s">
+        <v>249</v>
       </c>
       <c r="C98" s="53">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D98" s="53" t="s">
-        <v>554</v>
+        <v>250</v>
       </c>
       <c r="E98" s="53" t="s">
-        <v>744</v>
-      </c>
-      <c r="F98" s="55" t="s">
-        <v>745</v>
+        <v>251</v>
+      </c>
+      <c r="F98" s="54" t="s">
+        <v>252</v>
       </c>
       <c r="G98" s="53" t="s">
         <v>150</v>
       </c>
       <c r="H98" s="53" t="s">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="I98" s="53" t="s">
         <v>26</v>
       </c>
       <c r="J98" s="53" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="K98" s="53" t="s">
         <v>391</v>
@@ -26639,92 +26872,92 @@
         <v>26</v>
       </c>
       <c r="O98" s="53" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="P98" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q98" s="62" t="s">
-        <v>1146</v>
+      <c r="Q98" s="61" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="45">
+      <c r="A99" s="53">
         <v>98</v>
       </c>
-      <c r="B99" s="45" t="s">
-        <v>808</v>
-      </c>
-      <c r="C99" s="45">
-        <v>2005</v>
-      </c>
-      <c r="D99" s="45" t="s">
-        <v>809</v>
-      </c>
-      <c r="E99" s="45" t="s">
-        <v>778</v>
-      </c>
-      <c r="F99" s="46" t="s">
-        <v>779</v>
-      </c>
-      <c r="G99" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H99" s="45" t="s">
-        <v>726</v>
-      </c>
-      <c r="I99" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="J99" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="K99" s="45" t="s">
+      <c r="B99" s="53" t="s">
+        <v>647</v>
+      </c>
+      <c r="C99" s="53">
+        <v>2004</v>
+      </c>
+      <c r="D99" s="53" t="s">
+        <v>621</v>
+      </c>
+      <c r="E99" s="53" t="s">
+        <v>648</v>
+      </c>
+      <c r="F99" s="54" t="s">
+        <v>622</v>
+      </c>
+      <c r="G99" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H99" s="53" t="s">
+        <v>624</v>
+      </c>
+      <c r="I99" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="K99" s="53" t="s">
         <v>391</v>
       </c>
-      <c r="L99" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="M99" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N99" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="O99" s="45" t="s">
-        <v>865</v>
-      </c>
-      <c r="P99" s="45" t="s">
-        <v>575</v>
+      <c r="L99" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M99" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N99" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O99" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="P99" s="53" t="s">
+        <v>1495</v>
       </c>
       <c r="Q99" s="61" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="53">
         <v>99</v>
       </c>
-      <c r="B100" s="53" t="s">
-        <v>620</v>
+      <c r="B100" s="72" t="s">
+        <v>743</v>
       </c>
       <c r="C100" s="53">
         <v>2011</v>
       </c>
       <c r="D100" s="53" t="s">
-        <v>621</v>
+        <v>554</v>
       </c>
       <c r="E100" s="53" t="s">
-        <v>627</v>
-      </c>
-      <c r="F100" s="55" t="s">
-        <v>622</v>
+        <v>744</v>
+      </c>
+      <c r="F100" s="54" t="s">
+        <v>745</v>
       </c>
       <c r="G100" s="53" t="s">
         <v>150</v>
       </c>
       <c r="H100" s="53" t="s">
-        <v>624</v>
+        <v>314</v>
       </c>
       <c r="I100" s="53" t="s">
         <v>26</v>
@@ -26736,128 +26969,128 @@
         <v>391</v>
       </c>
       <c r="L100" s="53" t="s">
-        <v>357</v>
+        <v>25</v>
       </c>
       <c r="M100" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N100" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O100" s="53" t="s">
-        <v>629</v>
+        <v>27</v>
       </c>
       <c r="P100" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q100" s="62" t="s">
-        <v>1152</v>
+      <c r="Q100" s="61" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="53">
+      <c r="A101" s="45">
         <v>100</v>
       </c>
-      <c r="B101" s="53" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C101" s="53">
-        <v>2015</v>
-      </c>
-      <c r="D101" s="53" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E101" s="53" t="s">
-        <v>1316</v>
-      </c>
-      <c r="F101" s="55" t="s">
-        <v>1317</v>
-      </c>
-      <c r="G101" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="H101" s="53" t="s">
-        <v>493</v>
-      </c>
-      <c r="I101" s="53" t="s">
+      <c r="B101" s="45" t="s">
+        <v>808</v>
+      </c>
+      <c r="C101" s="45">
+        <v>2005</v>
+      </c>
+      <c r="D101" s="45" t="s">
+        <v>809</v>
+      </c>
+      <c r="E101" s="45" t="s">
+        <v>778</v>
+      </c>
+      <c r="F101" s="46" t="s">
+        <v>779</v>
+      </c>
+      <c r="G101" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="I101" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="J101" s="53" t="s">
+      <c r="J101" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="K101" s="53" t="s">
+      <c r="K101" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="L101" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="M101" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="N101" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="O101" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="P101" s="53" t="s">
-        <v>1495</v>
-      </c>
-      <c r="Q101" s="53" t="s">
-        <v>1314</v>
+      <c r="L101" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N101" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O101" s="45" t="s">
+        <v>865</v>
+      </c>
+      <c r="P101" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q101" s="60" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="53">
         <v>101</v>
       </c>
-      <c r="B102" s="73" t="s">
-        <v>765</v>
+      <c r="B102" s="53" t="s">
+        <v>620</v>
       </c>
       <c r="C102" s="53">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D102" s="53" t="s">
-        <v>158</v>
+        <v>621</v>
       </c>
       <c r="E102" s="53" t="s">
-        <v>427</v>
-      </c>
-      <c r="F102" s="55" t="s">
-        <v>766</v>
+        <v>627</v>
+      </c>
+      <c r="F102" s="54" t="s">
+        <v>622</v>
       </c>
       <c r="G102" s="53" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="H102" s="53" t="s">
-        <v>163</v>
+        <v>624</v>
       </c>
       <c r="I102" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J102" s="53" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="K102" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L102" s="53" t="s">
-        <v>91</v>
+        <v>357</v>
       </c>
       <c r="M102" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N102" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O102" s="53" t="s">
-        <v>803</v>
+        <v>629</v>
       </c>
       <c r="P102" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q102" s="62" t="s">
-        <v>1153</v>
+      <c r="Q102" s="61" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
@@ -26865,90 +27098,90 @@
         <v>102</v>
       </c>
       <c r="B103" s="53" t="s">
-        <v>467</v>
+        <v>1315</v>
       </c>
       <c r="C103" s="53">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="D103" s="53" t="s">
-        <v>634</v>
+        <v>1166</v>
       </c>
       <c r="E103" s="53" t="s">
-        <v>468</v>
-      </c>
-      <c r="F103" s="55" t="s">
-        <v>900</v>
+        <v>1316</v>
+      </c>
+      <c r="F103" s="54" t="s">
+        <v>1317</v>
       </c>
       <c r="G103" s="53" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="H103" s="53" t="s">
-        <v>22</v>
+        <v>493</v>
       </c>
       <c r="I103" s="53" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="J103" s="53" t="s">
-        <v>665</v>
+        <v>38</v>
       </c>
       <c r="K103" s="53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L103" s="53" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="M103" s="53" t="s">
         <v>12</v>
       </c>
       <c r="N103" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="O103" s="53" t="s">
-        <v>908</v>
+        <v>411</v>
       </c>
       <c r="P103" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q103" s="62" t="s">
-        <v>1154</v>
+      <c r="Q103" s="53" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="53">
         <v>103</v>
       </c>
-      <c r="B104" s="53" t="s">
-        <v>764</v>
+      <c r="B104" s="72" t="s">
+        <v>765</v>
       </c>
       <c r="C104" s="53">
         <v>2013</v>
       </c>
       <c r="D104" s="53" t="s">
-        <v>795</v>
+        <v>158</v>
       </c>
       <c r="E104" s="53" t="s">
-        <v>983</v>
-      </c>
-      <c r="F104" s="55" t="s">
-        <v>349</v>
+        <v>427</v>
+      </c>
+      <c r="F104" s="54" t="s">
+        <v>766</v>
       </c>
       <c r="G104" s="53" t="s">
-        <v>536</v>
+        <v>21</v>
       </c>
       <c r="H104" s="53" t="s">
-        <v>726</v>
+        <v>163</v>
       </c>
       <c r="I104" s="53" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="J104" s="53" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="K104" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L104" s="53" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="M104" s="53" t="s">
         <v>12</v>
@@ -26957,13 +27190,13 @@
         <v>26</v>
       </c>
       <c r="O104" s="53" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="P104" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q104" s="62" t="s">
-        <v>1155</v>
+      <c r="Q104" s="61" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
@@ -26971,52 +27204,52 @@
         <v>104</v>
       </c>
       <c r="B105" s="53" t="s">
-        <v>1405</v>
+        <v>467</v>
       </c>
       <c r="C105" s="53">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D105" s="53" t="s">
-        <v>1323</v>
+        <v>634</v>
       </c>
       <c r="E105" s="53" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F105" s="55" t="s">
-        <v>1332</v>
+        <v>468</v>
+      </c>
+      <c r="F105" s="54" t="s">
+        <v>900</v>
       </c>
       <c r="G105" s="53" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="H105" s="53" t="s">
-        <v>328</v>
+        <v>22</v>
       </c>
       <c r="I105" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J105" s="53" t="s">
-        <v>38</v>
+        <v>665</v>
       </c>
       <c r="K105" s="53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L105" s="53" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="M105" s="53" t="s">
         <v>12</v>
       </c>
       <c r="N105" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="O105" s="53" t="s">
-        <v>1334</v>
+        <v>908</v>
       </c>
       <c r="P105" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q105" s="74" t="s">
-        <v>1329</v>
+      <c r="Q105" s="61" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
@@ -27024,52 +27257,52 @@
         <v>105</v>
       </c>
       <c r="B106" s="53" t="s">
-        <v>471</v>
+        <v>764</v>
       </c>
       <c r="C106" s="53">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="D106" s="53" t="s">
-        <v>250</v>
+        <v>795</v>
       </c>
       <c r="E106" s="53" t="s">
-        <v>472</v>
-      </c>
-      <c r="F106" s="55" t="s">
-        <v>473</v>
+        <v>983</v>
+      </c>
+      <c r="F106" s="54" t="s">
+        <v>349</v>
       </c>
       <c r="G106" s="53" t="s">
-        <v>697</v>
+        <v>536</v>
       </c>
       <c r="H106" s="53" t="s">
-        <v>22</v>
+        <v>726</v>
       </c>
       <c r="I106" s="53" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="J106" s="53" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="K106" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L106" s="53" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M106" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N106" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O106" s="53" t="s">
-        <v>93</v>
+        <v>796</v>
       </c>
       <c r="P106" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q106" s="62" t="s">
-        <v>1157</v>
+      <c r="Q106" s="61" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
@@ -27077,25 +27310,25 @@
         <v>106</v>
       </c>
       <c r="B107" s="53" t="s">
-        <v>1473</v>
+        <v>1405</v>
       </c>
       <c r="C107" s="53">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D107" s="53" t="s">
-        <v>1474</v>
+        <v>1323</v>
       </c>
       <c r="E107" s="53" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F107" s="55" t="s">
-        <v>1436</v>
+        <v>1331</v>
+      </c>
+      <c r="F107" s="54" t="s">
+        <v>1332</v>
       </c>
       <c r="G107" s="53" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="H107" s="53" t="s">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="I107" s="53" t="s">
         <v>26</v>
@@ -27107,113 +27340,113 @@
         <v>391</v>
       </c>
       <c r="L107" s="53" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="M107" s="53" t="s">
         <v>12</v>
       </c>
       <c r="N107" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="O107" s="53" t="s">
-        <v>461</v>
+        <v>1334</v>
       </c>
       <c r="P107" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q107" s="62" t="s">
-        <v>1476</v>
+      <c r="Q107" s="73" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="53">
         <v>107</v>
       </c>
-      <c r="B108" s="62" t="s">
-        <v>271</v>
+      <c r="B108" s="53" t="s">
+        <v>471</v>
       </c>
       <c r="C108" s="53">
         <v>2001</v>
       </c>
       <c r="D108" s="53" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E108" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="F108" s="55" t="s">
-        <v>274</v>
+        <v>472</v>
+      </c>
+      <c r="F108" s="54" t="s">
+        <v>473</v>
       </c>
       <c r="G108" s="53" t="s">
-        <v>150</v>
+        <v>697</v>
       </c>
       <c r="H108" s="53" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I108" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J108" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K108" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L108" s="53" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M108" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N108" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O108" s="53" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="P108" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q108" s="62" t="s">
-        <v>1158</v>
+      <c r="Q108" s="61" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="53">
         <v>108</v>
       </c>
-      <c r="B109" s="73" t="s">
-        <v>968</v>
+      <c r="B109" s="53" t="s">
+        <v>1473</v>
       </c>
       <c r="C109" s="53">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D109" s="53" t="s">
-        <v>969</v>
+        <v>1474</v>
       </c>
       <c r="E109" s="53" t="s">
-        <v>801</v>
-      </c>
-      <c r="F109" s="55" t="s">
-        <v>1168</v>
+        <v>1434</v>
+      </c>
+      <c r="F109" s="54" t="s">
+        <v>1436</v>
       </c>
       <c r="G109" s="53" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="H109" s="53" t="s">
-        <v>328</v>
+        <v>18</v>
       </c>
       <c r="I109" s="53" t="s">
         <v>26</v>
       </c>
       <c r="J109" s="53" t="s">
-        <v>665</v>
+        <v>38</v>
       </c>
       <c r="K109" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L109" s="53" t="s">
-        <v>1231</v>
+        <v>25</v>
       </c>
       <c r="M109" s="53" t="s">
         <v>12</v>
@@ -27222,119 +27455,119 @@
         <v>26</v>
       </c>
       <c r="O109" s="53" t="s">
-        <v>1233</v>
+        <v>461</v>
       </c>
       <c r="P109" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q109" s="62" t="s">
-        <v>1228</v>
+      <c r="Q109" s="61" t="s">
+        <v>1476</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="53">
         <v>109</v>
       </c>
-      <c r="B110" s="53" t="s">
-        <v>72</v>
+      <c r="B110" s="61" t="s">
+        <v>271</v>
       </c>
       <c r="C110" s="53">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="D110" s="53" t="s">
-        <v>83</v>
+        <v>272</v>
       </c>
       <c r="E110" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="F110" s="55" t="s">
-        <v>542</v>
+        <v>273</v>
+      </c>
+      <c r="F110" s="54" t="s">
+        <v>274</v>
       </c>
       <c r="G110" s="53" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="H110" s="53" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="I110" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J110" s="53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K110" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L110" s="53" t="s">
-        <v>1311</v>
+        <v>25</v>
       </c>
       <c r="M110" s="53" t="s">
         <v>12</v>
       </c>
       <c r="N110" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="O110" s="53" t="s">
-        <v>543</v>
+        <v>218</v>
       </c>
       <c r="P110" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q110" s="62" t="s">
-        <v>1159</v>
+      <c r="Q110" s="61" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="53">
         <v>110</v>
       </c>
-      <c r="B111" s="53" t="s">
-        <v>1396</v>
+      <c r="B111" s="72" t="s">
+        <v>968</v>
       </c>
       <c r="C111" s="53">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D111" s="53" t="s">
-        <v>272</v>
+        <v>969</v>
       </c>
       <c r="E111" s="53" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F111" s="55" t="s">
-        <v>1398</v>
+        <v>801</v>
+      </c>
+      <c r="F111" s="54" t="s">
+        <v>1168</v>
       </c>
       <c r="G111" s="53" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H111" s="53" t="s">
-        <v>726</v>
+        <v>328</v>
       </c>
       <c r="I111" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J111" s="53" t="s">
-        <v>37</v>
+        <v>665</v>
       </c>
       <c r="K111" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L111" s="53" t="s">
-        <v>357</v>
+        <v>1231</v>
       </c>
       <c r="M111" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N111" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O111" s="53" t="s">
-        <v>1402</v>
+        <v>1233</v>
       </c>
       <c r="P111" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q111" s="62" t="s">
-        <v>1395</v>
+      <c r="Q111" s="61" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
@@ -27342,105 +27575,105 @@
         <v>111</v>
       </c>
       <c r="B112" s="53" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C112" s="53">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D112" s="53" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E112" s="53" t="s">
-        <v>960</v>
-      </c>
-      <c r="F112" s="55" t="s">
-        <v>29</v>
+        <v>73</v>
+      </c>
+      <c r="F112" s="54" t="s">
+        <v>542</v>
       </c>
       <c r="G112" s="53" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H112" s="53" t="s">
-        <v>726</v>
+        <v>314</v>
       </c>
       <c r="I112" s="53" t="s">
         <v>12</v>
       </c>
       <c r="J112" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K112" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L112" s="53" t="s">
-        <v>40</v>
+        <v>1311</v>
       </c>
       <c r="M112" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N112" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="O112" s="53" t="s">
-        <v>166</v>
+        <v>543</v>
       </c>
       <c r="P112" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q112" s="62" t="s">
-        <v>1028</v>
+      <c r="Q112" s="61" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="45">
+      <c r="A113" s="53">
         <v>112</v>
       </c>
-      <c r="B113" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="45">
-        <v>2014</v>
-      </c>
-      <c r="D113" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E113" s="45" t="s">
-        <v>811</v>
-      </c>
-      <c r="F113" s="46" t="s">
-        <v>995</v>
-      </c>
-      <c r="G113" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H113" s="45" t="s">
+      <c r="B113" s="53" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C113" s="53">
+        <v>2017</v>
+      </c>
+      <c r="D113" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E113" s="53" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F113" s="54" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G113" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H113" s="53" t="s">
         <v>726</v>
       </c>
-      <c r="I113" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="J113" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="K113" s="45" t="s">
+      <c r="I113" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K113" s="53" t="s">
         <v>391</v>
       </c>
-      <c r="L113" s="45" t="s">
-        <v>1202</v>
-      </c>
-      <c r="M113" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="N113" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="O113" s="45" t="s">
-        <v>999</v>
-      </c>
-      <c r="P113" s="45" t="s">
-        <v>575</v>
+      <c r="L113" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="M113" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N113" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O113" s="53" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P113" s="53" t="s">
+        <v>1495</v>
       </c>
       <c r="Q113" s="61" t="s">
-        <v>1067</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
@@ -27448,28 +27681,28 @@
         <v>113</v>
       </c>
       <c r="B114" s="53" t="s">
-        <v>1359</v>
+        <v>15</v>
       </c>
       <c r="C114" s="53">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="D114" s="53" t="s">
-        <v>1360</v>
+        <v>88</v>
       </c>
       <c r="E114" s="53" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F114" s="55" t="s">
-        <v>1361</v>
+        <v>960</v>
+      </c>
+      <c r="F114" s="54" t="s">
+        <v>29</v>
       </c>
       <c r="G114" s="53" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="H114" s="53" t="s">
-        <v>314</v>
+        <v>726</v>
       </c>
       <c r="I114" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J114" s="53" t="s">
         <v>38</v>
@@ -27478,281 +27711,283 @@
         <v>391</v>
       </c>
       <c r="L114" s="53" t="s">
-        <v>1363</v>
+        <v>40</v>
       </c>
       <c r="M114" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N114" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="O114" s="53"/>
+        <v>26</v>
+      </c>
+      <c r="O114" s="53" t="s">
+        <v>166</v>
+      </c>
       <c r="P114" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q114" s="53" t="s">
+      <c r="Q114" s="61" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="45">
+        <v>114</v>
+      </c>
+      <c r="B115" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="45">
+        <v>2014</v>
+      </c>
+      <c r="D115" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E115" s="45" t="s">
+        <v>811</v>
+      </c>
+      <c r="F115" s="46" t="s">
+        <v>995</v>
+      </c>
+      <c r="G115" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H115" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="I115" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K115" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L115" s="45" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M115" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O115" s="45" t="s">
+        <v>999</v>
+      </c>
+      <c r="P115" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q115" s="60" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116" s="53">
+        <v>115</v>
+      </c>
+      <c r="B116" s="53" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C116" s="53">
+        <v>2013</v>
+      </c>
+      <c r="D116" s="53" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E116" s="53" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F116" s="54" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G116" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H116" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="I116" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K116" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L116" s="53" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M116" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N116" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O116" s="53"/>
+      <c r="P116" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q116" s="53" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="20">
-        <v>114</v>
-      </c>
-      <c r="B115" s="7" t="s">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="77">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C117" s="7">
         <v>2007</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D117" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E117" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F117" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="G117" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H117" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I117" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J115" s="7" t="s">
+      <c r="J117" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="K115" s="7" t="s">
+      <c r="K117" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="L115" s="7" t="s">
+      <c r="L117" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="M115" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N115" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O115" s="7" t="s">
+      <c r="M117" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N117" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O117" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="P115" s="7" t="s">
+      <c r="P117" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="Q115" s="65" t="s">
+      <c r="Q117" s="64" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="20">
-        <v>115</v>
-      </c>
-      <c r="B116" s="7" t="s">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" s="77">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C118" s="7">
         <v>2017</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D118" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E118" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F118" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="G118" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H118" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="I116" s="7" t="s">
+      <c r="I118" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="J118" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="K116" s="7" t="s">
+      <c r="K118" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="L116" s="7" t="s">
+      <c r="L118" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="M116" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N116" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O116" s="7" t="s">
+      <c r="M118" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N118" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O118" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="P116" s="7" t="s">
+      <c r="P118" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="Q116" s="65" t="s">
+      <c r="Q118" s="64" t="s">
         <v>1065</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="53">
-        <v>116</v>
-      </c>
-      <c r="B117" s="53" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C117" s="53">
-        <v>2005</v>
-      </c>
-      <c r="D117" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="E117" s="53" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F117" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="G117" s="53" t="s">
-        <v>536</v>
-      </c>
-      <c r="H117" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="I117" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="J117" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="K117" s="53" t="s">
-        <v>391</v>
-      </c>
-      <c r="L117" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="M117" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="N117" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O117" s="53"/>
-      <c r="P117" s="53" t="s">
-        <v>1495</v>
-      </c>
-      <c r="Q117" s="62" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="53">
-        <v>117</v>
-      </c>
-      <c r="B118" s="53" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C118" s="53">
-        <v>2015</v>
-      </c>
-      <c r="D118" s="53" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E118" s="53" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F118" s="55" t="s">
-        <v>1340</v>
-      </c>
-      <c r="G118" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="H118" s="53" t="s">
-        <v>1341</v>
-      </c>
-      <c r="I118" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J118" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="K118" s="53" t="s">
-        <v>391</v>
-      </c>
-      <c r="L118" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="M118" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="N118" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="O118" s="53"/>
-      <c r="P118" s="53" t="s">
-        <v>1495</v>
-      </c>
-      <c r="Q118" s="53" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="53">
         <v>118</v>
       </c>
-      <c r="B119" s="73" t="s">
-        <v>1407</v>
+      <c r="B119" s="53" t="s">
+        <v>1189</v>
       </c>
       <c r="C119" s="53">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="D119" s="53" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E119" s="53" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F119" s="55" t="s">
-        <v>1409</v>
+        <v>1269</v>
+      </c>
+      <c r="F119" s="54" t="s">
+        <v>185</v>
       </c>
       <c r="G119" s="53" t="s">
         <v>536</v>
       </c>
       <c r="H119" s="53" t="s">
-        <v>726</v>
+        <v>174</v>
       </c>
       <c r="I119" s="53" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="J119" s="53" t="s">
-        <v>38</v>
+        <v>563</v>
       </c>
       <c r="K119" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L119" s="53" t="s">
-        <v>597</v>
+        <v>40</v>
       </c>
       <c r="M119" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N119" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="O119" s="53" t="s">
-        <v>1411</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="O119" s="53"/>
       <c r="P119" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q119" s="62" t="s">
-        <v>1406</v>
+      <c r="Q119" s="61" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
@@ -27760,105 +27995,103 @@
         <v>119</v>
       </c>
       <c r="B120" s="53" t="s">
-        <v>293</v>
+        <v>1337</v>
       </c>
       <c r="C120" s="53">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="D120" s="53" t="s">
-        <v>84</v>
+        <v>1338</v>
       </c>
       <c r="E120" s="53" t="s">
-        <v>959</v>
-      </c>
-      <c r="F120" s="55" t="s">
-        <v>561</v>
+        <v>1339</v>
+      </c>
+      <c r="F120" s="54" t="s">
+        <v>1340</v>
       </c>
       <c r="G120" s="53" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="H120" s="53" t="s">
-        <v>564</v>
+        <v>1341</v>
       </c>
       <c r="I120" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J120" s="53" t="s">
-        <v>563</v>
+        <v>38</v>
       </c>
       <c r="K120" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L120" s="53" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="M120" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N120" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="O120" s="53" t="s">
-        <v>567</v>
-      </c>
+      <c r="O120" s="53"/>
       <c r="P120" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q120" s="62" t="s">
-        <v>1047</v>
+      <c r="Q120" s="53" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="53">
         <v>120</v>
       </c>
-      <c r="B121" s="53" t="s">
-        <v>293</v>
+      <c r="B121" s="72" t="s">
+        <v>1407</v>
       </c>
       <c r="C121" s="53">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="D121" s="53" t="s">
-        <v>870</v>
+        <v>248</v>
       </c>
       <c r="E121" s="53" t="s">
-        <v>959</v>
-      </c>
-      <c r="F121" s="55" t="s">
-        <v>561</v>
+        <v>1408</v>
+      </c>
+      <c r="F121" s="54" t="s">
+        <v>1409</v>
       </c>
       <c r="G121" s="53" t="s">
-        <v>150</v>
+        <v>536</v>
       </c>
       <c r="H121" s="53" t="s">
-        <v>564</v>
+        <v>726</v>
       </c>
       <c r="I121" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J121" s="53" t="s">
-        <v>563</v>
+        <v>38</v>
       </c>
       <c r="K121" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L121" s="53" t="s">
-        <v>40</v>
+        <v>597</v>
       </c>
       <c r="M121" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N121" s="53" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="O121" s="53" t="s">
-        <v>567</v>
+        <v>1411</v>
       </c>
       <c r="P121" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q121" s="62" t="s">
-        <v>1048</v>
+      <c r="Q121" s="61" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
@@ -27869,15 +28102,15 @@
         <v>293</v>
       </c>
       <c r="C122" s="53">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="D122" s="53" t="s">
-        <v>478</v>
+        <v>84</v>
       </c>
       <c r="E122" s="53" t="s">
         <v>959</v>
       </c>
-      <c r="F122" s="55" t="s">
+      <c r="F122" s="54" t="s">
         <v>561</v>
       </c>
       <c r="G122" s="53" t="s">
@@ -27910,8 +28143,8 @@
       <c r="P122" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q122" s="62" t="s">
-        <v>1046</v>
+      <c r="Q122" s="61" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
@@ -27919,58 +28152,164 @@
         <v>122</v>
       </c>
       <c r="B123" s="53" t="s">
-        <v>487</v>
+        <v>293</v>
       </c>
       <c r="C123" s="53">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D123" s="53" t="s">
-        <v>488</v>
+        <v>870</v>
       </c>
       <c r="E123" s="53" t="s">
-        <v>489</v>
-      </c>
-      <c r="F123" s="55" t="s">
-        <v>490</v>
+        <v>959</v>
+      </c>
+      <c r="F123" s="54" t="s">
+        <v>561</v>
       </c>
       <c r="G123" s="53" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="H123" s="53" t="s">
-        <v>493</v>
+        <v>564</v>
       </c>
       <c r="I123" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J123" s="53" t="s">
-        <v>37</v>
+        <v>563</v>
       </c>
       <c r="K123" s="53" t="s">
         <v>391</v>
       </c>
       <c r="L123" s="53" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="M123" s="53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N123" s="53" t="s">
         <v>26</v>
       </c>
       <c r="O123" s="53" t="s">
-        <v>14</v>
+        <v>567</v>
       </c>
       <c r="P123" s="53" t="s">
         <v>1495</v>
       </c>
-      <c r="Q123" s="76" t="s">
+      <c r="Q123" s="61" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="53">
+        <v>123</v>
+      </c>
+      <c r="B124" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C124" s="53">
+        <v>2009</v>
+      </c>
+      <c r="D124" s="53" t="s">
+        <v>478</v>
+      </c>
+      <c r="E124" s="53" t="s">
+        <v>959</v>
+      </c>
+      <c r="F124" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="G124" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="H124" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="I124" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J124" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="K124" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L124" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M124" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N124" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O124" s="53" t="s">
+        <v>567</v>
+      </c>
+      <c r="P124" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q124" s="61" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="53">
+        <v>124</v>
+      </c>
+      <c r="B125" s="53" t="s">
+        <v>487</v>
+      </c>
+      <c r="C125" s="53">
+        <v>2009</v>
+      </c>
+      <c r="D125" s="53" t="s">
+        <v>488</v>
+      </c>
+      <c r="E125" s="53" t="s">
+        <v>489</v>
+      </c>
+      <c r="F125" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="G125" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H125" s="53" t="s">
+        <v>493</v>
+      </c>
+      <c r="I125" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J125" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="K125" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L125" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="M125" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O125" s="53" t="s">
+        <v>464</v>
+      </c>
+      <c r="P125" s="53" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Q125" s="75" t="s">
         <v>1161</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P123" xr:uid="{BD4A6C70-8507-4B4A-8FF8-89379E8F198D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P123">
-    <sortCondition ref="B2:B123"/>
+  <autoFilter ref="A1:P125" xr:uid="{BD4A6C70-8507-4B4A-8FF8-89379E8F198D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P125">
+    <sortCondition ref="B2:B125"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="Q8" r:id="rId1" xr:uid="{E3AD89F5-0EF7-40D9-ADEB-02A9758BA73D}"/>
@@ -27981,18 +28320,20 @@
     <hyperlink ref="Q50" r:id="rId6" xr:uid="{8D5AC8B0-0565-4B1E-BA75-7EB73EBB97C1}"/>
     <hyperlink ref="B53" r:id="rId7" display="https://www.webofscience.com/wos/author/record/3831527" xr:uid="{E90A37A7-8FB1-4162-834A-EFEA1866C44D}"/>
     <hyperlink ref="Q60" r:id="rId8" xr:uid="{934744CB-4F21-41C4-BCBB-037ADC098CD3}"/>
-    <hyperlink ref="Q68" r:id="rId9" tooltip="Persistent link using digital object identifier" xr:uid="{8622A480-F938-4E18-B830-3AB7D86B5473}"/>
-    <hyperlink ref="Q74" r:id="rId10" xr:uid="{CBC9B4C2-4B07-44D2-848F-C3B90E96EEDC}"/>
-    <hyperlink ref="Q77" r:id="rId11" xr:uid="{E5F1DCA2-2632-493F-8F7F-5F1D0EAA62CF}"/>
-    <hyperlink ref="Q86" r:id="rId12" xr:uid="{211D7C16-A8CD-4391-A991-82660B912B8A}"/>
-    <hyperlink ref="Q105" r:id="rId13" xr:uid="{E19C56FC-647D-4143-A84C-25E20B8DCD7E}"/>
-    <hyperlink ref="Q123" r:id="rId14" display="https://doi.org/10.1111/j.1557-9263.2009.00243.x" xr:uid="{0B99DF28-86B7-4438-B05D-F7E17EC4BFD5}"/>
-    <hyperlink ref="Q62" r:id="rId15" tooltip="Persistent link using digital object identifier" xr:uid="{399580B4-FBA2-493E-951D-35877F74A7B7}"/>
+    <hyperlink ref="Q69" r:id="rId9" tooltip="Persistent link using digital object identifier" xr:uid="{8622A480-F938-4E18-B830-3AB7D86B5473}"/>
+    <hyperlink ref="Q76" r:id="rId10" xr:uid="{CBC9B4C2-4B07-44D2-848F-C3B90E96EEDC}"/>
+    <hyperlink ref="Q79" r:id="rId11" xr:uid="{E5F1DCA2-2632-493F-8F7F-5F1D0EAA62CF}"/>
+    <hyperlink ref="Q88" r:id="rId12" xr:uid="{211D7C16-A8CD-4391-A991-82660B912B8A}"/>
+    <hyperlink ref="Q107" r:id="rId13" xr:uid="{E19C56FC-647D-4143-A84C-25E20B8DCD7E}"/>
+    <hyperlink ref="Q125" r:id="rId14" display="https://doi.org/10.1111/j.1557-9263.2009.00243.x" xr:uid="{0B99DF28-86B7-4438-B05D-F7E17EC4BFD5}"/>
+    <hyperlink ref="Q63" r:id="rId15" tooltip="Persistent link using digital object identifier" xr:uid="{399580B4-FBA2-493E-951D-35877F74A7B7}"/>
     <hyperlink ref="Q31" r:id="rId16" tooltip="Persistent link using digital object identifier" xr:uid="{8A996ED1-7663-4F11-90D1-60B1D44CC8EB}"/>
-    <hyperlink ref="Q89" r:id="rId17" xr:uid="{6B6ADDA6-2D1E-4BE8-952D-DF6DB984882B}"/>
+    <hyperlink ref="Q91" r:id="rId17" xr:uid="{6B6ADDA6-2D1E-4BE8-952D-DF6DB984882B}"/>
     <hyperlink ref="Q48" r:id="rId18" xr:uid="{CCBBBF85-BA86-4B3A-B0AD-B8F7E4AF9D37}"/>
     <hyperlink ref="Q9" r:id="rId19" tooltip="Persistent link using digital object identifier" xr:uid="{79C0F581-E445-42F5-88B3-46ADBA5CD8BD}"/>
-    <hyperlink ref="Q73" r:id="rId20" xr:uid="{BBD7B8ED-D973-4273-BB33-8990F0D3A881}"/>
+    <hyperlink ref="Q75" r:id="rId20" xr:uid="{BBD7B8ED-D973-4273-BB33-8990F0D3A881}"/>
+    <hyperlink ref="Q61" r:id="rId21" xr:uid="{BA493F2B-4BCC-486B-A1FE-D3DAE8F985A3}"/>
+    <hyperlink ref="Q71" r:id="rId22" display="https://doi.org/10.3398/1527-0904(2007)67%5b102:DAEMOS%5d2.0.CO;2" xr:uid="{9EB712F1-4157-44C6-A8D2-6F7E1CF7026E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Prospecting bibliography.xlsx
+++ b/Data/Prospecting bibliography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Prospecting review\Prospecting review analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974CA6E1-DA80-4DD4-8F65-E81A928FF3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D20EC7-E1A5-4A2C-B033-9E49341A83D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Supp_1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$182</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Supp_1!$A$1:$P$125</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -5162,8 +5162,8 @@
   <dimension ref="A1:AD186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20243,7 +20243,7 @@
       <c r="F186" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD180" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:AD182" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="prospecting"/>
